--- a/1.0.3/Validatiematrix 1 (version 1).xlsx
+++ b/1.0.3/Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3653AF8-4976-4A26-8C2E-06FFC5F5D834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF362F1-6950-42A1-830D-FB89D7EC55F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4120,7 +4120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4130,12 +4130,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4366,21 +4360,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4389,7 +4383,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4433,7 +4427,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4506,16 +4500,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4528,16 +4519,16 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5060,8 +5051,8 @@
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5081,8 +5072,8 @@
     <col min="14" max="14" width="17.77734375" customWidth="1"/>
     <col min="15" max="15" width="5.33203125" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="44" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="44" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="43" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="43" customWidth="1"/>
     <col min="19" max="19" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5132,16 +5123,16 @@
       <c r="O1" s="9" t="s">
         <v>1064</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="42" t="s">
         <v>1227</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="44" t="s">
         <v>1230</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="44" t="s">
         <v>1236</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="42" t="s">
         <v>1229</v>
       </c>
     </row>
@@ -5188,8 +5179,8 @@
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5235,8 +5226,8 @@
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5282,8 +5273,8 @@
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
       <c r="S4" s="21"/>
     </row>
     <row r="5" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5329,8 +5320,8 @@
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5376,8 +5367,8 @@
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
       <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5423,8 +5414,8 @@
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5470,8 +5461,8 @@
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5517,8 +5508,8 @@
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5564,8 +5555,8 @@
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
       <c r="S10" s="21"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5611,8 +5602,8 @@
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5658,8 +5649,8 @@
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5705,8 +5696,8 @@
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5752,8 +5743,8 @@
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
       <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5799,8 +5790,8 @@
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5846,8 +5837,8 @@
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
       <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5893,8 +5884,8 @@
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5940,8 +5931,8 @@
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5987,15 +5978,15 @@
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>4</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>682</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -6038,10 +6029,10 @@
       <c r="P20" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="45">
         <v>44208</v>
       </c>
-      <c r="R20" s="46"/>
+      <c r="R20" s="45"/>
       <c r="S20" s="21" t="s">
         <v>1243</v>
       </c>
@@ -6050,7 +6041,7 @@
       <c r="A21" s="26">
         <v>4</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>683</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -6093,10 +6084,10 @@
       <c r="P21" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="45">
         <v>44166</v>
       </c>
-      <c r="R21" s="46" t="s">
+      <c r="R21" s="45" t="s">
         <v>1238</v>
       </c>
       <c r="S21" s="21"/>
@@ -6105,7 +6096,7 @@
       <c r="A22" s="26">
         <v>4</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>684</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -6148,10 +6139,10 @@
       <c r="P22" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="45">
         <v>44166</v>
       </c>
-      <c r="R22" s="46" t="s">
+      <c r="R22" s="45" t="s">
         <v>1238</v>
       </c>
       <c r="S22" s="21"/>
@@ -6160,7 +6151,7 @@
       <c r="A23" s="26">
         <v>4</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>685</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -6203,10 +6194,10 @@
       <c r="P23" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="Q23" s="45">
         <v>44166</v>
       </c>
-      <c r="R23" s="46" t="s">
+      <c r="R23" s="45" t="s">
         <v>1238</v>
       </c>
       <c r="S23" s="21"/>
@@ -6215,7 +6206,7 @@
       <c r="A24" s="26">
         <v>4</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>686</v>
       </c>
       <c r="C24" s="21" t="s">
@@ -6258,10 +6249,10 @@
       <c r="P24" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="45">
         <v>44166</v>
       </c>
-      <c r="R24" s="46" t="s">
+      <c r="R24" s="45" t="s">
         <v>1238</v>
       </c>
       <c r="S24" s="21"/>
@@ -6270,7 +6261,7 @@
       <c r="A25" s="26">
         <v>4</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>687</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -6313,10 +6304,10 @@
       <c r="P25" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="Q25" s="45">
         <v>44166</v>
       </c>
-      <c r="R25" s="46" t="s">
+      <c r="R25" s="45" t="s">
         <v>1238</v>
       </c>
       <c r="S25" s="21"/>
@@ -6325,7 +6316,7 @@
       <c r="A26" s="27">
         <v>4</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>688</v>
       </c>
       <c r="C26" s="21" t="s">
@@ -6368,10 +6359,10 @@
       <c r="P26" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="Q26" s="45">
         <v>44166</v>
       </c>
-      <c r="R26" s="46" t="s">
+      <c r="R26" s="45" t="s">
         <v>1238</v>
       </c>
       <c r="S26" s="21"/>
@@ -6380,7 +6371,7 @@
       <c r="A27" s="27">
         <v>4</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="48" t="s">
         <v>689</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -6423,10 +6414,10 @@
       <c r="P27" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="Q27" s="45">
         <v>44166</v>
       </c>
-      <c r="R27" s="46" t="s">
+      <c r="R27" s="45" t="s">
         <v>1238</v>
       </c>
       <c r="S27" s="21"/>
@@ -6435,7 +6426,7 @@
       <c r="A28" s="27">
         <v>4</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="48" t="s">
         <v>690</v>
       </c>
       <c r="C28" s="21" t="s">
@@ -6478,10 +6469,10 @@
       <c r="P28" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="45">
         <v>44166</v>
       </c>
-      <c r="R28" s="46" t="s">
+      <c r="R28" s="45" t="s">
         <v>1238</v>
       </c>
       <c r="S28" s="21"/>
@@ -6490,7 +6481,7 @@
       <c r="A29" s="27">
         <v>4</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>691</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -6533,10 +6524,10 @@
       <c r="P29" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29" s="45">
         <v>44166</v>
       </c>
-      <c r="R29" s="46" t="s">
+      <c r="R29" s="45" t="s">
         <v>1238</v>
       </c>
       <c r="S29" s="21"/>
@@ -6545,7 +6536,7 @@
       <c r="A30" s="27">
         <v>4</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>692</v>
       </c>
       <c r="C30" s="21" t="s">
@@ -6588,10 +6579,10 @@
       <c r="P30" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="Q30" s="45">
         <v>44166</v>
       </c>
-      <c r="R30" s="46" t="s">
+      <c r="R30" s="45" t="s">
         <v>1238</v>
       </c>
       <c r="S30" s="21"/>
@@ -6600,7 +6591,7 @@
       <c r="A31" s="27">
         <v>4</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="48" t="s">
         <v>693</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -6643,10 +6634,10 @@
       <c r="P31" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q31" s="46">
+      <c r="Q31" s="45">
         <v>44166</v>
       </c>
-      <c r="R31" s="46" t="s">
+      <c r="R31" s="45" t="s">
         <v>1238</v>
       </c>
       <c r="S31" s="21"/>
@@ -6698,10 +6689,10 @@
       <c r="P32" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q32" s="46">
+      <c r="Q32" s="45">
         <v>44166</v>
       </c>
-      <c r="R32" s="46" t="s">
+      <c r="R32" s="45" t="s">
         <v>1238</v>
       </c>
       <c r="S32" s="21"/>
@@ -6753,10 +6744,10 @@
       <c r="P33" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q33" s="46">
+      <c r="Q33" s="45">
         <v>44166</v>
       </c>
-      <c r="R33" s="46" t="s">
+      <c r="R33" s="45" t="s">
         <v>1238</v>
       </c>
       <c r="S33" s="21"/>
@@ -6804,8 +6795,8 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="21"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
       <c r="S34" s="21" t="s">
         <v>1214</v>
       </c>
@@ -6853,8 +6844,8 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="21"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
       <c r="S35" s="21" t="s">
         <v>1214</v>
       </c>
@@ -6906,8 +6897,8 @@
         <v>1065</v>
       </c>
       <c r="P36" s="21"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
       <c r="S36" s="21"/>
     </row>
     <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6957,15 +6948,15 @@
         <v>1065</v>
       </c>
       <c r="P37" s="21"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
       <c r="S37" s="21"/>
     </row>
     <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27">
         <v>1</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -7010,8 +7001,8 @@
       <c r="P38" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46" t="s">
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S38" s="21" t="s">
@@ -7022,7 +7013,7 @@
       <c r="A39" s="27">
         <v>1</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="49" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="21" t="s">
@@ -7067,10 +7058,10 @@
       <c r="P39" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q39" s="46">
+      <c r="Q39" s="45">
         <v>44208</v>
       </c>
-      <c r="R39" s="46" t="s">
+      <c r="R39" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S39" s="21" t="s">
@@ -7081,7 +7072,7 @@
       <c r="A40" s="27">
         <v>1</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="21" t="s">
@@ -7126,10 +7117,10 @@
       <c r="P40" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q40" s="46">
+      <c r="Q40" s="45">
         <v>44208</v>
       </c>
-      <c r="R40" s="46" t="s">
+      <c r="R40" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S40" s="21" t="s">
@@ -7140,7 +7131,7 @@
       <c r="A41" s="27">
         <v>1</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="49" t="s">
         <v>32</v>
       </c>
       <c r="C41" s="21" t="s">
@@ -7185,10 +7176,10 @@
       <c r="P41" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q41" s="46">
+      <c r="Q41" s="45">
         <v>44208</v>
       </c>
-      <c r="R41" s="46" t="s">
+      <c r="R41" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S41" s="21" t="s">
@@ -7199,7 +7190,7 @@
       <c r="A42" s="27">
         <v>1</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="21" t="s">
@@ -7244,10 +7235,10 @@
       <c r="P42" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="45">
         <v>44208</v>
       </c>
-      <c r="R42" s="46" t="s">
+      <c r="R42" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S42" s="21" t="s">
@@ -7258,7 +7249,7 @@
       <c r="A43" s="27">
         <v>1</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="49" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -7303,10 +7294,10 @@
       <c r="P43" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q43" s="46">
+      <c r="Q43" s="45">
         <v>44208</v>
       </c>
-      <c r="R43" s="46" t="s">
+      <c r="R43" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S43" s="21" t="s">
@@ -7317,7 +7308,7 @@
       <c r="A44" s="27">
         <v>1</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="49" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="21" t="s">
@@ -7362,10 +7353,10 @@
       <c r="P44" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q44" s="46">
+      <c r="Q44" s="45">
         <v>44208</v>
       </c>
-      <c r="R44" s="46" t="s">
+      <c r="R44" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S44" s="21" t="s">
@@ -7376,7 +7367,7 @@
       <c r="A45" s="27">
         <v>1</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -7421,10 +7412,10 @@
       <c r="P45" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q45" s="46">
+      <c r="Q45" s="45">
         <v>44208</v>
       </c>
-      <c r="R45" s="46" t="s">
+      <c r="R45" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S45" s="21" t="s">
@@ -7435,7 +7426,7 @@
       <c r="A46" s="27">
         <v>1</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="49" t="s">
         <v>37</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -7480,10 +7471,10 @@
       <c r="P46" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q46" s="46">
+      <c r="Q46" s="45">
         <v>44208</v>
       </c>
-      <c r="R46" s="46" t="s">
+      <c r="R46" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S46" s="21" t="s">
@@ -7494,7 +7485,7 @@
       <c r="A47" s="27">
         <v>1</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="49" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -7539,10 +7530,10 @@
       <c r="P47" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="Q47" s="46">
+      <c r="Q47" s="45">
         <v>44208</v>
       </c>
-      <c r="R47" s="46"/>
+      <c r="R47" s="45"/>
       <c r="S47" s="21" t="s">
         <v>1256</v>
       </c>
@@ -7551,7 +7542,7 @@
       <c r="A48" s="27">
         <v>1</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="49" t="s">
         <v>39</v>
       </c>
       <c r="C48" s="21" t="s">
@@ -7596,10 +7587,10 @@
       <c r="P48" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q48" s="46">
+      <c r="Q48" s="45">
         <v>44210</v>
       </c>
-      <c r="R48" s="46" t="s">
+      <c r="R48" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S48" s="21" t="s">
@@ -7655,10 +7646,10 @@
       <c r="P49" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q49" s="46">
+      <c r="Q49" s="45">
         <v>44208</v>
       </c>
-      <c r="R49" s="46"/>
+      <c r="R49" s="45"/>
       <c r="S49" s="21" t="s">
         <v>1251</v>
       </c>
@@ -7667,7 +7658,7 @@
       <c r="A50" s="27">
         <v>1</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="49" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="21" t="s">
@@ -7712,10 +7703,10 @@
       <c r="P50" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q50" s="46">
+      <c r="Q50" s="45">
         <v>44210</v>
       </c>
-      <c r="R50" s="46" t="s">
+      <c r="R50" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S50" s="21" t="s">
@@ -7726,7 +7717,7 @@
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="49" t="s">
         <v>70</v>
       </c>
       <c r="C51" s="21" t="s">
@@ -7771,10 +7762,10 @@
       <c r="P51" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="Q51" s="46">
+      <c r="Q51" s="45">
         <v>44208</v>
       </c>
-      <c r="R51" s="46"/>
+      <c r="R51" s="45"/>
       <c r="S51" s="21" t="s">
         <v>1245</v>
       </c>
@@ -7783,7 +7774,7 @@
       <c r="A52" s="27">
         <v>1</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="49" t="s">
         <v>72</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -7828,10 +7819,10 @@
       <c r="P52" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="Q52" s="46">
+      <c r="Q52" s="45">
         <v>44208</v>
       </c>
-      <c r="R52" s="46"/>
+      <c r="R52" s="45"/>
       <c r="S52" s="21" t="s">
         <v>1250</v>
       </c>
@@ -7840,7 +7831,7 @@
       <c r="A53" s="27">
         <v>1</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="49" t="s">
         <v>74</v>
       </c>
       <c r="C53" s="21" t="s">
@@ -7885,10 +7876,10 @@
       <c r="P53" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q53" s="46">
+      <c r="Q53" s="45">
         <v>44214</v>
       </c>
-      <c r="R53" s="46" t="s">
+      <c r="R53" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S53" s="21" t="s">
@@ -7899,7 +7890,7 @@
       <c r="A54" s="27">
         <v>1</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="49" t="s">
         <v>76</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -7944,10 +7935,10 @@
       <c r="P54" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="Q54" s="46">
+      <c r="Q54" s="45">
         <v>44208</v>
       </c>
-      <c r="R54" s="46"/>
+      <c r="R54" s="45"/>
       <c r="S54" s="21" t="s">
         <v>1253</v>
       </c>
@@ -7956,7 +7947,7 @@
       <c r="A55" s="27">
         <v>1</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="49" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="21" t="s">
@@ -8001,10 +7992,10 @@
       <c r="P55" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="Q55" s="46">
+      <c r="Q55" s="45">
         <v>44208</v>
       </c>
-      <c r="R55" s="46" t="s">
+      <c r="R55" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S55" s="21" t="s">
@@ -8015,7 +8006,7 @@
       <c r="A56" s="27">
         <v>1</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="49" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="21" t="s">
@@ -8060,10 +8051,10 @@
       <c r="P56" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q56" s="46">
+      <c r="Q56" s="45">
         <v>44214</v>
       </c>
-      <c r="R56" s="46" t="s">
+      <c r="R56" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S56" s="21" t="s">
@@ -8074,7 +8065,7 @@
       <c r="A57" s="26">
         <v>1</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="49" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="21" t="s">
@@ -8119,10 +8110,10 @@
       <c r="P57" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q57" s="46">
+      <c r="Q57" s="45">
         <v>44214</v>
       </c>
-      <c r="R57" s="46" t="s">
+      <c r="R57" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S57" s="21" t="s">
@@ -8133,7 +8124,7 @@
       <c r="A58" s="26">
         <v>1</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="48" t="s">
         <v>1067</v>
       </c>
       <c r="C58" s="21" t="s">
@@ -8178,10 +8169,10 @@
       <c r="P58" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q58" s="46">
+      <c r="Q58" s="45">
         <v>44208</v>
       </c>
-      <c r="R58" s="46"/>
+      <c r="R58" s="45"/>
       <c r="S58" s="21" t="s">
         <v>1251</v>
       </c>
@@ -8190,7 +8181,7 @@
       <c r="A59" s="26">
         <v>1</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="48" t="s">
         <v>1069</v>
       </c>
       <c r="C59" s="21" t="s">
@@ -8235,10 +8226,10 @@
       <c r="P59" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q59" s="46">
+      <c r="Q59" s="45">
         <v>44208</v>
       </c>
-      <c r="R59" s="46"/>
+      <c r="R59" s="45"/>
       <c r="S59" s="21" t="s">
         <v>1251</v>
       </c>
@@ -8290,10 +8281,10 @@
       <c r="P60" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q60" s="46">
+      <c r="Q60" s="45">
         <v>44214</v>
       </c>
-      <c r="R60" s="46" t="s">
+      <c r="R60" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S60" s="21" t="s">
@@ -8347,10 +8338,10 @@
       <c r="P61" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q61" s="46">
+      <c r="Q61" s="45">
         <v>44214</v>
       </c>
-      <c r="R61" s="46" t="s">
+      <c r="R61" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S61" s="21" t="s">
@@ -8404,10 +8395,10 @@
       <c r="P62" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q62" s="46">
+      <c r="Q62" s="45">
         <v>44214</v>
       </c>
-      <c r="R62" s="46" t="s">
+      <c r="R62" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S62" s="21" t="s">
@@ -8418,7 +8409,7 @@
       <c r="A63" s="28">
         <v>2</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="49" t="s">
         <v>152</v>
       </c>
       <c r="C63" s="21" t="s">
@@ -8463,10 +8454,10 @@
       <c r="P63" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q63" s="46">
+      <c r="Q63" s="45">
         <v>44214</v>
       </c>
-      <c r="R63" s="46" t="s">
+      <c r="R63" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S63" s="21" t="s">
@@ -8518,8 +8509,8 @@
       <c r="P64" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q64" s="46"/>
-      <c r="R64" s="46"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45"/>
       <c r="S64" s="21" t="s">
         <v>1279</v>
       </c>
@@ -8528,7 +8519,7 @@
       <c r="A65" s="29">
         <v>2</v>
       </c>
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="48" t="s">
         <v>1071</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -8573,10 +8564,10 @@
       <c r="P65" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q65" s="46">
+      <c r="Q65" s="45">
         <v>44214</v>
       </c>
-      <c r="R65" s="46" t="s">
+      <c r="R65" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S65" s="21" t="s">
@@ -8587,7 +8578,7 @@
       <c r="A66" s="29">
         <v>2</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="48" t="s">
         <v>1073</v>
       </c>
       <c r="C66" s="21" t="s">
@@ -8633,10 +8624,10 @@
       <c r="P66" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q66" s="46">
+      <c r="Q66" s="45">
         <v>44214</v>
       </c>
-      <c r="R66" s="46" t="s">
+      <c r="R66" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S66" s="21" t="s">
@@ -8647,7 +8638,7 @@
       <c r="A67" s="29">
         <v>2</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="49" t="s">
         <v>154</v>
       </c>
       <c r="C67" s="21" t="s">
@@ -8693,10 +8684,10 @@
       <c r="P67" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="Q67" s="46">
+      <c r="Q67" s="45">
         <v>44214</v>
       </c>
-      <c r="R67" s="46" t="s">
+      <c r="R67" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S67" s="21" t="s">
@@ -8750,8 +8741,8 @@
       <c r="P68" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q68" s="46"/>
-      <c r="R68" s="46"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
       <c r="S68" s="21" t="s">
         <v>1279</v>
       </c>
@@ -8801,8 +8792,8 @@
       <c r="P69" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q69" s="46"/>
-      <c r="R69" s="46"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45"/>
       <c r="S69" s="21" t="s">
         <v>1279</v>
       </c>
@@ -8852,8 +8843,8 @@
       <c r="P70" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="46"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="45"/>
       <c r="S70" s="21" t="s">
         <v>1279</v>
       </c>
@@ -8862,7 +8853,7 @@
       <c r="A71" s="29">
         <v>2</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="49" t="s">
         <v>723</v>
       </c>
       <c r="C71" s="21" t="s">
@@ -8908,10 +8899,10 @@
       <c r="P71" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q71" s="46">
+      <c r="Q71" s="45">
         <v>44208</v>
       </c>
-      <c r="R71" s="46" t="s">
+      <c r="R71" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S71" s="21" t="s">
@@ -8922,7 +8913,7 @@
       <c r="A72" s="29">
         <v>2</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="49" t="s">
         <v>725</v>
       </c>
       <c r="C72" s="21" t="s">
@@ -8968,10 +8959,10 @@
       <c r="P72" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q72" s="46">
+      <c r="Q72" s="45">
         <v>44214</v>
       </c>
-      <c r="R72" s="46" t="s">
+      <c r="R72" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S72" s="21" t="s">
@@ -9023,8 +9014,8 @@
       <c r="P73" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q73" s="46"/>
-      <c r="R73" s="46"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="45"/>
       <c r="S73" s="21" t="s">
         <v>1279</v>
       </c>
@@ -9074,8 +9065,8 @@
       <c r="P74" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q74" s="46"/>
-      <c r="R74" s="46"/>
+      <c r="Q74" s="45"/>
+      <c r="R74" s="45"/>
       <c r="S74" s="21" t="s">
         <v>1279</v>
       </c>
@@ -9084,7 +9075,7 @@
       <c r="A75" s="29">
         <v>2</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="48" t="s">
         <v>1077</v>
       </c>
       <c r="C75" s="21" t="s">
@@ -9130,10 +9121,10 @@
       <c r="P75" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q75" s="46">
+      <c r="Q75" s="45">
         <v>44214</v>
       </c>
-      <c r="R75" s="46" t="s">
+      <c r="R75" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S75" s="21" t="s">
@@ -9185,8 +9176,8 @@
       <c r="P76" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q76" s="46"/>
-      <c r="R76" s="46"/>
+      <c r="Q76" s="45"/>
+      <c r="R76" s="45"/>
       <c r="S76" s="21" t="s">
         <v>1279</v>
       </c>
@@ -9236,8 +9227,8 @@
       <c r="P77" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q77" s="46"/>
-      <c r="R77" s="46"/>
+      <c r="Q77" s="45"/>
+      <c r="R77" s="45"/>
       <c r="S77" s="21" t="s">
         <v>1279</v>
       </c>
@@ -9287,8 +9278,8 @@
       <c r="P78" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="46"/>
+      <c r="Q78" s="45"/>
+      <c r="R78" s="45"/>
       <c r="S78" s="21" t="s">
         <v>1279</v>
       </c>
@@ -9338,8 +9329,8 @@
       <c r="P79" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q79" s="46"/>
-      <c r="R79" s="46"/>
+      <c r="Q79" s="45"/>
+      <c r="R79" s="45"/>
       <c r="S79" s="21" t="s">
         <v>1279</v>
       </c>
@@ -9389,8 +9380,8 @@
       <c r="P80" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q80" s="46"/>
-      <c r="R80" s="46"/>
+      <c r="Q80" s="45"/>
+      <c r="R80" s="45"/>
       <c r="S80" s="21" t="s">
         <v>1279</v>
       </c>
@@ -9440,8 +9431,8 @@
       <c r="P81" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q81" s="46"/>
-      <c r="R81" s="46"/>
+      <c r="Q81" s="45"/>
+      <c r="R81" s="45"/>
       <c r="S81" s="21" t="s">
         <v>1279</v>
       </c>
@@ -9491,8 +9482,8 @@
       <c r="P82" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q82" s="46"/>
-      <c r="R82" s="46"/>
+      <c r="Q82" s="45"/>
+      <c r="R82" s="45"/>
       <c r="S82" s="21" t="s">
         <v>1279</v>
       </c>
@@ -9542,8 +9533,8 @@
       <c r="P83" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q83" s="46"/>
-      <c r="R83" s="46"/>
+      <c r="Q83" s="45"/>
+      <c r="R83" s="45"/>
       <c r="S83" s="21" t="s">
         <v>1279</v>
       </c>
@@ -9552,7 +9543,7 @@
       <c r="A84" s="29">
         <v>2</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="40" t="s">
         <v>729</v>
       </c>
       <c r="C84" s="21" t="s">
@@ -9595,8 +9586,8 @@
       <c r="P84" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q84" s="46"/>
-      <c r="R84" s="46" t="s">
+      <c r="Q84" s="45"/>
+      <c r="R84" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S84" s="21" t="s">
@@ -9648,8 +9639,8 @@
       <c r="P85" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q85" s="46"/>
-      <c r="R85" s="46"/>
+      <c r="Q85" s="45"/>
+      <c r="R85" s="45"/>
       <c r="S85" s="21" t="s">
         <v>1279</v>
       </c>
@@ -9658,7 +9649,7 @@
       <c r="A86" s="28">
         <v>2</v>
       </c>
-      <c r="B86" s="50" t="s">
+      <c r="B86" s="49" t="s">
         <v>43</v>
       </c>
       <c r="C86" s="21" t="s">
@@ -9704,10 +9695,10 @@
       <c r="P86" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="Q86" s="46">
+      <c r="Q86" s="45">
         <v>44214</v>
       </c>
-      <c r="R86" s="46" t="s">
+      <c r="R86" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S86" s="21" t="s">
@@ -9759,8 +9750,8 @@
       <c r="P87" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q87" s="46"/>
-      <c r="R87" s="46"/>
+      <c r="Q87" s="45"/>
+      <c r="R87" s="45"/>
       <c r="S87" s="21" t="s">
         <v>1279</v>
       </c>
@@ -9769,7 +9760,7 @@
       <c r="A88" s="26">
         <v>2</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="49" t="s">
         <v>1078</v>
       </c>
       <c r="C88" s="26" t="s">
@@ -9815,10 +9806,10 @@
       <c r="P88" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q88" s="46">
+      <c r="Q88" s="45">
         <v>44214</v>
       </c>
-      <c r="R88" s="46" t="s">
+      <c r="R88" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S88" s="21" t="s">
@@ -9829,7 +9820,7 @@
       <c r="A89" s="26">
         <v>2</v>
       </c>
-      <c r="B89" s="50" t="s">
+      <c r="B89" s="49" t="s">
         <v>1080</v>
       </c>
       <c r="C89" s="26" t="s">
@@ -9875,10 +9866,10 @@
       <c r="P89" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q89" s="46">
+      <c r="Q89" s="45">
         <v>44208</v>
       </c>
-      <c r="R89" s="46" t="s">
+      <c r="R89" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S89" s="21" t="s">
@@ -9889,7 +9880,7 @@
       <c r="A90" s="26">
         <v>2</v>
       </c>
-      <c r="B90" s="50" t="s">
+      <c r="B90" s="49" t="s">
         <v>1082</v>
       </c>
       <c r="C90" s="26" t="s">
@@ -9935,10 +9926,10 @@
       <c r="P90" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q90" s="46">
+      <c r="Q90" s="45">
         <v>44208</v>
       </c>
-      <c r="R90" s="46" t="s">
+      <c r="R90" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S90" s="21" t="s">
@@ -9949,7 +9940,7 @@
       <c r="A91" s="26">
         <v>2</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="49" t="s">
         <v>1084</v>
       </c>
       <c r="C91" s="26" t="s">
@@ -9995,10 +9986,10 @@
       <c r="P91" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q91" s="46">
+      <c r="Q91" s="45">
         <v>44208</v>
       </c>
-      <c r="R91" s="46" t="s">
+      <c r="R91" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S91" s="21" t="s">
@@ -10009,7 +10000,7 @@
       <c r="A92" s="26">
         <v>2</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="B92" s="49" t="s">
         <v>1086</v>
       </c>
       <c r="C92" s="26" t="s">
@@ -10055,10 +10046,10 @@
       <c r="P92" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q92" s="46">
+      <c r="Q92" s="45">
         <v>44209</v>
       </c>
-      <c r="R92" s="46" t="s">
+      <c r="R92" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S92" s="21" t="s">
@@ -10069,7 +10060,7 @@
       <c r="A93" s="26">
         <v>2</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B93" s="49" t="s">
         <v>1088</v>
       </c>
       <c r="C93" s="26" t="s">
@@ -10115,10 +10106,10 @@
       <c r="P93" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q93" s="46">
+      <c r="Q93" s="45">
         <v>44209</v>
       </c>
-      <c r="R93" s="46" t="s">
+      <c r="R93" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S93" s="21" t="s">
@@ -10129,7 +10120,7 @@
       <c r="A94" s="26">
         <v>2</v>
       </c>
-      <c r="B94" s="50" t="s">
+      <c r="B94" s="49" t="s">
         <v>1090</v>
       </c>
       <c r="C94" s="26" t="s">
@@ -10175,10 +10166,10 @@
       <c r="P94" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q94" s="46">
+      <c r="Q94" s="45">
         <v>44209</v>
       </c>
-      <c r="R94" s="46" t="s">
+      <c r="R94" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S94" s="21" t="s">
@@ -10189,7 +10180,7 @@
       <c r="A95" s="26">
         <v>2</v>
       </c>
-      <c r="B95" s="50" t="s">
+      <c r="B95" s="49" t="s">
         <v>1092</v>
       </c>
       <c r="C95" s="26" t="s">
@@ -10235,10 +10226,10 @@
       <c r="P95" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q95" s="46">
+      <c r="Q95" s="45">
         <v>44209</v>
       </c>
-      <c r="R95" s="46" t="s">
+      <c r="R95" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S95" s="21" t="s">
@@ -10249,7 +10240,7 @@
       <c r="A96" s="26">
         <v>2</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="49" t="s">
         <v>1093</v>
       </c>
       <c r="C96" s="26" t="s">
@@ -10295,10 +10286,10 @@
       <c r="P96" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q96" s="46">
+      <c r="Q96" s="45">
         <v>44209</v>
       </c>
-      <c r="R96" s="46" t="s">
+      <c r="R96" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S96" s="21" t="s">
@@ -10309,7 +10300,7 @@
       <c r="A97" s="26">
         <v>2</v>
       </c>
-      <c r="B97" s="50" t="s">
+      <c r="B97" s="49" t="s">
         <v>1095</v>
       </c>
       <c r="C97" s="26" t="s">
@@ -10355,10 +10346,10 @@
       <c r="P97" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q97" s="46">
+      <c r="Q97" s="45">
         <v>44209</v>
       </c>
-      <c r="R97" s="46" t="s">
+      <c r="R97" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S97" s="21" t="s">
@@ -10369,7 +10360,7 @@
       <c r="A98" s="26">
         <v>2</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="49" t="s">
         <v>1096</v>
       </c>
       <c r="C98" s="26" t="s">
@@ -10415,10 +10406,10 @@
       <c r="P98" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q98" s="46">
+      <c r="Q98" s="45">
         <v>44209</v>
       </c>
-      <c r="R98" s="46" t="s">
+      <c r="R98" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S98" s="21" t="s">
@@ -10429,7 +10420,7 @@
       <c r="A99" s="26">
         <v>2</v>
       </c>
-      <c r="B99" s="50" t="s">
+      <c r="B99" s="49" t="s">
         <v>1098</v>
       </c>
       <c r="C99" s="26" t="s">
@@ -10475,10 +10466,10 @@
       <c r="P99" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q99" s="46">
+      <c r="Q99" s="45">
         <v>44209</v>
       </c>
-      <c r="R99" s="46" t="s">
+      <c r="R99" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S99" s="21" t="s">
@@ -10489,7 +10480,7 @@
       <c r="A100" s="28">
         <v>2</v>
       </c>
-      <c r="B100" s="49" t="s">
+      <c r="B100" s="48" t="s">
         <v>730</v>
       </c>
       <c r="C100" s="21" t="s">
@@ -10535,10 +10526,10 @@
       <c r="P100" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q100" s="46">
+      <c r="Q100" s="45">
         <v>44209</v>
       </c>
-      <c r="R100" s="46" t="s">
+      <c r="R100" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S100" s="21" t="s">
@@ -10549,7 +10540,7 @@
       <c r="A101" s="28">
         <v>2</v>
       </c>
-      <c r="B101" s="49" t="s">
+      <c r="B101" s="48" t="s">
         <v>732</v>
       </c>
       <c r="C101" s="21" t="s">
@@ -10595,10 +10586,10 @@
       <c r="P101" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q101" s="46">
+      <c r="Q101" s="45">
         <v>44209</v>
       </c>
-      <c r="R101" s="46" t="s">
+      <c r="R101" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S101" s="21" t="s">
@@ -10609,7 +10600,7 @@
       <c r="A102" s="28">
         <v>2</v>
       </c>
-      <c r="B102" s="49" t="s">
+      <c r="B102" s="48" t="s">
         <v>734</v>
       </c>
       <c r="C102" s="21" t="s">
@@ -10655,10 +10646,10 @@
       <c r="P102" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q102" s="46">
+      <c r="Q102" s="45">
         <v>44209</v>
       </c>
-      <c r="R102" s="46" t="s">
+      <c r="R102" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S102" s="21" t="s">
@@ -10669,7 +10660,7 @@
       <c r="A103" s="29">
         <v>2</v>
       </c>
-      <c r="B103" s="50" t="s">
+      <c r="B103" s="49" t="s">
         <v>525</v>
       </c>
       <c r="C103" s="21" t="s">
@@ -10715,10 +10706,10 @@
       <c r="P103" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q103" s="46">
+      <c r="Q103" s="45">
         <v>44209</v>
       </c>
-      <c r="R103" s="46" t="s">
+      <c r="R103" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S103" s="21" t="s">
@@ -10768,8 +10759,8 @@
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
       <c r="P104" s="21"/>
-      <c r="Q104" s="46"/>
-      <c r="R104" s="46"/>
+      <c r="Q104" s="45"/>
+      <c r="R104" s="45"/>
       <c r="S104" s="21"/>
     </row>
     <row r="105" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10815,8 +10806,8 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
       <c r="P105" s="21"/>
-      <c r="Q105" s="46"/>
-      <c r="R105" s="46"/>
+      <c r="Q105" s="45"/>
+      <c r="R105" s="45"/>
       <c r="S105" s="21"/>
     </row>
     <row r="106" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10862,8 +10853,8 @@
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
       <c r="P106" s="21"/>
-      <c r="Q106" s="46"/>
-      <c r="R106" s="46"/>
+      <c r="Q106" s="45"/>
+      <c r="R106" s="45"/>
       <c r="S106" s="21"/>
     </row>
     <row r="107" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10909,8 +10900,8 @@
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
       <c r="P107" s="21"/>
-      <c r="Q107" s="46"/>
-      <c r="R107" s="46"/>
+      <c r="Q107" s="45"/>
+      <c r="R107" s="45"/>
       <c r="S107" s="21"/>
     </row>
     <row r="108" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10956,8 +10947,8 @@
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
       <c r="P108" s="21"/>
-      <c r="Q108" s="46"/>
-      <c r="R108" s="46"/>
+      <c r="Q108" s="45"/>
+      <c r="R108" s="45"/>
       <c r="S108" s="21"/>
     </row>
     <row r="109" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -11010,10 +11001,10 @@
       <c r="P109" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q109" s="46">
+      <c r="Q109" s="45">
         <v>44209</v>
       </c>
-      <c r="R109" s="46" t="s">
+      <c r="R109" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S109" s="21" t="s">
@@ -11063,15 +11054,15 @@
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
       <c r="P110" s="21"/>
-      <c r="Q110" s="46"/>
-      <c r="R110" s="46"/>
+      <c r="Q110" s="45"/>
+      <c r="R110" s="45"/>
       <c r="S110" s="21"/>
     </row>
     <row r="111" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="30">
         <v>2</v>
       </c>
-      <c r="B111" s="49" t="s">
+      <c r="B111" s="48" t="s">
         <v>45</v>
       </c>
       <c r="C111" s="21" t="s">
@@ -11117,10 +11108,10 @@
       <c r="P111" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q111" s="46">
+      <c r="Q111" s="45">
         <v>44209</v>
       </c>
-      <c r="R111" s="46" t="s">
+      <c r="R111" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S111" s="21" t="s">
@@ -11170,15 +11161,15 @@
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
       <c r="P112" s="21"/>
-      <c r="Q112" s="46"/>
-      <c r="R112" s="46"/>
+      <c r="Q112" s="45"/>
+      <c r="R112" s="45"/>
       <c r="S112" s="21"/>
     </row>
     <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="29">
         <v>2</v>
       </c>
-      <c r="B113" s="49" t="s">
+      <c r="B113" s="48" t="s">
         <v>66</v>
       </c>
       <c r="C113" s="21" t="s">
@@ -11224,10 +11215,10 @@
       <c r="P113" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q113" s="46">
+      <c r="Q113" s="45">
         <v>44209</v>
       </c>
-      <c r="R113" s="46" t="s">
+      <c r="R113" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S113" s="21" t="s">
@@ -11238,7 +11229,7 @@
       <c r="A114" s="29">
         <v>2</v>
       </c>
-      <c r="B114" s="49" t="s">
+      <c r="B114" s="48" t="s">
         <v>89</v>
       </c>
       <c r="C114" s="21" t="s">
@@ -11284,10 +11275,10 @@
       <c r="P114" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q114" s="46">
+      <c r="Q114" s="45">
         <v>44209</v>
       </c>
-      <c r="R114" s="46" t="s">
+      <c r="R114" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S114" s="21" t="s">
@@ -11298,7 +11289,7 @@
       <c r="A115" s="30">
         <v>2</v>
       </c>
-      <c r="B115" s="49" t="s">
+      <c r="B115" s="48" t="s">
         <v>1102</v>
       </c>
       <c r="C115" s="21" t="s">
@@ -11344,10 +11335,10 @@
       <c r="P115" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q115" s="46">
+      <c r="Q115" s="45">
         <v>44209</v>
       </c>
-      <c r="R115" s="46" t="s">
+      <c r="R115" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S115" s="21" t="s">
@@ -11358,7 +11349,7 @@
       <c r="A116" s="30">
         <v>2</v>
       </c>
-      <c r="B116" s="49" t="s">
+      <c r="B116" s="48" t="s">
         <v>1103</v>
       </c>
       <c r="C116" s="21" t="s">
@@ -11404,10 +11395,10 @@
       <c r="P116" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q116" s="46">
+      <c r="Q116" s="45">
         <v>44209</v>
       </c>
-      <c r="R116" s="46" t="s">
+      <c r="R116" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S116" s="21" t="s">
@@ -11457,8 +11448,8 @@
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
       <c r="P117" s="21"/>
-      <c r="Q117" s="46"/>
-      <c r="R117" s="46"/>
+      <c r="Q117" s="45"/>
+      <c r="R117" s="45"/>
       <c r="S117" s="21"/>
     </row>
     <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11504,15 +11495,15 @@
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
       <c r="P118" s="21"/>
-      <c r="Q118" s="46"/>
-      <c r="R118" s="46"/>
+      <c r="Q118" s="45"/>
+      <c r="R118" s="45"/>
       <c r="S118" s="21"/>
     </row>
     <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="29">
         <v>2</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="48" t="s">
         <v>94</v>
       </c>
       <c r="C119" s="21" t="s">
@@ -11558,10 +11549,10 @@
       <c r="P119" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q119" s="46">
+      <c r="Q119" s="45">
         <v>44209</v>
       </c>
-      <c r="R119" s="46" t="s">
+      <c r="R119" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S119" s="21" t="s">
@@ -11572,7 +11563,7 @@
       <c r="A120" s="29">
         <v>2</v>
       </c>
-      <c r="B120" s="26" t="s">
+      <c r="B120" s="49" t="s">
         <v>95</v>
       </c>
       <c r="C120" s="21" t="s">
@@ -11618,10 +11609,10 @@
       <c r="P120" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q120" s="46">
+      <c r="Q120" s="45">
         <v>44209</v>
       </c>
-      <c r="R120" s="46" t="s">
+      <c r="R120" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S120" s="21" t="s">
@@ -11632,7 +11623,7 @@
       <c r="A121" s="29">
         <v>2</v>
       </c>
-      <c r="B121" s="26" t="s">
+      <c r="B121" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C121" s="21" t="s">
@@ -11678,10 +11669,10 @@
       <c r="P121" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q121" s="46">
+      <c r="Q121" s="45">
         <v>44209</v>
       </c>
-      <c r="R121" s="46" t="s">
+      <c r="R121" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S121" s="21" t="s">
@@ -11692,7 +11683,7 @@
       <c r="A122" s="28">
         <v>2</v>
       </c>
-      <c r="B122" s="26" t="s">
+      <c r="B122" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C122" s="21" t="s">
@@ -11738,10 +11729,10 @@
       <c r="P122" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q122" s="46">
+      <c r="Q122" s="45">
         <v>44209</v>
       </c>
-      <c r="R122" s="46" t="s">
+      <c r="R122" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S122" s="21" t="s">
@@ -11752,7 +11743,7 @@
       <c r="A123" s="28">
         <v>2</v>
       </c>
-      <c r="B123" s="26" t="s">
+      <c r="B123" s="49" t="s">
         <v>100</v>
       </c>
       <c r="C123" s="21" t="s">
@@ -11798,10 +11789,10 @@
       <c r="P123" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q123" s="46">
+      <c r="Q123" s="45">
         <v>44209</v>
       </c>
-      <c r="R123" s="46" t="s">
+      <c r="R123" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S123" s="21" t="s">
@@ -11812,7 +11803,7 @@
       <c r="A124" s="28">
         <v>2</v>
       </c>
-      <c r="B124" s="41" t="s">
+      <c r="B124" s="40" t="s">
         <v>102</v>
       </c>
       <c r="C124" s="21" t="s">
@@ -11851,15 +11842,15 @@
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
       <c r="P124" s="21"/>
-      <c r="Q124" s="46"/>
-      <c r="R124" s="46"/>
+      <c r="Q124" s="45"/>
+      <c r="R124" s="45"/>
       <c r="S124" s="21"/>
     </row>
     <row r="125" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="28">
         <v>2</v>
       </c>
-      <c r="B125" s="26" t="s">
+      <c r="B125" s="49" t="s">
         <v>539</v>
       </c>
       <c r="C125" s="21" t="s">
@@ -11905,10 +11896,10 @@
       <c r="P125" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q125" s="46">
+      <c r="Q125" s="45">
         <v>44209</v>
       </c>
-      <c r="R125" s="46" t="s">
+      <c r="R125" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S125" s="21" t="s">
@@ -11919,7 +11910,7 @@
       <c r="A126" s="28">
         <v>2</v>
       </c>
-      <c r="B126" s="26" t="s">
+      <c r="B126" s="49" t="s">
         <v>541</v>
       </c>
       <c r="C126" s="21" t="s">
@@ -11965,10 +11956,10 @@
       <c r="P126" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q126" s="46">
+      <c r="Q126" s="45">
         <v>44209</v>
       </c>
-      <c r="R126" s="46" t="s">
+      <c r="R126" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S126" s="21" t="s">
@@ -11979,7 +11970,7 @@
       <c r="A127" s="28">
         <v>2</v>
       </c>
-      <c r="B127" s="26" t="s">
+      <c r="B127" s="49" t="s">
         <v>543</v>
       </c>
       <c r="C127" s="21" t="s">
@@ -12025,10 +12016,10 @@
       <c r="P127" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q127" s="46">
+      <c r="Q127" s="45">
         <v>44209</v>
       </c>
-      <c r="R127" s="46" t="s">
+      <c r="R127" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S127" s="21" t="s">
@@ -12039,7 +12030,7 @@
       <c r="A128" s="28">
         <v>2</v>
       </c>
-      <c r="B128" s="26" t="s">
+      <c r="B128" s="49" t="s">
         <v>545</v>
       </c>
       <c r="C128" s="21" t="s">
@@ -12085,10 +12076,10 @@
       <c r="P128" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q128" s="46">
+      <c r="Q128" s="45">
         <v>44209</v>
       </c>
-      <c r="R128" s="46" t="s">
+      <c r="R128" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S128" s="21" t="s">
@@ -12099,7 +12090,7 @@
       <c r="A129" s="28">
         <v>2</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="B129" s="49" t="s">
         <v>762</v>
       </c>
       <c r="C129" s="21" t="s">
@@ -12145,10 +12136,10 @@
       <c r="P129" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q129" s="46">
+      <c r="Q129" s="45">
         <v>44209</v>
       </c>
-      <c r="R129" s="46" t="s">
+      <c r="R129" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S129" s="21" t="s">
@@ -12159,7 +12150,7 @@
       <c r="A130" s="28">
         <v>2</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="48" t="s">
         <v>1106</v>
       </c>
       <c r="C130" s="21" t="s">
@@ -12205,10 +12196,10 @@
       <c r="P130" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q130" s="46">
+      <c r="Q130" s="45">
         <v>44210</v>
       </c>
-      <c r="R130" s="46" t="s">
+      <c r="R130" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S130" s="21" t="s">
@@ -12258,8 +12249,8 @@
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
       <c r="P131" s="21"/>
-      <c r="Q131" s="46"/>
-      <c r="R131" s="46"/>
+      <c r="Q131" s="45"/>
+      <c r="R131" s="45"/>
       <c r="S131" s="21"/>
     </row>
     <row r="132" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12307,8 +12298,8 @@
         <v>1066</v>
       </c>
       <c r="P132" s="21"/>
-      <c r="Q132" s="46"/>
-      <c r="R132" s="46"/>
+      <c r="Q132" s="45"/>
+      <c r="R132" s="45"/>
       <c r="S132" s="21"/>
     </row>
     <row r="133" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12354,15 +12345,15 @@
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
       <c r="P133" s="21"/>
-      <c r="Q133" s="46"/>
-      <c r="R133" s="46"/>
+      <c r="Q133" s="45"/>
+      <c r="R133" s="45"/>
       <c r="S133" s="21"/>
     </row>
     <row r="134" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="28">
         <v>2</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B134" s="48" t="s">
         <v>1110</v>
       </c>
       <c r="C134" s="21" t="s">
@@ -12408,10 +12399,10 @@
       <c r="P134" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="Q134" s="46">
+      <c r="Q134" s="45">
         <v>44210</v>
       </c>
-      <c r="R134" s="46" t="s">
+      <c r="R134" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S134" s="21" t="s">
@@ -12422,7 +12413,7 @@
       <c r="A135" s="28">
         <v>2</v>
       </c>
-      <c r="B135" s="21" t="s">
+      <c r="B135" s="48" t="s">
         <v>1111</v>
       </c>
       <c r="C135" s="21" t="s">
@@ -12468,10 +12459,10 @@
       <c r="P135" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q135" s="46">
+      <c r="Q135" s="45">
         <v>44210</v>
       </c>
-      <c r="R135" s="46" t="s">
+      <c r="R135" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S135" s="21" t="s">
@@ -12521,8 +12512,8 @@
       <c r="N136" s="12"/>
       <c r="O136" s="12"/>
       <c r="P136" s="21"/>
-      <c r="Q136" s="46"/>
-      <c r="R136" s="46"/>
+      <c r="Q136" s="45"/>
+      <c r="R136" s="45"/>
       <c r="S136" s="21"/>
     </row>
     <row r="137" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12568,8 +12559,8 @@
       <c r="N137" s="12"/>
       <c r="O137" s="12"/>
       <c r="P137" s="21"/>
-      <c r="Q137" s="46"/>
-      <c r="R137" s="46"/>
+      <c r="Q137" s="45"/>
+      <c r="R137" s="45"/>
       <c r="S137" s="21" t="s">
         <v>1215</v>
       </c>
@@ -12617,8 +12608,8 @@
       <c r="N138" s="12"/>
       <c r="O138" s="12"/>
       <c r="P138" s="21"/>
-      <c r="Q138" s="46"/>
-      <c r="R138" s="46"/>
+      <c r="Q138" s="45"/>
+      <c r="R138" s="45"/>
       <c r="S138" s="21"/>
     </row>
     <row r="139" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12664,15 +12655,15 @@
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
       <c r="P139" s="21"/>
-      <c r="Q139" s="46"/>
-      <c r="R139" s="46"/>
+      <c r="Q139" s="45"/>
+      <c r="R139" s="45"/>
       <c r="S139" s="21"/>
     </row>
     <row r="140" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="26">
         <v>5</v>
       </c>
-      <c r="B140" s="41" t="s">
+      <c r="B140" s="40" t="s">
         <v>51</v>
       </c>
       <c r="C140" s="21" t="s">
@@ -12711,15 +12702,15 @@
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
       <c r="P140" s="21"/>
-      <c r="Q140" s="46"/>
-      <c r="R140" s="46"/>
+      <c r="Q140" s="45"/>
+      <c r="R140" s="45"/>
       <c r="S140" s="21"/>
     </row>
     <row r="141" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>5</v>
       </c>
-      <c r="B141" s="41" t="s">
+      <c r="B141" s="40" t="s">
         <v>52</v>
       </c>
       <c r="C141" s="21" t="s">
@@ -12764,10 +12755,10 @@
       <c r="P141" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q141" s="46">
+      <c r="Q141" s="45">
         <v>44182</v>
       </c>
-      <c r="R141" s="46" t="s">
+      <c r="R141" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S141" s="21" t="s">
@@ -12817,15 +12808,15 @@
       <c r="N142" s="11"/>
       <c r="O142" s="11"/>
       <c r="P142" s="21"/>
-      <c r="Q142" s="46"/>
-      <c r="R142" s="46"/>
+      <c r="Q142" s="45"/>
+      <c r="R142" s="45"/>
       <c r="S142" s="21"/>
     </row>
     <row r="143" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="26">
         <v>5</v>
       </c>
-      <c r="B143" s="41" t="s">
+      <c r="B143" s="40" t="s">
         <v>54</v>
       </c>
       <c r="C143" s="21" t="s">
@@ -12864,15 +12855,15 @@
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
       <c r="P143" s="21"/>
-      <c r="Q143" s="46"/>
-      <c r="R143" s="46"/>
+      <c r="Q143" s="45"/>
+      <c r="R143" s="45"/>
       <c r="S143" s="21"/>
     </row>
     <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="28">
         <v>2</v>
       </c>
-      <c r="B144" s="40" t="s">
+      <c r="B144" s="49" t="s">
         <v>110</v>
       </c>
       <c r="C144" s="21" t="s">
@@ -12918,10 +12909,10 @@
       <c r="P144" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="Q144" s="46">
+      <c r="Q144" s="45">
         <v>44210</v>
       </c>
-      <c r="R144" s="46" t="s">
+      <c r="R144" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S144" s="21" t="s">
@@ -12932,7 +12923,7 @@
       <c r="A145" s="28">
         <v>2</v>
       </c>
-      <c r="B145" s="41" t="s">
+      <c r="B145" s="40" t="s">
         <v>551</v>
       </c>
       <c r="C145" s="21" t="s">
@@ -12971,15 +12962,15 @@
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
       <c r="P145" s="21"/>
-      <c r="Q145" s="46"/>
-      <c r="R145" s="46"/>
+      <c r="Q145" s="45"/>
+      <c r="R145" s="45"/>
       <c r="S145" s="21"/>
     </row>
     <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28">
         <v>2</v>
       </c>
-      <c r="B146" s="26" t="s">
+      <c r="B146" s="49" t="s">
         <v>114</v>
       </c>
       <c r="C146" s="21" t="s">
@@ -13025,10 +13016,10 @@
       <c r="P146" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="Q146" s="46">
+      <c r="Q146" s="45">
         <v>44210</v>
       </c>
-      <c r="R146" s="46" t="s">
+      <c r="R146" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S146" s="21" t="s">
@@ -13039,7 +13030,7 @@
       <c r="A147" s="28">
         <v>2</v>
       </c>
-      <c r="B147" s="26" t="s">
+      <c r="B147" s="49" t="s">
         <v>116</v>
       </c>
       <c r="C147" s="21" t="s">
@@ -13085,10 +13076,10 @@
       <c r="P147" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q147" s="46">
+      <c r="Q147" s="45">
         <v>44214</v>
       </c>
-      <c r="R147" s="46" t="s">
+      <c r="R147" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S147" s="21" t="s">
@@ -13099,7 +13090,7 @@
       <c r="A148" s="28">
         <v>2</v>
       </c>
-      <c r="B148" s="26" t="s">
+      <c r="B148" s="49" t="s">
         <v>118</v>
       </c>
       <c r="C148" s="21" t="s">
@@ -13145,10 +13136,10 @@
       <c r="P148" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q148" s="46">
+      <c r="Q148" s="45">
         <v>44214</v>
       </c>
-      <c r="R148" s="46" t="s">
+      <c r="R148" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S148" s="21" t="s">
@@ -13159,7 +13150,7 @@
       <c r="A149" s="28">
         <v>2</v>
       </c>
-      <c r="B149" s="26" t="s">
+      <c r="B149" s="49" t="s">
         <v>119</v>
       </c>
       <c r="C149" s="21" t="s">
@@ -13205,10 +13196,10 @@
       <c r="P149" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q149" s="46">
+      <c r="Q149" s="45">
         <v>44214</v>
       </c>
-      <c r="R149" s="46" t="s">
+      <c r="R149" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S149" s="21" t="s">
@@ -13219,7 +13210,7 @@
       <c r="A150" s="28">
         <v>2</v>
       </c>
-      <c r="B150" s="26" t="s">
+      <c r="B150" s="49" t="s">
         <v>120</v>
       </c>
       <c r="C150" s="21" t="s">
@@ -13265,10 +13256,10 @@
       <c r="P150" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q150" s="46">
+      <c r="Q150" s="45">
         <v>44214</v>
       </c>
-      <c r="R150" s="46" t="s">
+      <c r="R150" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S150" s="21" t="s">
@@ -13318,15 +13309,15 @@
       <c r="N151" s="11"/>
       <c r="O151" s="25"/>
       <c r="P151" s="21"/>
-      <c r="Q151" s="46"/>
-      <c r="R151" s="46"/>
+      <c r="Q151" s="45"/>
+      <c r="R151" s="45"/>
       <c r="S151" s="21"/>
     </row>
     <row r="152" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="28">
         <v>2</v>
       </c>
-      <c r="B152" s="26" t="s">
+      <c r="B152" s="49" t="s">
         <v>124</v>
       </c>
       <c r="C152" s="21" t="s">
@@ -13372,10 +13363,10 @@
       <c r="P152" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q152" s="46">
+      <c r="Q152" s="45">
         <v>44214</v>
       </c>
-      <c r="R152" s="46" t="s">
+      <c r="R152" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S152" s="21" t="s">
@@ -13425,8 +13416,8 @@
       <c r="N153" s="11"/>
       <c r="O153" s="25"/>
       <c r="P153" s="21"/>
-      <c r="Q153" s="46"/>
-      <c r="R153" s="46"/>
+      <c r="Q153" s="45"/>
+      <c r="R153" s="45"/>
       <c r="S153" s="21"/>
     </row>
     <row r="154" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13472,15 +13463,15 @@
       <c r="N154" s="11"/>
       <c r="O154" s="25"/>
       <c r="P154" s="21"/>
-      <c r="Q154" s="46"/>
-      <c r="R154" s="46"/>
+      <c r="Q154" s="45"/>
+      <c r="R154" s="45"/>
       <c r="S154" s="21"/>
     </row>
     <row r="155" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="28">
         <v>2</v>
       </c>
-      <c r="B155" s="26" t="s">
+      <c r="B155" s="49" t="s">
         <v>766</v>
       </c>
       <c r="C155" s="26" t="s">
@@ -13526,10 +13517,10 @@
       <c r="P155" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q155" s="46">
+      <c r="Q155" s="45">
         <v>44214</v>
       </c>
-      <c r="R155" s="46" t="s">
+      <c r="R155" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S155" s="21" t="s">
@@ -13586,10 +13577,10 @@
       <c r="P156" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q156" s="46">
+      <c r="Q156" s="45">
         <v>44215</v>
       </c>
-      <c r="R156" s="46" t="s">
+      <c r="R156" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S156" s="21" t="s">
@@ -13646,10 +13637,10 @@
       <c r="P157" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q157" s="46">
+      <c r="Q157" s="45">
         <v>44182</v>
       </c>
-      <c r="R157" s="46" t="s">
+      <c r="R157" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S157" s="21" t="s">
@@ -13698,15 +13689,15 @@
       </c>
       <c r="O158" s="25"/>
       <c r="P158" s="21"/>
-      <c r="Q158" s="46"/>
-      <c r="R158" s="46"/>
+      <c r="Q158" s="45"/>
+      <c r="R158" s="45"/>
       <c r="S158" s="21"/>
     </row>
     <row r="159" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="32">
         <v>2</v>
       </c>
-      <c r="B159" s="26" t="s">
+      <c r="B159" s="49" t="s">
         <v>1113</v>
       </c>
       <c r="C159" s="26" t="s">
@@ -13752,10 +13743,10 @@
       <c r="P159" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q159" s="46">
+      <c r="Q159" s="45">
         <v>44215</v>
       </c>
-      <c r="R159" s="46" t="s">
+      <c r="R159" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S159" s="21" t="s">
@@ -13805,8 +13796,8 @@
       <c r="N160" s="11"/>
       <c r="O160" s="25"/>
       <c r="P160" s="21"/>
-      <c r="Q160" s="46"/>
-      <c r="R160" s="46"/>
+      <c r="Q160" s="45"/>
+      <c r="R160" s="45"/>
       <c r="S160" s="21"/>
     </row>
     <row r="161" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13852,15 +13843,15 @@
       <c r="N161" s="11"/>
       <c r="O161" s="25"/>
       <c r="P161" s="21"/>
-      <c r="Q161" s="46"/>
-      <c r="R161" s="46"/>
+      <c r="Q161" s="45"/>
+      <c r="R161" s="45"/>
       <c r="S161" s="21"/>
     </row>
     <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="32">
         <v>2</v>
       </c>
-      <c r="B162" s="26" t="s">
+      <c r="B162" s="49" t="s">
         <v>1116</v>
       </c>
       <c r="C162" s="26" t="s">
@@ -13906,10 +13897,10 @@
       <c r="P162" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q162" s="46">
+      <c r="Q162" s="45">
         <v>44215</v>
       </c>
-      <c r="R162" s="46" t="s">
+      <c r="R162" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S162" s="21" t="s">
@@ -13959,8 +13950,8 @@
       <c r="N163" s="11"/>
       <c r="O163" s="25"/>
       <c r="P163" s="21"/>
-      <c r="Q163" s="46"/>
-      <c r="R163" s="46"/>
+      <c r="Q163" s="45"/>
+      <c r="R163" s="45"/>
       <c r="S163" s="21"/>
     </row>
     <row r="164" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -14006,8 +13997,8 @@
       <c r="N164" s="11"/>
       <c r="O164" s="25"/>
       <c r="P164" s="21"/>
-      <c r="Q164" s="46"/>
-      <c r="R164" s="46"/>
+      <c r="Q164" s="45"/>
+      <c r="R164" s="45"/>
       <c r="S164" s="21"/>
     </row>
     <row r="165" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14053,15 +14044,15 @@
       <c r="N165" s="11"/>
       <c r="O165" s="25"/>
       <c r="P165" s="21"/>
-      <c r="Q165" s="46"/>
-      <c r="R165" s="46"/>
+      <c r="Q165" s="45"/>
+      <c r="R165" s="45"/>
       <c r="S165" s="21"/>
     </row>
     <row r="166" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="27">
         <v>5</v>
       </c>
-      <c r="B166" s="26" t="s">
+      <c r="B166" s="49" t="s">
         <v>130</v>
       </c>
       <c r="C166" s="21" t="s">
@@ -14107,10 +14098,10 @@
       <c r="P166" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q166" s="46">
+      <c r="Q166" s="45">
         <v>44215</v>
       </c>
-      <c r="R166" s="46" t="s">
+      <c r="R166" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S166" s="21" t="s">
@@ -14121,7 +14112,7 @@
       <c r="A167" s="27">
         <v>5</v>
       </c>
-      <c r="B167" s="26" t="s">
+      <c r="B167" s="49" t="s">
         <v>132</v>
       </c>
       <c r="C167" s="21" t="s">
@@ -14166,10 +14157,10 @@
       <c r="P167" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q167" s="46">
+      <c r="Q167" s="45">
         <v>44215</v>
       </c>
-      <c r="R167" s="46" t="s">
+      <c r="R167" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S167" s="21"/>
@@ -14178,7 +14169,7 @@
       <c r="A168" s="27">
         <v>5</v>
       </c>
-      <c r="B168" s="26" t="s">
+      <c r="B168" s="49" t="s">
         <v>134</v>
       </c>
       <c r="C168" s="21" t="s">
@@ -14223,10 +14214,10 @@
       <c r="P168" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q168" s="46">
+      <c r="Q168" s="45">
         <v>44215</v>
       </c>
-      <c r="R168" s="46" t="s">
+      <c r="R168" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S168" s="21"/>
@@ -14274,8 +14265,8 @@
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
       <c r="P169" s="21"/>
-      <c r="Q169" s="46"/>
-      <c r="R169" s="46"/>
+      <c r="Q169" s="45"/>
+      <c r="R169" s="45"/>
       <c r="S169" s="21"/>
     </row>
     <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14327,8 +14318,8 @@
       <c r="P170" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q170" s="46"/>
-      <c r="R170" s="46"/>
+      <c r="Q170" s="45"/>
+      <c r="R170" s="45"/>
       <c r="S170" s="21"/>
     </row>
     <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14380,10 +14371,10 @@
       <c r="P171" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q171" s="46">
+      <c r="Q171" s="45">
         <v>44215</v>
       </c>
-      <c r="R171" s="46" t="s">
+      <c r="R171" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S171" s="21"/>
@@ -14437,10 +14428,10 @@
       <c r="P172" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q172" s="46">
+      <c r="Q172" s="45">
         <v>44215</v>
       </c>
-      <c r="R172" s="46" t="s">
+      <c r="R172" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S172" s="21"/>
@@ -14449,7 +14440,7 @@
       <c r="A173" s="27">
         <v>5</v>
       </c>
-      <c r="B173" s="41" t="s">
+      <c r="B173" s="40" t="s">
         <v>557</v>
       </c>
       <c r="C173" s="21" t="s">
@@ -14488,15 +14479,15 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
       <c r="P173" s="21"/>
-      <c r="Q173" s="46"/>
-      <c r="R173" s="46"/>
+      <c r="Q173" s="45"/>
+      <c r="R173" s="45"/>
       <c r="S173" s="21"/>
     </row>
     <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="27">
         <v>5</v>
       </c>
-      <c r="B174" s="41" t="s">
+      <c r="B174" s="40" t="s">
         <v>1120</v>
       </c>
       <c r="C174" s="21" t="s">
@@ -14535,15 +14526,15 @@
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
       <c r="P174" s="21"/>
-      <c r="Q174" s="46"/>
-      <c r="R174" s="46"/>
+      <c r="Q174" s="45"/>
+      <c r="R174" s="45"/>
       <c r="S174" s="21"/>
     </row>
     <row r="175" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="27">
         <v>5</v>
       </c>
-      <c r="B175" s="41" t="s">
+      <c r="B175" s="40" t="s">
         <v>57</v>
       </c>
       <c r="C175" s="21" t="s">
@@ -14582,15 +14573,15 @@
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
       <c r="P175" s="21"/>
-      <c r="Q175" s="46"/>
-      <c r="R175" s="46"/>
+      <c r="Q175" s="45"/>
+      <c r="R175" s="45"/>
       <c r="S175" s="21"/>
     </row>
     <row r="176" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="27">
         <v>5</v>
       </c>
-      <c r="B176" s="41" t="s">
+      <c r="B176" s="40" t="s">
         <v>142</v>
       </c>
       <c r="C176" s="21" t="s">
@@ -14629,8 +14620,8 @@
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
       <c r="P176" s="21"/>
-      <c r="Q176" s="46"/>
-      <c r="R176" s="46"/>
+      <c r="Q176" s="45"/>
+      <c r="R176" s="45"/>
       <c r="S176" s="21"/>
     </row>
     <row r="177" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14678,10 +14669,10 @@
       <c r="P177" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q177" s="46">
+      <c r="Q177" s="45">
         <v>44216</v>
       </c>
-      <c r="R177" s="46" t="s">
+      <c r="R177" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S177" s="21"/>
@@ -14731,10 +14722,10 @@
       <c r="P178" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q178" s="46">
+      <c r="Q178" s="45">
         <v>44216</v>
       </c>
-      <c r="R178" s="46" t="s">
+      <c r="R178" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S178" s="21"/>
@@ -14784,10 +14775,10 @@
       <c r="P179" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q179" s="46">
+      <c r="Q179" s="45">
         <v>44216</v>
       </c>
-      <c r="R179" s="46" t="s">
+      <c r="R179" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S179" s="21"/>
@@ -14837,10 +14828,10 @@
       <c r="P180" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q180" s="46">
+      <c r="Q180" s="45">
         <v>44216</v>
       </c>
-      <c r="R180" s="46" t="s">
+      <c r="R180" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S180" s="21"/>
@@ -14849,7 +14840,7 @@
       <c r="A181" s="27">
         <v>5</v>
       </c>
-      <c r="B181" s="26" t="s">
+      <c r="B181" s="49" t="s">
         <v>560</v>
       </c>
       <c r="C181" s="21" t="s">
@@ -14895,10 +14886,10 @@
       <c r="P181" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q181" s="46">
+      <c r="Q181" s="45">
         <v>44216</v>
       </c>
-      <c r="R181" s="46" t="s">
+      <c r="R181" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S181" s="21" t="s">
@@ -14950,10 +14941,10 @@
       <c r="P182" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q182" s="46">
+      <c r="Q182" s="45">
         <v>44216</v>
       </c>
-      <c r="R182" s="46" t="s">
+      <c r="R182" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S182" s="21"/>
@@ -15003,10 +14994,10 @@
       <c r="P183" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q183" s="46">
+      <c r="Q183" s="45">
         <v>44216</v>
       </c>
-      <c r="R183" s="46" t="s">
+      <c r="R183" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S183" s="21"/>
@@ -15056,10 +15047,10 @@
       <c r="P184" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q184" s="46">
+      <c r="Q184" s="45">
         <v>44216</v>
       </c>
-      <c r="R184" s="46" t="s">
+      <c r="R184" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S184" s="21"/>
@@ -15109,10 +15100,10 @@
       <c r="P185" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q185" s="46">
+      <c r="Q185" s="45">
         <v>44216</v>
       </c>
-      <c r="R185" s="46" t="s">
+      <c r="R185" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S185" s="21"/>
@@ -15162,10 +15153,10 @@
       <c r="P186" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q186" s="46">
+      <c r="Q186" s="45">
         <v>44216</v>
       </c>
-      <c r="R186" s="46" t="s">
+      <c r="R186" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S186" s="21"/>
@@ -15215,10 +15206,10 @@
       <c r="P187" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q187" s="46">
+      <c r="Q187" s="45">
         <v>44216</v>
       </c>
-      <c r="R187" s="46" t="s">
+      <c r="R187" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S187" s="21"/>
@@ -15268,10 +15259,10 @@
       <c r="P188" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q188" s="46">
+      <c r="Q188" s="45">
         <v>44216</v>
       </c>
-      <c r="R188" s="46" t="s">
+      <c r="R188" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S188" s="21"/>
@@ -15321,10 +15312,10 @@
       <c r="P189" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q189" s="46">
+      <c r="Q189" s="45">
         <v>44216</v>
       </c>
-      <c r="R189" s="46" t="s">
+      <c r="R189" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S189" s="21"/>
@@ -15374,10 +15365,10 @@
       <c r="P190" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q190" s="46">
+      <c r="Q190" s="45">
         <v>44216</v>
       </c>
-      <c r="R190" s="46" t="s">
+      <c r="R190" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S190" s="21"/>
@@ -15427,10 +15418,10 @@
       <c r="P191" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q191" s="46">
+      <c r="Q191" s="45">
         <v>44216</v>
       </c>
-      <c r="R191" s="46" t="s">
+      <c r="R191" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S191" s="21"/>
@@ -15480,10 +15471,10 @@
       <c r="P192" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q192" s="46">
+      <c r="Q192" s="45">
         <v>44216</v>
       </c>
-      <c r="R192" s="46" t="s">
+      <c r="R192" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S192" s="21"/>
@@ -15533,10 +15524,10 @@
       <c r="P193" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q193" s="46">
+      <c r="Q193" s="45">
         <v>44216</v>
       </c>
-      <c r="R193" s="46" t="s">
+      <c r="R193" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S193" s="21"/>
@@ -15586,10 +15577,10 @@
       <c r="P194" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q194" s="46">
+      <c r="Q194" s="45">
         <v>44216</v>
       </c>
-      <c r="R194" s="46" t="s">
+      <c r="R194" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S194" s="21"/>
@@ -15639,10 +15630,10 @@
       <c r="P195" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q195" s="46">
+      <c r="Q195" s="45">
         <v>44216</v>
       </c>
-      <c r="R195" s="46" t="s">
+      <c r="R195" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S195" s="21"/>
@@ -15692,10 +15683,10 @@
       <c r="P196" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q196" s="46">
+      <c r="Q196" s="45">
         <v>44216</v>
       </c>
-      <c r="R196" s="46" t="s">
+      <c r="R196" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S196" s="21"/>
@@ -15745,10 +15736,10 @@
       <c r="P197" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q197" s="46">
+      <c r="Q197" s="45">
         <v>44216</v>
       </c>
-      <c r="R197" s="46" t="s">
+      <c r="R197" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S197" s="21"/>
@@ -15798,10 +15789,10 @@
       <c r="P198" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q198" s="46">
+      <c r="Q198" s="45">
         <v>44216</v>
       </c>
-      <c r="R198" s="46" t="s">
+      <c r="R198" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S198" s="21"/>
@@ -15851,10 +15842,10 @@
       <c r="P199" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q199" s="46">
+      <c r="Q199" s="45">
         <v>44216</v>
       </c>
-      <c r="R199" s="46" t="s">
+      <c r="R199" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S199" s="21"/>
@@ -15904,10 +15895,10 @@
       <c r="P200" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q200" s="46">
+      <c r="Q200" s="45">
         <v>44216</v>
       </c>
-      <c r="R200" s="46" t="s">
+      <c r="R200" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S200" s="21"/>
@@ -15957,10 +15948,10 @@
       <c r="P201" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q201" s="46">
+      <c r="Q201" s="45">
         <v>44216</v>
       </c>
-      <c r="R201" s="46" t="s">
+      <c r="R201" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S201" s="21"/>
@@ -16010,10 +16001,10 @@
       <c r="P202" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q202" s="46">
+      <c r="Q202" s="45">
         <v>44216</v>
       </c>
-      <c r="R202" s="46" t="s">
+      <c r="R202" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S202" s="21"/>
@@ -16063,10 +16054,10 @@
       <c r="P203" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q203" s="46">
+      <c r="Q203" s="45">
         <v>44216</v>
       </c>
-      <c r="R203" s="46" t="s">
+      <c r="R203" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S203" s="21"/>
@@ -16116,10 +16107,10 @@
       <c r="P204" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q204" s="46">
+      <c r="Q204" s="45">
         <v>44216</v>
       </c>
-      <c r="R204" s="46" t="s">
+      <c r="R204" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S204" s="21"/>
@@ -16169,10 +16160,10 @@
       <c r="P205" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q205" s="46">
+      <c r="Q205" s="45">
         <v>44216</v>
       </c>
-      <c r="R205" s="46" t="s">
+      <c r="R205" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S205" s="21"/>
@@ -16222,10 +16213,10 @@
       <c r="P206" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q206" s="46">
+      <c r="Q206" s="45">
         <v>44216</v>
       </c>
-      <c r="R206" s="46" t="s">
+      <c r="R206" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S206" s="21"/>
@@ -16275,10 +16266,10 @@
       <c r="P207" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q207" s="46">
+      <c r="Q207" s="45">
         <v>44216</v>
       </c>
-      <c r="R207" s="46" t="s">
+      <c r="R207" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S207" s="21"/>
@@ -16328,10 +16319,10 @@
       <c r="P208" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q208" s="46">
+      <c r="Q208" s="45">
         <v>44216</v>
       </c>
-      <c r="R208" s="46" t="s">
+      <c r="R208" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S208" s="21"/>
@@ -16381,10 +16372,10 @@
       <c r="P209" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q209" s="46">
+      <c r="Q209" s="45">
         <v>44216</v>
       </c>
-      <c r="R209" s="46" t="s">
+      <c r="R209" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S209" s="21"/>
@@ -16393,7 +16384,7 @@
       <c r="A210" s="27">
         <v>5</v>
       </c>
-      <c r="B210" s="21" t="s">
+      <c r="B210" s="48" t="s">
         <v>1157</v>
       </c>
       <c r="C210" s="21" t="s">
@@ -16439,10 +16430,10 @@
       <c r="P210" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q210" s="46">
+      <c r="Q210" s="45">
         <v>44216</v>
       </c>
-      <c r="R210" s="46" t="s">
+      <c r="R210" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S210" s="21" t="s">
@@ -16453,7 +16444,7 @@
       <c r="A211" s="27">
         <v>5</v>
       </c>
-      <c r="B211" s="21" t="s">
+      <c r="B211" s="48" t="s">
         <v>1159</v>
       </c>
       <c r="C211" s="21" t="s">
@@ -16499,10 +16490,10 @@
       <c r="P211" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q211" s="46">
+      <c r="Q211" s="45">
         <v>44216</v>
       </c>
-      <c r="R211" s="46" t="s">
+      <c r="R211" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S211" s="21" t="s">
@@ -16513,7 +16504,7 @@
       <c r="A212" s="27">
         <v>5</v>
       </c>
-      <c r="B212" s="21" t="s">
+      <c r="B212" s="48" t="s">
         <v>1161</v>
       </c>
       <c r="C212" s="21" t="s">
@@ -16559,10 +16550,10 @@
       <c r="P212" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q212" s="46">
+      <c r="Q212" s="45">
         <v>44216</v>
       </c>
-      <c r="R212" s="46" t="s">
+      <c r="R212" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S212" s="21" t="s">
@@ -16614,10 +16605,10 @@
       <c r="P213" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q213" s="46">
+      <c r="Q213" s="45">
         <v>44216</v>
       </c>
-      <c r="R213" s="46" t="s">
+      <c r="R213" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S213" s="21"/>
@@ -16667,10 +16658,10 @@
       <c r="P214" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q214" s="46">
+      <c r="Q214" s="45">
         <v>44216</v>
       </c>
-      <c r="R214" s="46" t="s">
+      <c r="R214" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S214" s="21"/>
@@ -16720,10 +16711,10 @@
       <c r="P215" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q215" s="46">
+      <c r="Q215" s="45">
         <v>44216</v>
       </c>
-      <c r="R215" s="46" t="s">
+      <c r="R215" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S215" s="21"/>
@@ -16773,10 +16764,10 @@
       <c r="P216" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q216" s="46">
+      <c r="Q216" s="45">
         <v>44216</v>
       </c>
-      <c r="R216" s="46" t="s">
+      <c r="R216" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S216" s="21"/>
@@ -16826,10 +16817,10 @@
       <c r="P217" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q217" s="46">
+      <c r="Q217" s="45">
         <v>44216</v>
       </c>
-      <c r="R217" s="46" t="s">
+      <c r="R217" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S217" s="21"/>
@@ -16879,10 +16870,10 @@
       <c r="P218" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q218" s="46">
+      <c r="Q218" s="45">
         <v>44216</v>
       </c>
-      <c r="R218" s="46" t="s">
+      <c r="R218" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S218" s="21"/>
@@ -16932,10 +16923,10 @@
       <c r="P219" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q219" s="46">
+      <c r="Q219" s="45">
         <v>44216</v>
       </c>
-      <c r="R219" s="46" t="s">
+      <c r="R219" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S219" s="21"/>
@@ -16944,7 +16935,7 @@
       <c r="A220" s="27">
         <v>1</v>
       </c>
-      <c r="B220" s="47" t="s">
+      <c r="B220" s="46" t="s">
         <v>790</v>
       </c>
       <c r="C220" s="21" t="s">
@@ -16989,10 +16980,10 @@
       <c r="P220" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q220" s="46">
+      <c r="Q220" s="45">
         <v>44166</v>
       </c>
-      <c r="R220" s="46"/>
+      <c r="R220" s="45"/>
       <c r="S220" s="21" t="s">
         <v>1232</v>
       </c>
@@ -17042,10 +17033,10 @@
       <c r="P221" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q221" s="46">
+      <c r="Q221" s="45">
         <v>44216</v>
       </c>
-      <c r="R221" s="46" t="s">
+      <c r="R221" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S221" s="21"/>
@@ -17054,7 +17045,7 @@
       <c r="A222" s="29">
         <v>8</v>
       </c>
-      <c r="B222" s="21" t="s">
+      <c r="B222" s="48" t="s">
         <v>275</v>
       </c>
       <c r="C222" s="21" t="s">
@@ -17100,10 +17091,10 @@
       <c r="P222" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q222" s="46">
+      <c r="Q222" s="45">
         <v>44216</v>
       </c>
-      <c r="R222" s="46" t="s">
+      <c r="R222" s="45" t="s">
         <v>1237</v>
       </c>
       <c r="S222" s="21" t="s">
@@ -17114,7 +17105,7 @@
       <c r="A223" s="29">
         <v>8</v>
       </c>
-      <c r="B223" s="21" t="s">
+      <c r="B223" s="48" t="s">
         <v>277</v>
       </c>
       <c r="C223" s="21" t="s">
@@ -17159,10 +17150,10 @@
       <c r="P223" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q223" s="46">
+      <c r="Q223" s="45">
         <v>44166</v>
       </c>
-      <c r="R223" s="46"/>
+      <c r="R223" s="45"/>
       <c r="S223" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17171,7 +17162,7 @@
       <c r="A224" s="29">
         <v>8</v>
       </c>
-      <c r="B224" s="21" t="s">
+      <c r="B224" s="48" t="s">
         <v>279</v>
       </c>
       <c r="C224" s="21" t="s">
@@ -17216,10 +17207,10 @@
       <c r="P224" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q224" s="46">
+      <c r="Q224" s="45">
         <v>44166</v>
       </c>
-      <c r="R224" s="46"/>
+      <c r="R224" s="45"/>
       <c r="S224" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17228,7 +17219,7 @@
       <c r="A225" s="29">
         <v>8</v>
       </c>
-      <c r="B225" s="21" t="s">
+      <c r="B225" s="48" t="s">
         <v>281</v>
       </c>
       <c r="C225" s="21" t="s">
@@ -17273,10 +17264,10 @@
       <c r="P225" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q225" s="46">
+      <c r="Q225" s="45">
         <v>44166</v>
       </c>
-      <c r="R225" s="46"/>
+      <c r="R225" s="45"/>
       <c r="S225" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17285,7 +17276,7 @@
       <c r="A226" s="29">
         <v>8</v>
       </c>
-      <c r="B226" s="21" t="s">
+      <c r="B226" s="48" t="s">
         <v>283</v>
       </c>
       <c r="C226" s="21" t="s">
@@ -17330,10 +17321,10 @@
       <c r="P226" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q226" s="46">
+      <c r="Q226" s="45">
         <v>44166</v>
       </c>
-      <c r="R226" s="46"/>
+      <c r="R226" s="45"/>
       <c r="S226" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17342,7 +17333,7 @@
       <c r="A227" s="29">
         <v>8</v>
       </c>
-      <c r="B227" s="21" t="s">
+      <c r="B227" s="48" t="s">
         <v>284</v>
       </c>
       <c r="C227" s="21" t="s">
@@ -17387,10 +17378,10 @@
       <c r="P227" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q227" s="46">
+      <c r="Q227" s="45">
         <v>44166</v>
       </c>
-      <c r="R227" s="46"/>
+      <c r="R227" s="45"/>
       <c r="S227" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17399,7 +17390,7 @@
       <c r="A228" s="29">
         <v>8</v>
       </c>
-      <c r="B228" s="21" t="s">
+      <c r="B228" s="48" t="s">
         <v>285</v>
       </c>
       <c r="C228" s="21" t="s">
@@ -17444,10 +17435,10 @@
       <c r="P228" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q228" s="46">
+      <c r="Q228" s="45">
         <v>44166</v>
       </c>
-      <c r="R228" s="46"/>
+      <c r="R228" s="45"/>
       <c r="S228" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17456,7 +17447,7 @@
       <c r="A229" s="29">
         <v>8</v>
       </c>
-      <c r="B229" s="21" t="s">
+      <c r="B229" s="48" t="s">
         <v>287</v>
       </c>
       <c r="C229" s="21" t="s">
@@ -17501,10 +17492,10 @@
       <c r="P229" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q229" s="46">
+      <c r="Q229" s="45">
         <v>44166</v>
       </c>
-      <c r="R229" s="46"/>
+      <c r="R229" s="45"/>
       <c r="S229" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17513,7 +17504,7 @@
       <c r="A230" s="29">
         <v>8</v>
       </c>
-      <c r="B230" s="21" t="s">
+      <c r="B230" s="48" t="s">
         <v>289</v>
       </c>
       <c r="C230" s="21" t="s">
@@ -17558,10 +17549,10 @@
       <c r="P230" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q230" s="46">
+      <c r="Q230" s="45">
         <v>44166</v>
       </c>
-      <c r="R230" s="46"/>
+      <c r="R230" s="45"/>
       <c r="S230" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17570,7 +17561,7 @@
       <c r="A231" s="29">
         <v>8</v>
       </c>
-      <c r="B231" s="21" t="s">
+      <c r="B231" s="48" t="s">
         <v>291</v>
       </c>
       <c r="C231" s="21" t="s">
@@ -17615,10 +17606,10 @@
       <c r="P231" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q231" s="46">
+      <c r="Q231" s="45">
         <v>44166</v>
       </c>
-      <c r="R231" s="46"/>
+      <c r="R231" s="45"/>
       <c r="S231" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17627,7 +17618,7 @@
       <c r="A232" s="29">
         <v>8</v>
       </c>
-      <c r="B232" s="21" t="s">
+      <c r="B232" s="48" t="s">
         <v>293</v>
       </c>
       <c r="C232" s="21" t="s">
@@ -17672,10 +17663,10 @@
       <c r="P232" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q232" s="46">
+      <c r="Q232" s="45">
         <v>44166</v>
       </c>
-      <c r="R232" s="46"/>
+      <c r="R232" s="45"/>
       <c r="S232" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17684,7 +17675,7 @@
       <c r="A233" s="29">
         <v>8</v>
       </c>
-      <c r="B233" s="21" t="s">
+      <c r="B233" s="48" t="s">
         <v>295</v>
       </c>
       <c r="C233" s="21" t="s">
@@ -17729,10 +17720,10 @@
       <c r="P233" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q233" s="46">
+      <c r="Q233" s="45">
         <v>44166</v>
       </c>
-      <c r="R233" s="46"/>
+      <c r="R233" s="45"/>
       <c r="S233" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17741,7 +17732,7 @@
       <c r="A234" s="29">
         <v>8</v>
       </c>
-      <c r="B234" s="21" t="s">
+      <c r="B234" s="48" t="s">
         <v>297</v>
       </c>
       <c r="C234" s="21" t="s">
@@ -17786,10 +17777,10 @@
       <c r="P234" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q234" s="46">
+      <c r="Q234" s="45">
         <v>44166</v>
       </c>
-      <c r="R234" s="46"/>
+      <c r="R234" s="45"/>
       <c r="S234" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17798,7 +17789,7 @@
       <c r="A235" s="29">
         <v>8</v>
       </c>
-      <c r="B235" s="21" t="s">
+      <c r="B235" s="48" t="s">
         <v>299</v>
       </c>
       <c r="C235" s="21" t="s">
@@ -17843,10 +17834,10 @@
       <c r="P235" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q235" s="46">
+      <c r="Q235" s="45">
         <v>44166</v>
       </c>
-      <c r="R235" s="46"/>
+      <c r="R235" s="45"/>
       <c r="S235" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17855,7 +17846,7 @@
       <c r="A236" s="29">
         <v>8</v>
       </c>
-      <c r="B236" s="21" t="s">
+      <c r="B236" s="48" t="s">
         <v>301</v>
       </c>
       <c r="C236" s="21" t="s">
@@ -17900,10 +17891,10 @@
       <c r="P236" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q236" s="46">
+      <c r="Q236" s="45">
         <v>44166</v>
       </c>
-      <c r="R236" s="46"/>
+      <c r="R236" s="45"/>
       <c r="S236" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17912,7 +17903,7 @@
       <c r="A237" s="29">
         <v>8</v>
       </c>
-      <c r="B237" s="21" t="s">
+      <c r="B237" s="48" t="s">
         <v>303</v>
       </c>
       <c r="C237" s="21" t="s">
@@ -17957,10 +17948,10 @@
       <c r="P237" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q237" s="46">
+      <c r="Q237" s="45">
         <v>44166</v>
       </c>
-      <c r="R237" s="46"/>
+      <c r="R237" s="45"/>
       <c r="S237" s="21" t="s">
         <v>1234</v>
       </c>
@@ -17969,7 +17960,7 @@
       <c r="A238" s="29">
         <v>8</v>
       </c>
-      <c r="B238" s="21" t="s">
+      <c r="B238" s="48" t="s">
         <v>305</v>
       </c>
       <c r="C238" s="21" t="s">
@@ -18014,10 +18005,10 @@
       <c r="P238" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q238" s="46">
+      <c r="Q238" s="45">
         <v>44166</v>
       </c>
-      <c r="R238" s="46"/>
+      <c r="R238" s="45"/>
       <c r="S238" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18026,7 +18017,7 @@
       <c r="A239" s="29">
         <v>8</v>
       </c>
-      <c r="B239" s="21" t="s">
+      <c r="B239" s="48" t="s">
         <v>307</v>
       </c>
       <c r="C239" s="21" t="s">
@@ -18071,10 +18062,10 @@
       <c r="P239" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q239" s="46">
+      <c r="Q239" s="45">
         <v>44166</v>
       </c>
-      <c r="R239" s="46"/>
+      <c r="R239" s="45"/>
       <c r="S239" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18083,7 +18074,7 @@
       <c r="A240" s="29">
         <v>8</v>
       </c>
-      <c r="B240" s="21" t="s">
+      <c r="B240" s="48" t="s">
         <v>309</v>
       </c>
       <c r="C240" s="21" t="s">
@@ -18128,10 +18119,10 @@
       <c r="P240" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q240" s="46">
+      <c r="Q240" s="45">
         <v>44166</v>
       </c>
-      <c r="R240" s="46"/>
+      <c r="R240" s="45"/>
       <c r="S240" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18140,7 +18131,7 @@
       <c r="A241" s="29">
         <v>8</v>
       </c>
-      <c r="B241" s="21" t="s">
+      <c r="B241" s="48" t="s">
         <v>310</v>
       </c>
       <c r="C241" s="21" t="s">
@@ -18185,10 +18176,10 @@
       <c r="P241" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q241" s="46">
+      <c r="Q241" s="45">
         <v>44166</v>
       </c>
-      <c r="R241" s="46"/>
+      <c r="R241" s="45"/>
       <c r="S241" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18197,7 +18188,7 @@
       <c r="A242" s="29">
         <v>8</v>
       </c>
-      <c r="B242" s="21" t="s">
+      <c r="B242" s="48" t="s">
         <v>311</v>
       </c>
       <c r="C242" s="21" t="s">
@@ -18242,10 +18233,10 @@
       <c r="P242" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q242" s="46">
+      <c r="Q242" s="45">
         <v>44166</v>
       </c>
-      <c r="R242" s="46"/>
+      <c r="R242" s="45"/>
       <c r="S242" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18254,7 +18245,7 @@
       <c r="A243" s="29">
         <v>8</v>
       </c>
-      <c r="B243" s="21" t="s">
+      <c r="B243" s="48" t="s">
         <v>312</v>
       </c>
       <c r="C243" s="21" t="s">
@@ -18299,10 +18290,10 @@
       <c r="P243" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q243" s="46">
+      <c r="Q243" s="45">
         <v>44166</v>
       </c>
-      <c r="R243" s="46"/>
+      <c r="R243" s="45"/>
       <c r="S243" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18311,7 +18302,7 @@
       <c r="A244" s="29">
         <v>8</v>
       </c>
-      <c r="B244" s="21" t="s">
+      <c r="B244" s="48" t="s">
         <v>314</v>
       </c>
       <c r="C244" s="21" t="s">
@@ -18356,10 +18347,10 @@
       <c r="P244" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q244" s="46">
+      <c r="Q244" s="45">
         <v>44166</v>
       </c>
-      <c r="R244" s="46"/>
+      <c r="R244" s="45"/>
       <c r="S244" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18368,7 +18359,7 @@
       <c r="A245" s="29">
         <v>8</v>
       </c>
-      <c r="B245" s="21" t="s">
+      <c r="B245" s="48" t="s">
         <v>316</v>
       </c>
       <c r="C245" s="21" t="s">
@@ -18413,10 +18404,10 @@
       <c r="P245" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q245" s="46">
+      <c r="Q245" s="45">
         <v>44166</v>
       </c>
-      <c r="R245" s="46"/>
+      <c r="R245" s="45"/>
       <c r="S245" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18425,7 +18416,7 @@
       <c r="A246" s="29">
         <v>8</v>
       </c>
-      <c r="B246" s="21" t="s">
+      <c r="B246" s="48" t="s">
         <v>317</v>
       </c>
       <c r="C246" s="21" t="s">
@@ -18470,10 +18461,10 @@
       <c r="P246" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q246" s="46">
+      <c r="Q246" s="45">
         <v>44166</v>
       </c>
-      <c r="R246" s="46"/>
+      <c r="R246" s="45"/>
       <c r="S246" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18482,7 +18473,7 @@
       <c r="A247" s="29">
         <v>8</v>
       </c>
-      <c r="B247" s="21" t="s">
+      <c r="B247" s="48" t="s">
         <v>319</v>
       </c>
       <c r="C247" s="21" t="s">
@@ -18527,10 +18518,10 @@
       <c r="P247" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q247" s="46">
+      <c r="Q247" s="45">
         <v>44166</v>
       </c>
-      <c r="R247" s="46"/>
+      <c r="R247" s="45"/>
       <c r="S247" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18539,7 +18530,7 @@
       <c r="A248" s="29">
         <v>8</v>
       </c>
-      <c r="B248" s="21" t="s">
+      <c r="B248" s="48" t="s">
         <v>321</v>
       </c>
       <c r="C248" s="21" t="s">
@@ -18584,10 +18575,10 @@
       <c r="P248" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q248" s="46">
+      <c r="Q248" s="45">
         <v>44166</v>
       </c>
-      <c r="R248" s="46"/>
+      <c r="R248" s="45"/>
       <c r="S248" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18596,7 +18587,7 @@
       <c r="A249" s="29">
         <v>8</v>
       </c>
-      <c r="B249" s="21" t="s">
+      <c r="B249" s="48" t="s">
         <v>323</v>
       </c>
       <c r="C249" s="21" t="s">
@@ -18641,10 +18632,10 @@
       <c r="P249" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q249" s="46">
+      <c r="Q249" s="45">
         <v>44166</v>
       </c>
-      <c r="R249" s="46"/>
+      <c r="R249" s="45"/>
       <c r="S249" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18653,7 +18644,7 @@
       <c r="A250" s="29">
         <v>8</v>
       </c>
-      <c r="B250" s="21" t="s">
+      <c r="B250" s="48" t="s">
         <v>325</v>
       </c>
       <c r="C250" s="21" t="s">
@@ -18698,10 +18689,10 @@
       <c r="P250" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q250" s="46">
+      <c r="Q250" s="45">
         <v>44166</v>
       </c>
-      <c r="R250" s="46"/>
+      <c r="R250" s="45"/>
       <c r="S250" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18710,7 +18701,7 @@
       <c r="A251" s="29">
         <v>8</v>
       </c>
-      <c r="B251" s="21" t="s">
+      <c r="B251" s="48" t="s">
         <v>327</v>
       </c>
       <c r="C251" s="21" t="s">
@@ -18755,10 +18746,10 @@
       <c r="P251" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q251" s="46">
+      <c r="Q251" s="45">
         <v>44166</v>
       </c>
-      <c r="R251" s="46"/>
+      <c r="R251" s="45"/>
       <c r="S251" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18767,7 +18758,7 @@
       <c r="A252" s="29">
         <v>8</v>
       </c>
-      <c r="B252" s="21" t="s">
+      <c r="B252" s="48" t="s">
         <v>329</v>
       </c>
       <c r="C252" s="21" t="s">
@@ -18812,10 +18803,10 @@
       <c r="P252" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q252" s="46">
+      <c r="Q252" s="45">
         <v>44166</v>
       </c>
-      <c r="R252" s="46"/>
+      <c r="R252" s="45"/>
       <c r="S252" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18824,7 +18815,7 @@
       <c r="A253" s="29">
         <v>8</v>
       </c>
-      <c r="B253" s="21" t="s">
+      <c r="B253" s="48" t="s">
         <v>331</v>
       </c>
       <c r="C253" s="21" t="s">
@@ -18869,10 +18860,10 @@
       <c r="P253" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q253" s="46">
+      <c r="Q253" s="45">
         <v>44166</v>
       </c>
-      <c r="R253" s="46"/>
+      <c r="R253" s="45"/>
       <c r="S253" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18881,7 +18872,7 @@
       <c r="A254" s="28">
         <v>8</v>
       </c>
-      <c r="B254" s="21" t="s">
+      <c r="B254" s="48" t="s">
         <v>333</v>
       </c>
       <c r="C254" s="21" t="s">
@@ -18926,10 +18917,10 @@
       <c r="P254" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q254" s="46">
+      <c r="Q254" s="45">
         <v>44166</v>
       </c>
-      <c r="R254" s="46"/>
+      <c r="R254" s="45"/>
       <c r="S254" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18938,7 +18929,7 @@
       <c r="A255" s="29">
         <v>8</v>
       </c>
-      <c r="B255" s="21" t="s">
+      <c r="B255" s="48" t="s">
         <v>335</v>
       </c>
       <c r="C255" s="21" t="s">
@@ -18983,10 +18974,10 @@
       <c r="P255" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q255" s="46">
+      <c r="Q255" s="45">
         <v>44166</v>
       </c>
-      <c r="R255" s="46"/>
+      <c r="R255" s="45"/>
       <c r="S255" s="21" t="s">
         <v>1234</v>
       </c>
@@ -18995,7 +18986,7 @@
       <c r="A256" s="29">
         <v>8</v>
       </c>
-      <c r="B256" s="21" t="s">
+      <c r="B256" s="48" t="s">
         <v>337</v>
       </c>
       <c r="C256" s="21" t="s">
@@ -19040,10 +19031,10 @@
       <c r="P256" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q256" s="46">
+      <c r="Q256" s="45">
         <v>44166</v>
       </c>
-      <c r="R256" s="46"/>
+      <c r="R256" s="45"/>
       <c r="S256" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19052,7 +19043,7 @@
       <c r="A257" s="29">
         <v>8</v>
       </c>
-      <c r="B257" s="21" t="s">
+      <c r="B257" s="48" t="s">
         <v>339</v>
       </c>
       <c r="C257" s="21" t="s">
@@ -19097,10 +19088,10 @@
       <c r="P257" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q257" s="46">
+      <c r="Q257" s="45">
         <v>44166</v>
       </c>
-      <c r="R257" s="46"/>
+      <c r="R257" s="45"/>
       <c r="S257" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19109,7 +19100,7 @@
       <c r="A258" s="29">
         <v>8</v>
       </c>
-      <c r="B258" s="21" t="s">
+      <c r="B258" s="48" t="s">
         <v>341</v>
       </c>
       <c r="C258" s="21" t="s">
@@ -19154,10 +19145,10 @@
       <c r="P258" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q258" s="46">
+      <c r="Q258" s="45">
         <v>44166</v>
       </c>
-      <c r="R258" s="46"/>
+      <c r="R258" s="45"/>
       <c r="S258" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19166,7 +19157,7 @@
       <c r="A259" s="29">
         <v>8</v>
       </c>
-      <c r="B259" s="21" t="s">
+      <c r="B259" s="48" t="s">
         <v>343</v>
       </c>
       <c r="C259" s="21" t="s">
@@ -19211,10 +19202,10 @@
       <c r="P259" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q259" s="46">
+      <c r="Q259" s="45">
         <v>44166</v>
       </c>
-      <c r="R259" s="46"/>
+      <c r="R259" s="45"/>
       <c r="S259" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19223,7 +19214,7 @@
       <c r="A260" s="29">
         <v>8</v>
       </c>
-      <c r="B260" s="21" t="s">
+      <c r="B260" s="48" t="s">
         <v>345</v>
       </c>
       <c r="C260" s="21" t="s">
@@ -19268,10 +19259,10 @@
       <c r="P260" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q260" s="46">
+      <c r="Q260" s="45">
         <v>44166</v>
       </c>
-      <c r="R260" s="46"/>
+      <c r="R260" s="45"/>
       <c r="S260" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19280,7 +19271,7 @@
       <c r="A261" s="29">
         <v>8</v>
       </c>
-      <c r="B261" s="21" t="s">
+      <c r="B261" s="48" t="s">
         <v>347</v>
       </c>
       <c r="C261" s="21" t="s">
@@ -19325,10 +19316,10 @@
       <c r="P261" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q261" s="46">
+      <c r="Q261" s="45">
         <v>44166</v>
       </c>
-      <c r="R261" s="46"/>
+      <c r="R261" s="45"/>
       <c r="S261" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19337,7 +19328,7 @@
       <c r="A262" s="29">
         <v>8</v>
       </c>
-      <c r="B262" s="21" t="s">
+      <c r="B262" s="48" t="s">
         <v>348</v>
       </c>
       <c r="C262" s="21" t="s">
@@ -19382,10 +19373,10 @@
       <c r="P262" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q262" s="46">
+      <c r="Q262" s="45">
         <v>44166</v>
       </c>
-      <c r="R262" s="46"/>
+      <c r="R262" s="45"/>
       <c r="S262" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19394,7 +19385,7 @@
       <c r="A263" s="29">
         <v>8</v>
       </c>
-      <c r="B263" s="21" t="s">
+      <c r="B263" s="48" t="s">
         <v>350</v>
       </c>
       <c r="C263" s="21" t="s">
@@ -19439,10 +19430,10 @@
       <c r="P263" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q263" s="46">
+      <c r="Q263" s="45">
         <v>44166</v>
       </c>
-      <c r="R263" s="46"/>
+      <c r="R263" s="45"/>
       <c r="S263" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19451,7 +19442,7 @@
       <c r="A264" s="28">
         <v>8</v>
       </c>
-      <c r="B264" s="21" t="s">
+      <c r="B264" s="48" t="s">
         <v>352</v>
       </c>
       <c r="C264" s="21" t="s">
@@ -19496,10 +19487,10 @@
       <c r="P264" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q264" s="46">
+      <c r="Q264" s="45">
         <v>44166</v>
       </c>
-      <c r="R264" s="46"/>
+      <c r="R264" s="45"/>
       <c r="S264" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19508,7 +19499,7 @@
       <c r="A265" s="29">
         <v>8</v>
       </c>
-      <c r="B265" s="21" t="s">
+      <c r="B265" s="48" t="s">
         <v>354</v>
       </c>
       <c r="C265" s="21" t="s">
@@ -19553,10 +19544,10 @@
       <c r="P265" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q265" s="46">
+      <c r="Q265" s="45">
         <v>44166</v>
       </c>
-      <c r="R265" s="46"/>
+      <c r="R265" s="45"/>
       <c r="S265" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19565,7 +19556,7 @@
       <c r="A266" s="29">
         <v>8</v>
       </c>
-      <c r="B266" s="21" t="s">
+      <c r="B266" s="48" t="s">
         <v>356</v>
       </c>
       <c r="C266" s="21" t="s">
@@ -19610,10 +19601,10 @@
       <c r="P266" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q266" s="46">
+      <c r="Q266" s="45">
         <v>44166</v>
       </c>
-      <c r="R266" s="46"/>
+      <c r="R266" s="45"/>
       <c r="S266" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19622,7 +19613,7 @@
       <c r="A267" s="29">
         <v>8</v>
       </c>
-      <c r="B267" s="21" t="s">
+      <c r="B267" s="48" t="s">
         <v>357</v>
       </c>
       <c r="C267" s="21" t="s">
@@ -19667,10 +19658,10 @@
       <c r="P267" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q267" s="46">
+      <c r="Q267" s="45">
         <v>44166</v>
       </c>
-      <c r="R267" s="46"/>
+      <c r="R267" s="45"/>
       <c r="S267" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19679,7 +19670,7 @@
       <c r="A268" s="29">
         <v>8</v>
       </c>
-      <c r="B268" s="42" t="s">
+      <c r="B268" s="41" t="s">
         <v>358</v>
       </c>
       <c r="C268" s="21" t="s">
@@ -19718,8 +19709,8 @@
       <c r="N268" s="11"/>
       <c r="O268" s="11"/>
       <c r="P268" s="21"/>
-      <c r="Q268" s="46"/>
-      <c r="R268" s="46"/>
+      <c r="Q268" s="45"/>
+      <c r="R268" s="45"/>
       <c r="S268" s="21"/>
     </row>
     <row r="269" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19771,10 +19762,10 @@
       <c r="P269" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q269" s="46">
+      <c r="Q269" s="45">
         <v>44182</v>
       </c>
-      <c r="R269" s="46" t="s">
+      <c r="R269" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S269" s="21" t="s">
@@ -19830,10 +19821,10 @@
       <c r="P270" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q270" s="46">
+      <c r="Q270" s="45">
         <v>44182</v>
       </c>
-      <c r="R270" s="46" t="s">
+      <c r="R270" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S270" s="21" t="s">
@@ -19889,10 +19880,10 @@
       <c r="P271" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q271" s="46">
+      <c r="Q271" s="45">
         <v>44182</v>
       </c>
-      <c r="R271" s="46" t="s">
+      <c r="R271" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S271" s="21" t="s">
@@ -19903,7 +19894,7 @@
       <c r="A272" s="29">
         <v>8</v>
       </c>
-      <c r="B272" s="21" t="s">
+      <c r="B272" s="48" t="s">
         <v>364</v>
       </c>
       <c r="C272" s="21" t="s">
@@ -19948,10 +19939,10 @@
       <c r="P272" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q272" s="46">
+      <c r="Q272" s="45">
         <v>44166</v>
       </c>
-      <c r="R272" s="46"/>
+      <c r="R272" s="45"/>
       <c r="S272" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19960,7 +19951,7 @@
       <c r="A273" s="29">
         <v>8</v>
       </c>
-      <c r="B273" s="21" t="s">
+      <c r="B273" s="48" t="s">
         <v>366</v>
       </c>
       <c r="C273" s="21" t="s">
@@ -20005,10 +19996,10 @@
       <c r="P273" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q273" s="46">
+      <c r="Q273" s="45">
         <v>44166</v>
       </c>
-      <c r="R273" s="46"/>
+      <c r="R273" s="45"/>
       <c r="S273" s="21" t="s">
         <v>1234</v>
       </c>
@@ -20017,7 +20008,7 @@
       <c r="A274" s="29">
         <v>8</v>
       </c>
-      <c r="B274" s="42" t="s">
+      <c r="B274" s="41" t="s">
         <v>368</v>
       </c>
       <c r="C274" s="21" t="s">
@@ -20056,15 +20047,15 @@
       <c r="N274" s="11"/>
       <c r="O274" s="11"/>
       <c r="P274" s="21"/>
-      <c r="Q274" s="46"/>
-      <c r="R274" s="46"/>
+      <c r="Q274" s="45"/>
+      <c r="R274" s="45"/>
       <c r="S274" s="21"/>
     </row>
     <row r="275" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="29">
         <v>8</v>
       </c>
-      <c r="B275" s="42" t="s">
+      <c r="B275" s="41" t="s">
         <v>370</v>
       </c>
       <c r="C275" s="21" t="s">
@@ -20103,15 +20094,15 @@
       <c r="N275" s="11"/>
       <c r="O275" s="11"/>
       <c r="P275" s="21"/>
-      <c r="Q275" s="46"/>
-      <c r="R275" s="46"/>
+      <c r="Q275" s="45"/>
+      <c r="R275" s="45"/>
       <c r="S275" s="21"/>
     </row>
     <row r="276" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="29">
         <v>8</v>
       </c>
-      <c r="B276" s="21" t="s">
+      <c r="B276" s="48" t="s">
         <v>371</v>
       </c>
       <c r="C276" s="21" t="s">
@@ -20156,10 +20147,10 @@
       <c r="P276" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q276" s="46">
+      <c r="Q276" s="45">
         <v>44166</v>
       </c>
-      <c r="R276" s="46"/>
+      <c r="R276" s="45"/>
       <c r="S276" s="21" t="s">
         <v>1234</v>
       </c>
@@ -20213,10 +20204,10 @@
       <c r="P277" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q277" s="46">
+      <c r="Q277" s="45">
         <v>44166</v>
       </c>
-      <c r="R277" s="46"/>
+      <c r="R277" s="45"/>
       <c r="S277" s="21" t="s">
         <v>1234</v>
       </c>
@@ -20270,10 +20261,10 @@
       <c r="P278" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q278" s="46">
+      <c r="Q278" s="45">
         <v>44166</v>
       </c>
-      <c r="R278" s="46"/>
+      <c r="R278" s="45"/>
       <c r="S278" s="21" t="s">
         <v>1234</v>
       </c>
@@ -20327,10 +20318,10 @@
       <c r="P279" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q279" s="46">
+      <c r="Q279" s="45">
         <v>44166</v>
       </c>
-      <c r="R279" s="46"/>
+      <c r="R279" s="45"/>
       <c r="S279" s="21" t="s">
         <v>1234</v>
       </c>
@@ -20378,8 +20369,8 @@
       <c r="N280" s="11"/>
       <c r="O280" s="11"/>
       <c r="P280" s="21"/>
-      <c r="Q280" s="46"/>
-      <c r="R280" s="46"/>
+      <c r="Q280" s="45"/>
+      <c r="R280" s="45"/>
       <c r="S280" s="21"/>
     </row>
     <row r="281" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20425,8 +20416,8 @@
       <c r="N281" s="11"/>
       <c r="O281" s="11"/>
       <c r="P281" s="21"/>
-      <c r="Q281" s="46"/>
-      <c r="R281" s="46"/>
+      <c r="Q281" s="45"/>
+      <c r="R281" s="45"/>
       <c r="S281" s="21"/>
     </row>
     <row r="282" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20472,8 +20463,8 @@
       <c r="N282" s="11"/>
       <c r="O282" s="11"/>
       <c r="P282" s="21"/>
-      <c r="Q282" s="46"/>
-      <c r="R282" s="46"/>
+      <c r="Q282" s="45"/>
+      <c r="R282" s="45"/>
       <c r="S282" s="21"/>
     </row>
     <row r="283" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20519,8 +20510,8 @@
       <c r="N283" s="11"/>
       <c r="O283" s="11"/>
       <c r="P283" s="21"/>
-      <c r="Q283" s="46"/>
-      <c r="R283" s="46"/>
+      <c r="Q283" s="45"/>
+      <c r="R283" s="45"/>
       <c r="S283" s="21"/>
     </row>
     <row r="284" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20572,10 +20563,10 @@
       <c r="P284" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q284" s="46">
+      <c r="Q284" s="45">
         <v>44166</v>
       </c>
-      <c r="R284" s="46"/>
+      <c r="R284" s="45"/>
       <c r="S284" s="21" t="s">
         <v>1234</v>
       </c>
@@ -20623,8 +20614,8 @@
       <c r="N285" s="11"/>
       <c r="O285" s="11"/>
       <c r="P285" s="21"/>
-      <c r="Q285" s="46"/>
-      <c r="R285" s="46"/>
+      <c r="Q285" s="45"/>
+      <c r="R285" s="45"/>
       <c r="S285" s="21"/>
     </row>
     <row r="286" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20670,8 +20661,8 @@
       <c r="N286" s="11"/>
       <c r="O286" s="11"/>
       <c r="P286" s="21"/>
-      <c r="Q286" s="46"/>
-      <c r="R286" s="46"/>
+      <c r="Q286" s="45"/>
+      <c r="R286" s="45"/>
       <c r="S286" s="21"/>
     </row>
     <row r="287" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20717,8 +20708,8 @@
       <c r="N287" s="11"/>
       <c r="O287" s="11"/>
       <c r="P287" s="21"/>
-      <c r="Q287" s="46"/>
-      <c r="R287" s="46"/>
+      <c r="Q287" s="45"/>
+      <c r="R287" s="45"/>
       <c r="S287" s="21"/>
     </row>
     <row r="288" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20770,10 +20761,10 @@
       <c r="P288" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q288" s="46">
+      <c r="Q288" s="45">
         <v>44166</v>
       </c>
-      <c r="R288" s="46"/>
+      <c r="R288" s="45"/>
       <c r="S288" s="21" t="s">
         <v>1234</v>
       </c>
@@ -20827,10 +20818,10 @@
       <c r="P289" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q289" s="46">
+      <c r="Q289" s="45">
         <v>44166</v>
       </c>
-      <c r="R289" s="46"/>
+      <c r="R289" s="45"/>
       <c r="S289" s="21" t="s">
         <v>1234</v>
       </c>
@@ -20884,10 +20875,10 @@
       <c r="P290" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q290" s="46">
+      <c r="Q290" s="45">
         <v>44166</v>
       </c>
-      <c r="R290" s="46"/>
+      <c r="R290" s="45"/>
       <c r="S290" s="21" t="s">
         <v>1234</v>
       </c>
@@ -20941,10 +20932,10 @@
       <c r="P291" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q291" s="46">
+      <c r="Q291" s="45">
         <v>44166</v>
       </c>
-      <c r="R291" s="46"/>
+      <c r="R291" s="45"/>
       <c r="S291" s="21" t="s">
         <v>1234</v>
       </c>
@@ -20998,10 +20989,10 @@
       <c r="P292" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q292" s="46">
+      <c r="Q292" s="45">
         <v>44166</v>
       </c>
-      <c r="R292" s="46"/>
+      <c r="R292" s="45"/>
       <c r="S292" s="21" t="s">
         <v>1234</v>
       </c>
@@ -21055,10 +21046,10 @@
       <c r="P293" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q293" s="46">
+      <c r="Q293" s="45">
         <v>44166</v>
       </c>
-      <c r="R293" s="46"/>
+      <c r="R293" s="45"/>
       <c r="S293" s="21" t="s">
         <v>1234</v>
       </c>
@@ -21112,10 +21103,10 @@
       <c r="P294" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q294" s="46">
+      <c r="Q294" s="45">
         <v>44166</v>
       </c>
-      <c r="R294" s="46"/>
+      <c r="R294" s="45"/>
       <c r="S294" s="21" t="s">
         <v>1234</v>
       </c>
@@ -21169,10 +21160,10 @@
       <c r="P295" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q295" s="46">
+      <c r="Q295" s="45">
         <v>44182</v>
       </c>
-      <c r="R295" s="46" t="s">
+      <c r="R295" s="45" t="s">
         <v>1239</v>
       </c>
       <c r="S295" s="21" t="s">
@@ -21228,10 +21219,10 @@
       <c r="P296" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q296" s="46">
+      <c r="Q296" s="45">
         <v>44166</v>
       </c>
-      <c r="R296" s="46"/>
+      <c r="R296" s="45"/>
       <c r="S296" s="21" t="s">
         <v>1234</v>
       </c>
@@ -21279,8 +21270,8 @@
       <c r="N297" s="11"/>
       <c r="O297" s="11"/>
       <c r="P297" s="21"/>
-      <c r="Q297" s="46"/>
-      <c r="R297" s="46"/>
+      <c r="Q297" s="45"/>
+      <c r="R297" s="45"/>
       <c r="S297" s="21"/>
     </row>
     <row r="298" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21326,8 +21317,8 @@
       <c r="N298" s="11"/>
       <c r="O298" s="11"/>
       <c r="P298" s="21"/>
-      <c r="Q298" s="46"/>
-      <c r="R298" s="46"/>
+      <c r="Q298" s="45"/>
+      <c r="R298" s="45"/>
       <c r="S298" s="21"/>
     </row>
     <row r="299" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21373,8 +21364,8 @@
       <c r="N299" s="11"/>
       <c r="O299" s="11"/>
       <c r="P299" s="21"/>
-      <c r="Q299" s="46"/>
-      <c r="R299" s="46"/>
+      <c r="Q299" s="45"/>
+      <c r="R299" s="45"/>
       <c r="S299" s="21"/>
     </row>
     <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21420,8 +21411,8 @@
       <c r="N300" s="11"/>
       <c r="O300" s="11"/>
       <c r="P300" s="21"/>
-      <c r="Q300" s="46"/>
-      <c r="R300" s="46"/>
+      <c r="Q300" s="45"/>
+      <c r="R300" s="45"/>
       <c r="S300" s="21"/>
     </row>
     <row r="301" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21471,8 +21462,8 @@
         <v>1066</v>
       </c>
       <c r="P301" s="21"/>
-      <c r="Q301" s="46"/>
-      <c r="R301" s="46"/>
+      <c r="Q301" s="45"/>
+      <c r="R301" s="45"/>
       <c r="S301" s="21"/>
     </row>
     <row r="302" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21524,10 +21515,10 @@
       <c r="P302" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q302" s="46">
+      <c r="Q302" s="45">
         <v>44166</v>
       </c>
-      <c r="R302" s="46"/>
+      <c r="R302" s="45"/>
       <c r="S302" s="21" t="s">
         <v>1235</v>
       </c>
@@ -21581,10 +21572,10 @@
       <c r="P303" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q303" s="46">
+      <c r="Q303" s="45">
         <v>44166</v>
       </c>
-      <c r="R303" s="46"/>
+      <c r="R303" s="45"/>
       <c r="S303" s="21" t="s">
         <v>1234</v>
       </c>
@@ -21638,10 +21629,10 @@
       <c r="P304" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q304" s="46">
+      <c r="Q304" s="45">
         <v>44182</v>
       </c>
-      <c r="R304" s="46"/>
+      <c r="R304" s="45"/>
       <c r="S304" s="21" t="s">
         <v>1234</v>
       </c>
@@ -21695,10 +21686,10 @@
       <c r="P305" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="Q305" s="46">
+      <c r="Q305" s="45">
         <v>44182</v>
       </c>
-      <c r="R305" s="46"/>
+      <c r="R305" s="45"/>
       <c r="S305" s="21" t="s">
         <v>1234</v>
       </c>
@@ -21746,8 +21737,8 @@
       <c r="N306" s="11"/>
       <c r="O306" s="11"/>
       <c r="P306" s="21"/>
-      <c r="Q306" s="46"/>
-      <c r="R306" s="46"/>
+      <c r="Q306" s="45"/>
+      <c r="R306" s="45"/>
       <c r="S306" s="21"/>
     </row>
     <row r="307" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21793,8 +21784,8 @@
       <c r="N307" s="11"/>
       <c r="O307" s="11"/>
       <c r="P307" s="21"/>
-      <c r="Q307" s="46"/>
-      <c r="R307" s="46"/>
+      <c r="Q307" s="45"/>
+      <c r="R307" s="45"/>
       <c r="S307" s="21"/>
     </row>
     <row r="308" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21840,8 +21831,8 @@
       <c r="N308" s="11"/>
       <c r="O308" s="11"/>
       <c r="P308" s="21"/>
-      <c r="Q308" s="46"/>
-      <c r="R308" s="46"/>
+      <c r="Q308" s="45"/>
+      <c r="R308" s="45"/>
       <c r="S308" s="21"/>
     </row>
     <row r="309" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21887,8 +21878,8 @@
       <c r="N309" s="11"/>
       <c r="O309" s="11"/>
       <c r="P309" s="21"/>
-      <c r="Q309" s="46"/>
-      <c r="R309" s="46"/>
+      <c r="Q309" s="45"/>
+      <c r="R309" s="45"/>
       <c r="S309" s="21"/>
     </row>
     <row r="310" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21934,8 +21925,8 @@
       <c r="N310" s="11"/>
       <c r="O310" s="11"/>
       <c r="P310" s="21"/>
-      <c r="Q310" s="46"/>
-      <c r="R310" s="46"/>
+      <c r="Q310" s="45"/>
+      <c r="R310" s="45"/>
       <c r="S310" s="21"/>
     </row>
     <row r="311" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21981,8 +21972,8 @@
       <c r="N311" s="11"/>
       <c r="O311" s="11"/>
       <c r="P311" s="21"/>
-      <c r="Q311" s="46"/>
-      <c r="R311" s="46"/>
+      <c r="Q311" s="45"/>
+      <c r="R311" s="45"/>
       <c r="S311" s="21"/>
     </row>
     <row r="312" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22028,8 +22019,8 @@
       <c r="N312" s="11"/>
       <c r="O312" s="11"/>
       <c r="P312" s="21"/>
-      <c r="Q312" s="46"/>
-      <c r="R312" s="46"/>
+      <c r="Q312" s="45"/>
+      <c r="R312" s="45"/>
       <c r="S312" s="21"/>
     </row>
     <row r="313" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22075,8 +22066,8 @@
       <c r="N313" s="11"/>
       <c r="O313" s="11"/>
       <c r="P313" s="21"/>
-      <c r="Q313" s="46"/>
-      <c r="R313" s="46"/>
+      <c r="Q313" s="45"/>
+      <c r="R313" s="45"/>
       <c r="S313" s="21"/>
     </row>
     <row r="314" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22122,8 +22113,8 @@
       <c r="N314" s="11"/>
       <c r="O314" s="11"/>
       <c r="P314" s="21"/>
-      <c r="Q314" s="46"/>
-      <c r="R314" s="46"/>
+      <c r="Q314" s="45"/>
+      <c r="R314" s="45"/>
       <c r="S314" s="21"/>
     </row>
     <row r="315" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22169,8 +22160,8 @@
       <c r="N315" s="11"/>
       <c r="O315" s="11"/>
       <c r="P315" s="21"/>
-      <c r="Q315" s="46"/>
-      <c r="R315" s="46"/>
+      <c r="Q315" s="45"/>
+      <c r="R315" s="45"/>
       <c r="S315" s="21"/>
     </row>
     <row r="316" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22222,10 +22213,10 @@
       <c r="P316" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q316" s="46">
+      <c r="Q316" s="45">
         <v>44166</v>
       </c>
-      <c r="R316" s="46"/>
+      <c r="R316" s="45"/>
       <c r="S316" s="21" t="s">
         <v>1234</v>
       </c>
@@ -22279,10 +22270,10 @@
       <c r="P317" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q317" s="46">
+      <c r="Q317" s="45">
         <v>44166</v>
       </c>
-      <c r="R317" s="46"/>
+      <c r="R317" s="45"/>
       <c r="S317" s="21" t="s">
         <v>1234</v>
       </c>
@@ -22336,10 +22327,10 @@
       <c r="P318" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q318" s="46">
+      <c r="Q318" s="45">
         <v>44166</v>
       </c>
-      <c r="R318" s="46"/>
+      <c r="R318" s="45"/>
       <c r="S318" s="21" t="s">
         <v>1234</v>
       </c>
@@ -22393,10 +22384,10 @@
       <c r="P319" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q319" s="46">
+      <c r="Q319" s="45">
         <v>44166</v>
       </c>
-      <c r="R319" s="46"/>
+      <c r="R319" s="45"/>
       <c r="S319" s="21" t="s">
         <v>1234</v>
       </c>
@@ -22450,10 +22441,10 @@
       <c r="P320" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q320" s="46">
+      <c r="Q320" s="45">
         <v>44166</v>
       </c>
-      <c r="R320" s="46"/>
+      <c r="R320" s="45"/>
       <c r="S320" s="21" t="s">
         <v>1234</v>
       </c>
@@ -22501,8 +22492,8 @@
       <c r="N321" s="11"/>
       <c r="O321" s="11"/>
       <c r="P321" s="21"/>
-      <c r="Q321" s="46"/>
-      <c r="R321" s="46"/>
+      <c r="Q321" s="45"/>
+      <c r="R321" s="45"/>
       <c r="S321" s="21"/>
     </row>
     <row r="322" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22548,8 +22539,8 @@
       <c r="N322" s="11"/>
       <c r="O322" s="11"/>
       <c r="P322" s="21"/>
-      <c r="Q322" s="46"/>
-      <c r="R322" s="46"/>
+      <c r="Q322" s="45"/>
+      <c r="R322" s="45"/>
       <c r="S322" s="21"/>
     </row>
     <row r="323" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22601,10 +22592,10 @@
       <c r="P323" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q323" s="46">
+      <c r="Q323" s="45">
         <v>44166</v>
       </c>
-      <c r="R323" s="46"/>
+      <c r="R323" s="45"/>
       <c r="S323" s="21" t="s">
         <v>1234</v>
       </c>
@@ -22652,8 +22643,8 @@
       <c r="N324" s="11"/>
       <c r="O324" s="11"/>
       <c r="P324" s="21"/>
-      <c r="Q324" s="46"/>
-      <c r="R324" s="46"/>
+      <c r="Q324" s="45"/>
+      <c r="R324" s="45"/>
       <c r="S324" s="21"/>
     </row>
     <row r="325" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22703,8 +22694,8 @@
         <v>1066</v>
       </c>
       <c r="P325" s="21"/>
-      <c r="Q325" s="46"/>
-      <c r="R325" s="46"/>
+      <c r="Q325" s="45"/>
+      <c r="R325" s="45"/>
       <c r="S325" s="21"/>
     </row>
     <row r="326" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22756,10 +22747,10 @@
       <c r="P326" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q326" s="46">
+      <c r="Q326" s="45">
         <v>44166</v>
       </c>
-      <c r="R326" s="46"/>
+      <c r="R326" s="45"/>
       <c r="S326" s="21" t="s">
         <v>1235</v>
       </c>
@@ -22813,10 +22804,10 @@
       <c r="P327" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q327" s="46">
+      <c r="Q327" s="45">
         <v>44166</v>
       </c>
-      <c r="R327" s="46"/>
+      <c r="R327" s="45"/>
       <c r="S327" s="21" t="s">
         <v>1234</v>
       </c>
@@ -22868,8 +22859,8 @@
         <v>1066</v>
       </c>
       <c r="P328" s="21"/>
-      <c r="Q328" s="46"/>
-      <c r="R328" s="46"/>
+      <c r="Q328" s="45"/>
+      <c r="R328" s="45"/>
       <c r="S328" s="21"/>
     </row>
     <row r="329" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22921,10 +22912,10 @@
       <c r="P329" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q329" s="46">
+      <c r="Q329" s="45">
         <v>44166</v>
       </c>
-      <c r="R329" s="46"/>
+      <c r="R329" s="45"/>
       <c r="S329" s="21" t="s">
         <v>1235</v>
       </c>
@@ -22978,10 +22969,10 @@
       <c r="P330" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q330" s="46">
+      <c r="Q330" s="45">
         <v>44166</v>
       </c>
-      <c r="R330" s="46"/>
+      <c r="R330" s="45"/>
       <c r="S330" s="21" t="s">
         <v>1234</v>
       </c>
@@ -23033,8 +23024,8 @@
         <v>1066</v>
       </c>
       <c r="P331" s="21"/>
-      <c r="Q331" s="46"/>
-      <c r="R331" s="46"/>
+      <c r="Q331" s="45"/>
+      <c r="R331" s="45"/>
       <c r="S331" s="21"/>
     </row>
     <row r="332" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23086,10 +23077,10 @@
       <c r="P332" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q332" s="46">
+      <c r="Q332" s="45">
         <v>44166</v>
       </c>
-      <c r="R332" s="46"/>
+      <c r="R332" s="45"/>
       <c r="S332" s="21" t="s">
         <v>1235</v>
       </c>
@@ -23143,10 +23134,10 @@
       <c r="P333" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q333" s="46">
+      <c r="Q333" s="45">
         <v>44166</v>
       </c>
-      <c r="R333" s="46"/>
+      <c r="R333" s="45"/>
       <c r="S333" s="21" t="s">
         <v>1234</v>
       </c>
@@ -23200,10 +23191,10 @@
       <c r="P334" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q334" s="46">
+      <c r="Q334" s="45">
         <v>44166</v>
       </c>
-      <c r="R334" s="46"/>
+      <c r="R334" s="45"/>
       <c r="S334" s="21" t="s">
         <v>1234</v>
       </c>
@@ -23257,10 +23248,10 @@
       <c r="P335" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q335" s="46">
+      <c r="Q335" s="45">
         <v>44166</v>
       </c>
-      <c r="R335" s="46"/>
+      <c r="R335" s="45"/>
       <c r="S335" s="21" t="s">
         <v>1234</v>
       </c>
@@ -23314,10 +23305,10 @@
       <c r="P336" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q336" s="46">
+      <c r="Q336" s="45">
         <v>44166</v>
       </c>
-      <c r="R336" s="46"/>
+      <c r="R336" s="45"/>
       <c r="S336" s="21" t="s">
         <v>1234</v>
       </c>
@@ -23365,8 +23356,8 @@
       <c r="N337" s="11"/>
       <c r="O337" s="11"/>
       <c r="P337" s="21"/>
-      <c r="Q337" s="46"/>
-      <c r="R337" s="46"/>
+      <c r="Q337" s="45"/>
+      <c r="R337" s="45"/>
       <c r="S337" s="21"/>
     </row>
     <row r="338" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23412,8 +23403,8 @@
       <c r="N338" s="11"/>
       <c r="O338" s="11"/>
       <c r="P338" s="21"/>
-      <c r="Q338" s="46"/>
-      <c r="R338" s="46"/>
+      <c r="Q338" s="45"/>
+      <c r="R338" s="45"/>
       <c r="S338" s="21"/>
     </row>
     <row r="339" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23459,8 +23450,8 @@
       <c r="N339" s="11"/>
       <c r="O339" s="11"/>
       <c r="P339" s="21"/>
-      <c r="Q339" s="46"/>
-      <c r="R339" s="46"/>
+      <c r="Q339" s="45"/>
+      <c r="R339" s="45"/>
       <c r="S339" s="21"/>
     </row>
     <row r="340" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23506,8 +23497,8 @@
       <c r="N340" s="11"/>
       <c r="O340" s="11"/>
       <c r="P340" s="21"/>
-      <c r="Q340" s="46"/>
-      <c r="R340" s="46"/>
+      <c r="Q340" s="45"/>
+      <c r="R340" s="45"/>
       <c r="S340" s="21"/>
     </row>
     <row r="341" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23553,8 +23544,8 @@
       <c r="N341" s="11"/>
       <c r="O341" s="11"/>
       <c r="P341" s="21"/>
-      <c r="Q341" s="46"/>
-      <c r="R341" s="46"/>
+      <c r="Q341" s="45"/>
+      <c r="R341" s="45"/>
       <c r="S341" s="21"/>
     </row>
     <row r="342" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23600,8 +23591,8 @@
       <c r="N342" s="11"/>
       <c r="O342" s="11"/>
       <c r="P342" s="21"/>
-      <c r="Q342" s="46"/>
-      <c r="R342" s="46"/>
+      <c r="Q342" s="45"/>
+      <c r="R342" s="45"/>
       <c r="S342" s="21"/>
     </row>
     <row r="343" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23647,8 +23638,8 @@
       <c r="N343" s="11"/>
       <c r="O343" s="11"/>
       <c r="P343" s="21"/>
-      <c r="Q343" s="46"/>
-      <c r="R343" s="46"/>
+      <c r="Q343" s="45"/>
+      <c r="R343" s="45"/>
       <c r="S343" s="21"/>
     </row>
     <row r="344" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23694,8 +23685,8 @@
       <c r="N344" s="11"/>
       <c r="O344" s="11"/>
       <c r="P344" s="21"/>
-      <c r="Q344" s="46"/>
-      <c r="R344" s="46"/>
+      <c r="Q344" s="45"/>
+      <c r="R344" s="45"/>
       <c r="S344" s="21"/>
     </row>
     <row r="345" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23741,8 +23732,8 @@
       <c r="N345" s="11"/>
       <c r="O345" s="11"/>
       <c r="P345" s="21"/>
-      <c r="Q345" s="46"/>
-      <c r="R345" s="46"/>
+      <c r="Q345" s="45"/>
+      <c r="R345" s="45"/>
       <c r="S345" s="21"/>
     </row>
     <row r="346" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23788,8 +23779,8 @@
       <c r="N346" s="11"/>
       <c r="O346" s="11"/>
       <c r="P346" s="21"/>
-      <c r="Q346" s="46"/>
-      <c r="R346" s="46"/>
+      <c r="Q346" s="45"/>
+      <c r="R346" s="45"/>
       <c r="S346" s="21"/>
     </row>
     <row r="347" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23835,8 +23826,8 @@
       <c r="N347" s="11"/>
       <c r="O347" s="11"/>
       <c r="P347" s="21"/>
-      <c r="Q347" s="46"/>
-      <c r="R347" s="46"/>
+      <c r="Q347" s="45"/>
+      <c r="R347" s="45"/>
       <c r="S347" s="21"/>
     </row>
     <row r="348" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23882,8 +23873,8 @@
       <c r="N348" s="11"/>
       <c r="O348" s="11"/>
       <c r="P348" s="21"/>
-      <c r="Q348" s="46"/>
-      <c r="R348" s="46"/>
+      <c r="Q348" s="45"/>
+      <c r="R348" s="45"/>
       <c r="S348" s="21"/>
     </row>
     <row r="349" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23929,8 +23920,8 @@
       <c r="N349" s="11"/>
       <c r="O349" s="11"/>
       <c r="P349" s="21"/>
-      <c r="Q349" s="46"/>
-      <c r="R349" s="46"/>
+      <c r="Q349" s="45"/>
+      <c r="R349" s="45"/>
       <c r="S349" s="21"/>
     </row>
     <row r="350" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23976,8 +23967,8 @@
       <c r="N350" s="11"/>
       <c r="O350" s="11"/>
       <c r="P350" s="21"/>
-      <c r="Q350" s="46"/>
-      <c r="R350" s="46"/>
+      <c r="Q350" s="45"/>
+      <c r="R350" s="45"/>
       <c r="S350" s="21"/>
     </row>
     <row r="351" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24023,8 +24014,8 @@
       <c r="N351" s="11"/>
       <c r="O351" s="11"/>
       <c r="P351" s="21"/>
-      <c r="Q351" s="46"/>
-      <c r="R351" s="46"/>
+      <c r="Q351" s="45"/>
+      <c r="R351" s="45"/>
       <c r="S351" s="21"/>
     </row>
     <row r="352" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24070,8 +24061,8 @@
       <c r="N352" s="11"/>
       <c r="O352" s="11"/>
       <c r="P352" s="21"/>
-      <c r="Q352" s="46"/>
-      <c r="R352" s="46"/>
+      <c r="Q352" s="45"/>
+      <c r="R352" s="45"/>
       <c r="S352" s="21"/>
     </row>
     <row r="353" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24117,8 +24108,8 @@
       <c r="N353" s="11"/>
       <c r="O353" s="11"/>
       <c r="P353" s="21"/>
-      <c r="Q353" s="46"/>
-      <c r="R353" s="46"/>
+      <c r="Q353" s="45"/>
+      <c r="R353" s="45"/>
       <c r="S353" s="21"/>
     </row>
     <row r="354" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24164,8 +24155,8 @@
       <c r="N354" s="11"/>
       <c r="O354" s="11"/>
       <c r="P354" s="21"/>
-      <c r="Q354" s="46"/>
-      <c r="R354" s="46"/>
+      <c r="Q354" s="45"/>
+      <c r="R354" s="45"/>
       <c r="S354" s="21"/>
     </row>
     <row r="355" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24211,8 +24202,8 @@
       <c r="N355" s="11"/>
       <c r="O355" s="11"/>
       <c r="P355" s="21"/>
-      <c r="Q355" s="46"/>
-      <c r="R355" s="46"/>
+      <c r="Q355" s="45"/>
+      <c r="R355" s="45"/>
       <c r="S355" s="21"/>
     </row>
     <row r="356" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24258,8 +24249,8 @@
       <c r="N356" s="11"/>
       <c r="O356" s="11"/>
       <c r="P356" s="21"/>
-      <c r="Q356" s="46"/>
-      <c r="R356" s="46"/>
+      <c r="Q356" s="45"/>
+      <c r="R356" s="45"/>
       <c r="S356" s="21"/>
     </row>
     <row r="357" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24305,8 +24296,8 @@
       <c r="N357" s="11"/>
       <c r="O357" s="11"/>
       <c r="P357" s="21"/>
-      <c r="Q357" s="46"/>
-      <c r="R357" s="46"/>
+      <c r="Q357" s="45"/>
+      <c r="R357" s="45"/>
       <c r="S357" s="21"/>
     </row>
     <row r="358" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24352,8 +24343,8 @@
       <c r="N358" s="11"/>
       <c r="O358" s="11"/>
       <c r="P358" s="21"/>
-      <c r="Q358" s="46"/>
-      <c r="R358" s="46"/>
+      <c r="Q358" s="45"/>
+      <c r="R358" s="45"/>
       <c r="S358" s="21"/>
     </row>
     <row r="359" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24399,8 +24390,8 @@
       <c r="N359" s="11"/>
       <c r="O359" s="11"/>
       <c r="P359" s="21"/>
-      <c r="Q359" s="46"/>
-      <c r="R359" s="46"/>
+      <c r="Q359" s="45"/>
+      <c r="R359" s="45"/>
       <c r="S359" s="21"/>
     </row>
     <row r="360" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24446,8 +24437,8 @@
       <c r="N360" s="11"/>
       <c r="O360" s="11"/>
       <c r="P360" s="21"/>
-      <c r="Q360" s="46"/>
-      <c r="R360" s="46"/>
+      <c r="Q360" s="45"/>
+      <c r="R360" s="45"/>
       <c r="S360" s="21"/>
     </row>
     <row r="361" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24493,8 +24484,8 @@
       <c r="N361" s="11"/>
       <c r="O361" s="11"/>
       <c r="P361" s="21"/>
-      <c r="Q361" s="46"/>
-      <c r="R361" s="46"/>
+      <c r="Q361" s="45"/>
+      <c r="R361" s="45"/>
       <c r="S361" s="21"/>
     </row>
     <row r="362" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24540,8 +24531,8 @@
       <c r="N362" s="11"/>
       <c r="O362" s="11"/>
       <c r="P362" s="21"/>
-      <c r="Q362" s="46"/>
-      <c r="R362" s="46"/>
+      <c r="Q362" s="45"/>
+      <c r="R362" s="45"/>
       <c r="S362" s="21"/>
     </row>
     <row r="363" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24587,8 +24578,8 @@
       <c r="N363" s="11"/>
       <c r="O363" s="11"/>
       <c r="P363" s="21"/>
-      <c r="Q363" s="46"/>
-      <c r="R363" s="46"/>
+      <c r="Q363" s="45"/>
+      <c r="R363" s="45"/>
       <c r="S363" s="21"/>
     </row>
     <row r="364" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24634,8 +24625,8 @@
       <c r="N364" s="11"/>
       <c r="O364" s="11"/>
       <c r="P364" s="21"/>
-      <c r="Q364" s="46"/>
-      <c r="R364" s="46"/>
+      <c r="Q364" s="45"/>
+      <c r="R364" s="45"/>
       <c r="S364" s="21"/>
     </row>
     <row r="365" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24681,8 +24672,8 @@
       <c r="N365" s="11"/>
       <c r="O365" s="11"/>
       <c r="P365" s="21"/>
-      <c r="Q365" s="46"/>
-      <c r="R365" s="46"/>
+      <c r="Q365" s="45"/>
+      <c r="R365" s="45"/>
       <c r="S365" s="21"/>
     </row>
     <row r="366" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24728,8 +24719,8 @@
       <c r="N366" s="11"/>
       <c r="O366" s="11"/>
       <c r="P366" s="21"/>
-      <c r="Q366" s="46"/>
-      <c r="R366" s="46"/>
+      <c r="Q366" s="45"/>
+      <c r="R366" s="45"/>
       <c r="S366" s="21"/>
     </row>
     <row r="367" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24775,8 +24766,8 @@
       <c r="N367" s="11"/>
       <c r="O367" s="11"/>
       <c r="P367" s="21"/>
-      <c r="Q367" s="46"/>
-      <c r="R367" s="46"/>
+      <c r="Q367" s="45"/>
+      <c r="R367" s="45"/>
       <c r="S367" s="21"/>
     </row>
     <row r="368" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24822,8 +24813,8 @@
       <c r="N368" s="11"/>
       <c r="O368" s="11"/>
       <c r="P368" s="21"/>
-      <c r="Q368" s="46"/>
-      <c r="R368" s="46"/>
+      <c r="Q368" s="45"/>
+      <c r="R368" s="45"/>
       <c r="S368" s="21"/>
     </row>
     <row r="369" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24869,8 +24860,8 @@
       <c r="N369" s="11"/>
       <c r="O369" s="11"/>
       <c r="P369" s="21"/>
-      <c r="Q369" s="46"/>
-      <c r="R369" s="46"/>
+      <c r="Q369" s="45"/>
+      <c r="R369" s="45"/>
       <c r="S369" s="21"/>
     </row>
     <row r="370" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24916,8 +24907,8 @@
       <c r="N370" s="11"/>
       <c r="O370" s="11"/>
       <c r="P370" s="21"/>
-      <c r="Q370" s="46"/>
-      <c r="R370" s="46"/>
+      <c r="Q370" s="45"/>
+      <c r="R370" s="45"/>
       <c r="S370" s="21"/>
     </row>
     <row r="371" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24963,8 +24954,8 @@
       <c r="N371" s="11"/>
       <c r="O371" s="11"/>
       <c r="P371" s="21"/>
-      <c r="Q371" s="46"/>
-      <c r="R371" s="46"/>
+      <c r="Q371" s="45"/>
+      <c r="R371" s="45"/>
       <c r="S371" s="21"/>
     </row>
     <row r="372" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25010,8 +25001,8 @@
       <c r="N372" s="11"/>
       <c r="O372" s="11"/>
       <c r="P372" s="21"/>
-      <c r="Q372" s="46"/>
-      <c r="R372" s="46"/>
+      <c r="Q372" s="45"/>
+      <c r="R372" s="45"/>
       <c r="S372" s="21"/>
     </row>
     <row r="373" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25057,8 +25048,8 @@
       <c r="N373" s="11"/>
       <c r="O373" s="11"/>
       <c r="P373" s="21"/>
-      <c r="Q373" s="46"/>
-      <c r="R373" s="46"/>
+      <c r="Q373" s="45"/>
+      <c r="R373" s="45"/>
       <c r="S373" s="21"/>
     </row>
     <row r="374" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25104,8 +25095,8 @@
       <c r="N374" s="11"/>
       <c r="O374" s="11"/>
       <c r="P374" s="21"/>
-      <c r="Q374" s="46"/>
-      <c r="R374" s="46"/>
+      <c r="Q374" s="45"/>
+      <c r="R374" s="45"/>
       <c r="S374" s="21"/>
     </row>
     <row r="375" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25151,8 +25142,8 @@
       <c r="N375" s="11"/>
       <c r="O375" s="11"/>
       <c r="P375" s="21"/>
-      <c r="Q375" s="46"/>
-      <c r="R375" s="46"/>
+      <c r="Q375" s="45"/>
+      <c r="R375" s="45"/>
       <c r="S375" s="21"/>
     </row>
     <row r="376" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25198,8 +25189,8 @@
       <c r="N376" s="11"/>
       <c r="O376" s="11"/>
       <c r="P376" s="21"/>
-      <c r="Q376" s="46"/>
-      <c r="R376" s="46"/>
+      <c r="Q376" s="45"/>
+      <c r="R376" s="45"/>
       <c r="S376" s="21"/>
     </row>
     <row r="377" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25245,8 +25236,8 @@
       <c r="N377" s="11"/>
       <c r="O377" s="11"/>
       <c r="P377" s="21"/>
-      <c r="Q377" s="46"/>
-      <c r="R377" s="46"/>
+      <c r="Q377" s="45"/>
+      <c r="R377" s="45"/>
       <c r="S377" s="21"/>
     </row>
     <row r="378" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25292,8 +25283,8 @@
       <c r="N378" s="11"/>
       <c r="O378" s="11"/>
       <c r="P378" s="21"/>
-      <c r="Q378" s="46"/>
-      <c r="R378" s="46"/>
+      <c r="Q378" s="45"/>
+      <c r="R378" s="45"/>
       <c r="S378" s="21"/>
     </row>
     <row r="379" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25339,8 +25330,8 @@
       <c r="N379" s="11"/>
       <c r="O379" s="11"/>
       <c r="P379" s="21"/>
-      <c r="Q379" s="46"/>
-      <c r="R379" s="46"/>
+      <c r="Q379" s="45"/>
+      <c r="R379" s="45"/>
       <c r="S379" s="21"/>
     </row>
     <row r="380" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25386,8 +25377,8 @@
       <c r="N380" s="11"/>
       <c r="O380" s="11"/>
       <c r="P380" s="21"/>
-      <c r="Q380" s="46"/>
-      <c r="R380" s="46"/>
+      <c r="Q380" s="45"/>
+      <c r="R380" s="45"/>
       <c r="S380" s="21"/>
     </row>
     <row r="381" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25433,8 +25424,8 @@
       <c r="N381" s="11"/>
       <c r="O381" s="11"/>
       <c r="P381" s="21"/>
-      <c r="Q381" s="46"/>
-      <c r="R381" s="46"/>
+      <c r="Q381" s="45"/>
+      <c r="R381" s="45"/>
       <c r="S381" s="21"/>
     </row>
     <row r="382" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25480,8 +25471,8 @@
       <c r="N382" s="11"/>
       <c r="O382" s="11"/>
       <c r="P382" s="21"/>
-      <c r="Q382" s="46"/>
-      <c r="R382" s="46"/>
+      <c r="Q382" s="45"/>
+      <c r="R382" s="45"/>
       <c r="S382" s="21"/>
     </row>
     <row r="383" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25527,8 +25518,8 @@
       <c r="N383" s="11"/>
       <c r="O383" s="11"/>
       <c r="P383" s="21"/>
-      <c r="Q383" s="46"/>
-      <c r="R383" s="46"/>
+      <c r="Q383" s="45"/>
+      <c r="R383" s="45"/>
       <c r="S383" s="21"/>
     </row>
     <row r="384" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25574,8 +25565,8 @@
       <c r="N384" s="11"/>
       <c r="O384" s="11"/>
       <c r="P384" s="21"/>
-      <c r="Q384" s="46"/>
-      <c r="R384" s="46"/>
+      <c r="Q384" s="45"/>
+      <c r="R384" s="45"/>
       <c r="S384" s="21"/>
     </row>
     <row r="385" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25621,8 +25612,8 @@
       <c r="N385" s="11"/>
       <c r="O385" s="11"/>
       <c r="P385" s="21"/>
-      <c r="Q385" s="46"/>
-      <c r="R385" s="46"/>
+      <c r="Q385" s="45"/>
+      <c r="R385" s="45"/>
       <c r="S385" s="21"/>
     </row>
     <row r="386" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25668,8 +25659,8 @@
       <c r="N386" s="11"/>
       <c r="O386" s="11"/>
       <c r="P386" s="21"/>
-      <c r="Q386" s="46"/>
-      <c r="R386" s="46"/>
+      <c r="Q386" s="45"/>
+      <c r="R386" s="45"/>
       <c r="S386" s="21"/>
     </row>
     <row r="387" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25715,8 +25706,8 @@
       <c r="N387" s="11"/>
       <c r="O387" s="11"/>
       <c r="P387" s="21"/>
-      <c r="Q387" s="46"/>
-      <c r="R387" s="46"/>
+      <c r="Q387" s="45"/>
+      <c r="R387" s="45"/>
       <c r="S387" s="21"/>
     </row>
     <row r="388" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25762,8 +25753,8 @@
       <c r="N388" s="11"/>
       <c r="O388" s="11"/>
       <c r="P388" s="21"/>
-      <c r="Q388" s="46"/>
-      <c r="R388" s="46"/>
+      <c r="Q388" s="45"/>
+      <c r="R388" s="45"/>
       <c r="S388" s="21"/>
     </row>
     <row r="389" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25809,8 +25800,8 @@
       <c r="N389" s="11"/>
       <c r="O389" s="11"/>
       <c r="P389" s="21"/>
-      <c r="Q389" s="46"/>
-      <c r="R389" s="46"/>
+      <c r="Q389" s="45"/>
+      <c r="R389" s="45"/>
       <c r="S389" s="21"/>
     </row>
     <row r="390" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25856,8 +25847,8 @@
       <c r="N390" s="11"/>
       <c r="O390" s="11"/>
       <c r="P390" s="21"/>
-      <c r="Q390" s="46"/>
-      <c r="R390" s="46"/>
+      <c r="Q390" s="45"/>
+      <c r="R390" s="45"/>
       <c r="S390" s="21"/>
     </row>
     <row r="391" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25903,8 +25894,8 @@
       <c r="N391" s="11"/>
       <c r="O391" s="11"/>
       <c r="P391" s="21"/>
-      <c r="Q391" s="46"/>
-      <c r="R391" s="46"/>
+      <c r="Q391" s="45"/>
+      <c r="R391" s="45"/>
       <c r="S391" s="21"/>
     </row>
     <row r="392" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25950,8 +25941,8 @@
       <c r="N392" s="11"/>
       <c r="O392" s="11"/>
       <c r="P392" s="21"/>
-      <c r="Q392" s="46"/>
-      <c r="R392" s="46"/>
+      <c r="Q392" s="45"/>
+      <c r="R392" s="45"/>
       <c r="S392" s="21"/>
     </row>
     <row r="393" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -25997,8 +25988,8 @@
       <c r="N393" s="11"/>
       <c r="O393" s="11"/>
       <c r="P393" s="21"/>
-      <c r="Q393" s="46"/>
-      <c r="R393" s="46"/>
+      <c r="Q393" s="45"/>
+      <c r="R393" s="45"/>
       <c r="S393" s="21"/>
     </row>
     <row r="394" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26044,8 +26035,8 @@
       <c r="N394" s="11"/>
       <c r="O394" s="11"/>
       <c r="P394" s="21"/>
-      <c r="Q394" s="46"/>
-      <c r="R394" s="46"/>
+      <c r="Q394" s="45"/>
+      <c r="R394" s="45"/>
       <c r="S394" s="21"/>
     </row>
     <row r="395" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26091,8 +26082,8 @@
       <c r="N395" s="11"/>
       <c r="O395" s="11"/>
       <c r="P395" s="21"/>
-      <c r="Q395" s="46"/>
-      <c r="R395" s="46"/>
+      <c r="Q395" s="45"/>
+      <c r="R395" s="45"/>
       <c r="S395" s="21"/>
     </row>
     <row r="396" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26138,8 +26129,8 @@
       <c r="N396" s="11"/>
       <c r="O396" s="11"/>
       <c r="P396" s="21"/>
-      <c r="Q396" s="46"/>
-      <c r="R396" s="46"/>
+      <c r="Q396" s="45"/>
+      <c r="R396" s="45"/>
       <c r="S396" s="21"/>
     </row>
     <row r="397" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26185,8 +26176,8 @@
       <c r="N397" s="11"/>
       <c r="O397" s="11"/>
       <c r="P397" s="21"/>
-      <c r="Q397" s="46"/>
-      <c r="R397" s="46"/>
+      <c r="Q397" s="45"/>
+      <c r="R397" s="45"/>
       <c r="S397" s="21"/>
     </row>
     <row r="398" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26232,8 +26223,8 @@
       <c r="N398" s="11"/>
       <c r="O398" s="11"/>
       <c r="P398" s="21"/>
-      <c r="Q398" s="46"/>
-      <c r="R398" s="46"/>
+      <c r="Q398" s="45"/>
+      <c r="R398" s="45"/>
       <c r="S398" s="21"/>
     </row>
     <row r="399" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26279,8 +26270,8 @@
       <c r="N399" s="11"/>
       <c r="O399" s="11"/>
       <c r="P399" s="21"/>
-      <c r="Q399" s="46"/>
-      <c r="R399" s="46"/>
+      <c r="Q399" s="45"/>
+      <c r="R399" s="45"/>
       <c r="S399" s="21"/>
     </row>
     <row r="400" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26326,8 +26317,8 @@
       <c r="N400" s="11"/>
       <c r="O400" s="11"/>
       <c r="P400" s="21"/>
-      <c r="Q400" s="46"/>
-      <c r="R400" s="46"/>
+      <c r="Q400" s="45"/>
+      <c r="R400" s="45"/>
       <c r="S400" s="21"/>
     </row>
     <row r="401" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26373,8 +26364,8 @@
       <c r="N401" s="11"/>
       <c r="O401" s="11"/>
       <c r="P401" s="21"/>
-      <c r="Q401" s="46"/>
-      <c r="R401" s="46"/>
+      <c r="Q401" s="45"/>
+      <c r="R401" s="45"/>
       <c r="S401" s="21"/>
     </row>
     <row r="402" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26420,8 +26411,8 @@
       <c r="N402" s="11"/>
       <c r="O402" s="11"/>
       <c r="P402" s="21"/>
-      <c r="Q402" s="46"/>
-      <c r="R402" s="46"/>
+      <c r="Q402" s="45"/>
+      <c r="R402" s="45"/>
       <c r="S402" s="21"/>
     </row>
     <row r="403" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26467,8 +26458,8 @@
       <c r="N403" s="11"/>
       <c r="O403" s="11"/>
       <c r="P403" s="21"/>
-      <c r="Q403" s="46"/>
-      <c r="R403" s="46"/>
+      <c r="Q403" s="45"/>
+      <c r="R403" s="45"/>
       <c r="S403" s="21"/>
     </row>
     <row r="404" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26514,8 +26505,8 @@
       <c r="N404" s="11"/>
       <c r="O404" s="11"/>
       <c r="P404" s="21"/>
-      <c r="Q404" s="46"/>
-      <c r="R404" s="46"/>
+      <c r="Q404" s="45"/>
+      <c r="R404" s="45"/>
       <c r="S404" s="21"/>
     </row>
     <row r="405" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26561,8 +26552,8 @@
       <c r="N405" s="11"/>
       <c r="O405" s="11"/>
       <c r="P405" s="21"/>
-      <c r="Q405" s="46"/>
-      <c r="R405" s="46"/>
+      <c r="Q405" s="45"/>
+      <c r="R405" s="45"/>
       <c r="S405" s="21"/>
     </row>
     <row r="406" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26608,8 +26599,8 @@
       <c r="N406" s="11"/>
       <c r="O406" s="11"/>
       <c r="P406" s="21"/>
-      <c r="Q406" s="46"/>
-      <c r="R406" s="46"/>
+      <c r="Q406" s="45"/>
+      <c r="R406" s="45"/>
       <c r="S406" s="21"/>
     </row>
     <row r="407" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26655,8 +26646,8 @@
       <c r="N407" s="11"/>
       <c r="O407" s="11"/>
       <c r="P407" s="21"/>
-      <c r="Q407" s="46"/>
-      <c r="R407" s="46"/>
+      <c r="Q407" s="45"/>
+      <c r="R407" s="45"/>
       <c r="S407" s="21"/>
     </row>
     <row r="408" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26702,8 +26693,8 @@
       <c r="N408" s="11"/>
       <c r="O408" s="11"/>
       <c r="P408" s="21"/>
-      <c r="Q408" s="46"/>
-      <c r="R408" s="46"/>
+      <c r="Q408" s="45"/>
+      <c r="R408" s="45"/>
       <c r="S408" s="21"/>
     </row>
     <row r="409" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26749,8 +26740,8 @@
       <c r="N409" s="11"/>
       <c r="O409" s="11"/>
       <c r="P409" s="21"/>
-      <c r="Q409" s="46"/>
-      <c r="R409" s="46"/>
+      <c r="Q409" s="45"/>
+      <c r="R409" s="45"/>
       <c r="S409" s="21"/>
     </row>
     <row r="410" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26796,8 +26787,8 @@
       <c r="N410" s="11"/>
       <c r="O410" s="11"/>
       <c r="P410" s="21"/>
-      <c r="Q410" s="46"/>
-      <c r="R410" s="46"/>
+      <c r="Q410" s="45"/>
+      <c r="R410" s="45"/>
       <c r="S410" s="21"/>
     </row>
     <row r="411" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26843,8 +26834,8 @@
       <c r="N411" s="11"/>
       <c r="O411" s="11"/>
       <c r="P411" s="21"/>
-      <c r="Q411" s="46"/>
-      <c r="R411" s="46"/>
+      <c r="Q411" s="45"/>
+      <c r="R411" s="45"/>
       <c r="S411" s="21"/>
     </row>
     <row r="412" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26890,8 +26881,8 @@
       <c r="N412" s="11"/>
       <c r="O412" s="11"/>
       <c r="P412" s="21"/>
-      <c r="Q412" s="46"/>
-      <c r="R412" s="46"/>
+      <c r="Q412" s="45"/>
+      <c r="R412" s="45"/>
       <c r="S412" s="21"/>
     </row>
     <row r="413" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26937,8 +26928,8 @@
       <c r="N413" s="11"/>
       <c r="O413" s="11"/>
       <c r="P413" s="21"/>
-      <c r="Q413" s="46"/>
-      <c r="R413" s="46"/>
+      <c r="Q413" s="45"/>
+      <c r="R413" s="45"/>
       <c r="S413" s="21"/>
     </row>
     <row r="414" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -26984,8 +26975,8 @@
       <c r="N414" s="11"/>
       <c r="O414" s="11"/>
       <c r="P414" s="21"/>
-      <c r="Q414" s="46"/>
-      <c r="R414" s="46"/>
+      <c r="Q414" s="45"/>
+      <c r="R414" s="45"/>
       <c r="S414" s="21"/>
     </row>
     <row r="415" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27031,8 +27022,8 @@
       <c r="N415" s="11"/>
       <c r="O415" s="11"/>
       <c r="P415" s="21"/>
-      <c r="Q415" s="46"/>
-      <c r="R415" s="46"/>
+      <c r="Q415" s="45"/>
+      <c r="R415" s="45"/>
       <c r="S415" s="21"/>
     </row>
     <row r="416" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27078,8 +27069,8 @@
       <c r="N416" s="11"/>
       <c r="O416" s="11"/>
       <c r="P416" s="21"/>
-      <c r="Q416" s="46"/>
-      <c r="R416" s="46"/>
+      <c r="Q416" s="45"/>
+      <c r="R416" s="45"/>
       <c r="S416" s="21"/>
     </row>
     <row r="417" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27125,8 +27116,8 @@
       <c r="N417" s="11"/>
       <c r="O417" s="11"/>
       <c r="P417" s="21"/>
-      <c r="Q417" s="46"/>
-      <c r="R417" s="46"/>
+      <c r="Q417" s="45"/>
+      <c r="R417" s="45"/>
       <c r="S417" s="21"/>
     </row>
     <row r="418" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27172,8 +27163,8 @@
       <c r="N418" s="11"/>
       <c r="O418" s="11"/>
       <c r="P418" s="21"/>
-      <c r="Q418" s="46"/>
-      <c r="R418" s="46"/>
+      <c r="Q418" s="45"/>
+      <c r="R418" s="45"/>
       <c r="S418" s="21"/>
     </row>
     <row r="419" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27219,8 +27210,8 @@
       <c r="N419" s="11"/>
       <c r="O419" s="11"/>
       <c r="P419" s="21"/>
-      <c r="Q419" s="46"/>
-      <c r="R419" s="46"/>
+      <c r="Q419" s="45"/>
+      <c r="R419" s="45"/>
       <c r="S419" s="21"/>
     </row>
     <row r="420" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27266,8 +27257,8 @@
       <c r="N420" s="11"/>
       <c r="O420" s="11"/>
       <c r="P420" s="21"/>
-      <c r="Q420" s="46"/>
-      <c r="R420" s="46"/>
+      <c r="Q420" s="45"/>
+      <c r="R420" s="45"/>
       <c r="S420" s="21"/>
     </row>
     <row r="421" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27313,8 +27304,8 @@
       <c r="N421" s="11"/>
       <c r="O421" s="11"/>
       <c r="P421" s="21"/>
-      <c r="Q421" s="46"/>
-      <c r="R421" s="46"/>
+      <c r="Q421" s="45"/>
+      <c r="R421" s="45"/>
       <c r="S421" s="21"/>
     </row>
     <row r="422" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27360,8 +27351,8 @@
       <c r="N422" s="11"/>
       <c r="O422" s="11"/>
       <c r="P422" s="21"/>
-      <c r="Q422" s="46"/>
-      <c r="R422" s="46"/>
+      <c r="Q422" s="45"/>
+      <c r="R422" s="45"/>
       <c r="S422" s="21"/>
     </row>
     <row r="423" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27407,8 +27398,8 @@
       <c r="N423" s="11"/>
       <c r="O423" s="11"/>
       <c r="P423" s="21"/>
-      <c r="Q423" s="46"/>
-      <c r="R423" s="46"/>
+      <c r="Q423" s="45"/>
+      <c r="R423" s="45"/>
       <c r="S423" s="21"/>
     </row>
     <row r="424" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27454,8 +27445,8 @@
       <c r="N424" s="11"/>
       <c r="O424" s="11"/>
       <c r="P424" s="21"/>
-      <c r="Q424" s="46"/>
-      <c r="R424" s="46"/>
+      <c r="Q424" s="45"/>
+      <c r="R424" s="45"/>
       <c r="S424" s="21"/>
     </row>
     <row r="425" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27501,8 +27492,8 @@
       <c r="N425" s="11"/>
       <c r="O425" s="11"/>
       <c r="P425" s="21"/>
-      <c r="Q425" s="46"/>
-      <c r="R425" s="46"/>
+      <c r="Q425" s="45"/>
+      <c r="R425" s="45"/>
       <c r="S425" s="21"/>
     </row>
     <row r="426" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27548,8 +27539,8 @@
       <c r="N426" s="11"/>
       <c r="O426" s="11"/>
       <c r="P426" s="21"/>
-      <c r="Q426" s="46"/>
-      <c r="R426" s="46"/>
+      <c r="Q426" s="45"/>
+      <c r="R426" s="45"/>
       <c r="S426" s="21"/>
     </row>
     <row r="427" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27595,8 +27586,8 @@
       <c r="N427" s="11"/>
       <c r="O427" s="11"/>
       <c r="P427" s="21"/>
-      <c r="Q427" s="46"/>
-      <c r="R427" s="46"/>
+      <c r="Q427" s="45"/>
+      <c r="R427" s="45"/>
       <c r="S427" s="21"/>
     </row>
     <row r="428" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27642,8 +27633,8 @@
       <c r="N428" s="11"/>
       <c r="O428" s="11"/>
       <c r="P428" s="21"/>
-      <c r="Q428" s="46"/>
-      <c r="R428" s="46"/>
+      <c r="Q428" s="45"/>
+      <c r="R428" s="45"/>
       <c r="S428" s="21"/>
     </row>
     <row r="429" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27689,8 +27680,8 @@
       <c r="N429" s="11"/>
       <c r="O429" s="11"/>
       <c r="P429" s="21"/>
-      <c r="Q429" s="46"/>
-      <c r="R429" s="46"/>
+      <c r="Q429" s="45"/>
+      <c r="R429" s="45"/>
       <c r="S429" s="21"/>
     </row>
     <row r="430" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27736,8 +27727,8 @@
       <c r="N430" s="11"/>
       <c r="O430" s="11"/>
       <c r="P430" s="21"/>
-      <c r="Q430" s="46"/>
-      <c r="R430" s="46"/>
+      <c r="Q430" s="45"/>
+      <c r="R430" s="45"/>
       <c r="S430" s="21"/>
     </row>
     <row r="431" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27783,8 +27774,8 @@
       <c r="N431" s="11"/>
       <c r="O431" s="11"/>
       <c r="P431" s="21"/>
-      <c r="Q431" s="46"/>
-      <c r="R431" s="46"/>
+      <c r="Q431" s="45"/>
+      <c r="R431" s="45"/>
       <c r="S431" s="21"/>
     </row>
     <row r="432" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27830,8 +27821,8 @@
       <c r="N432" s="11"/>
       <c r="O432" s="11"/>
       <c r="P432" s="21"/>
-      <c r="Q432" s="46"/>
-      <c r="R432" s="46"/>
+      <c r="Q432" s="45"/>
+      <c r="R432" s="45"/>
       <c r="S432" s="21"/>
     </row>
     <row r="433" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27877,8 +27868,8 @@
       <c r="N433" s="11"/>
       <c r="O433" s="11"/>
       <c r="P433" s="21"/>
-      <c r="Q433" s="46"/>
-      <c r="R433" s="46"/>
+      <c r="Q433" s="45"/>
+      <c r="R433" s="45"/>
       <c r="S433" s="21"/>
     </row>
     <row r="434" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27924,8 +27915,8 @@
       <c r="N434" s="11"/>
       <c r="O434" s="11"/>
       <c r="P434" s="21"/>
-      <c r="Q434" s="46"/>
-      <c r="R434" s="46"/>
+      <c r="Q434" s="45"/>
+      <c r="R434" s="45"/>
       <c r="S434" s="21"/>
     </row>
     <row r="435" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -27971,8 +27962,8 @@
       <c r="N435" s="11"/>
       <c r="O435" s="11"/>
       <c r="P435" s="21"/>
-      <c r="Q435" s="46"/>
-      <c r="R435" s="46"/>
+      <c r="Q435" s="45"/>
+      <c r="R435" s="45"/>
       <c r="S435" s="21"/>
     </row>
     <row r="436" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28018,8 +28009,8 @@
       <c r="N436" s="11"/>
       <c r="O436" s="11"/>
       <c r="P436" s="21"/>
-      <c r="Q436" s="46"/>
-      <c r="R436" s="46"/>
+      <c r="Q436" s="45"/>
+      <c r="R436" s="45"/>
       <c r="S436" s="21"/>
     </row>
     <row r="437" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28065,8 +28056,8 @@
       <c r="N437" s="11"/>
       <c r="O437" s="11"/>
       <c r="P437" s="21"/>
-      <c r="Q437" s="46"/>
-      <c r="R437" s="46"/>
+      <c r="Q437" s="45"/>
+      <c r="R437" s="45"/>
       <c r="S437" s="21"/>
     </row>
     <row r="438" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28112,8 +28103,8 @@
       <c r="N438" s="11"/>
       <c r="O438" s="11"/>
       <c r="P438" s="21"/>
-      <c r="Q438" s="46"/>
-      <c r="R438" s="46"/>
+      <c r="Q438" s="45"/>
+      <c r="R438" s="45"/>
       <c r="S438" s="21"/>
     </row>
     <row r="439" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28159,8 +28150,8 @@
       <c r="N439" s="11"/>
       <c r="O439" s="11"/>
       <c r="P439" s="21"/>
-      <c r="Q439" s="46"/>
-      <c r="R439" s="46"/>
+      <c r="Q439" s="45"/>
+      <c r="R439" s="45"/>
       <c r="S439" s="21"/>
     </row>
     <row r="440" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28206,8 +28197,8 @@
       <c r="N440" s="11"/>
       <c r="O440" s="11"/>
       <c r="P440" s="21"/>
-      <c r="Q440" s="46"/>
-      <c r="R440" s="46"/>
+      <c r="Q440" s="45"/>
+      <c r="R440" s="45"/>
       <c r="S440" s="21"/>
     </row>
     <row r="441" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28253,8 +28244,8 @@
       <c r="N441" s="11"/>
       <c r="O441" s="11"/>
       <c r="P441" s="21"/>
-      <c r="Q441" s="46"/>
-      <c r="R441" s="46"/>
+      <c r="Q441" s="45"/>
+      <c r="R441" s="45"/>
       <c r="S441" s="21"/>
     </row>
     <row r="442" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28300,8 +28291,8 @@
       <c r="N442" s="11"/>
       <c r="O442" s="11"/>
       <c r="P442" s="21"/>
-      <c r="Q442" s="46"/>
-      <c r="R442" s="46"/>
+      <c r="Q442" s="45"/>
+      <c r="R442" s="45"/>
       <c r="S442" s="21"/>
     </row>
     <row r="443" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28347,8 +28338,8 @@
       <c r="N443" s="11"/>
       <c r="O443" s="11"/>
       <c r="P443" s="21"/>
-      <c r="Q443" s="46"/>
-      <c r="R443" s="46"/>
+      <c r="Q443" s="45"/>
+      <c r="R443" s="45"/>
       <c r="S443" s="21"/>
     </row>
     <row r="444" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28394,8 +28385,8 @@
       <c r="N444" s="11"/>
       <c r="O444" s="11"/>
       <c r="P444" s="21"/>
-      <c r="Q444" s="46"/>
-      <c r="R444" s="46"/>
+      <c r="Q444" s="45"/>
+      <c r="R444" s="45"/>
       <c r="S444" s="21"/>
     </row>
     <row r="445" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28441,8 +28432,8 @@
       <c r="N445" s="11"/>
       <c r="O445" s="11"/>
       <c r="P445" s="21"/>
-      <c r="Q445" s="46"/>
-      <c r="R445" s="46"/>
+      <c r="Q445" s="45"/>
+      <c r="R445" s="45"/>
       <c r="S445" s="21"/>
     </row>
     <row r="446" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28488,8 +28479,8 @@
       <c r="N446" s="11"/>
       <c r="O446" s="11"/>
       <c r="P446" s="21"/>
-      <c r="Q446" s="46"/>
-      <c r="R446" s="46"/>
+      <c r="Q446" s="45"/>
+      <c r="R446" s="45"/>
       <c r="S446" s="21"/>
     </row>
     <row r="447" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28535,8 +28526,8 @@
       <c r="N447" s="11"/>
       <c r="O447" s="11"/>
       <c r="P447" s="21"/>
-      <c r="Q447" s="46"/>
-      <c r="R447" s="46"/>
+      <c r="Q447" s="45"/>
+      <c r="R447" s="45"/>
       <c r="S447" s="21"/>
     </row>
     <row r="448" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28582,8 +28573,8 @@
       <c r="N448" s="11"/>
       <c r="O448" s="11"/>
       <c r="P448" s="21"/>
-      <c r="Q448" s="46"/>
-      <c r="R448" s="46"/>
+      <c r="Q448" s="45"/>
+      <c r="R448" s="45"/>
       <c r="S448" s="21"/>
     </row>
     <row r="449" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28629,8 +28620,8 @@
       <c r="N449" s="11"/>
       <c r="O449" s="11"/>
       <c r="P449" s="21"/>
-      <c r="Q449" s="46"/>
-      <c r="R449" s="46"/>
+      <c r="Q449" s="45"/>
+      <c r="R449" s="45"/>
       <c r="S449" s="21"/>
     </row>
     <row r="450" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28676,8 +28667,8 @@
       <c r="N450" s="11"/>
       <c r="O450" s="11"/>
       <c r="P450" s="21"/>
-      <c r="Q450" s="46"/>
-      <c r="R450" s="46"/>
+      <c r="Q450" s="45"/>
+      <c r="R450" s="45"/>
       <c r="S450" s="21"/>
     </row>
     <row r="451" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28723,8 +28714,8 @@
       <c r="N451" s="11"/>
       <c r="O451" s="11"/>
       <c r="P451" s="21"/>
-      <c r="Q451" s="46"/>
-      <c r="R451" s="46"/>
+      <c r="Q451" s="45"/>
+      <c r="R451" s="45"/>
       <c r="S451" s="21"/>
     </row>
     <row r="452" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28770,8 +28761,8 @@
       <c r="N452" s="11"/>
       <c r="O452" s="11"/>
       <c r="P452" s="21"/>
-      <c r="Q452" s="46"/>
-      <c r="R452" s="46"/>
+      <c r="Q452" s="45"/>
+      <c r="R452" s="45"/>
       <c r="S452" s="21"/>
     </row>
     <row r="453" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28817,8 +28808,8 @@
       <c r="N453" s="11"/>
       <c r="O453" s="11"/>
       <c r="P453" s="21"/>
-      <c r="Q453" s="46"/>
-      <c r="R453" s="46"/>
+      <c r="Q453" s="45"/>
+      <c r="R453" s="45"/>
       <c r="S453" s="21"/>
     </row>
     <row r="454" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28864,8 +28855,8 @@
       <c r="N454" s="11"/>
       <c r="O454" s="11"/>
       <c r="P454" s="21"/>
-      <c r="Q454" s="46"/>
-      <c r="R454" s="46"/>
+      <c r="Q454" s="45"/>
+      <c r="R454" s="45"/>
       <c r="S454" s="21"/>
     </row>
     <row r="455" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28911,8 +28902,8 @@
       <c r="N455" s="11"/>
       <c r="O455" s="11"/>
       <c r="P455" s="21"/>
-      <c r="Q455" s="46"/>
-      <c r="R455" s="46"/>
+      <c r="Q455" s="45"/>
+      <c r="R455" s="45"/>
       <c r="S455" s="21"/>
     </row>
     <row r="456" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -28958,8 +28949,8 @@
       <c r="N456" s="11"/>
       <c r="O456" s="11"/>
       <c r="P456" s="21"/>
-      <c r="Q456" s="46"/>
-      <c r="R456" s="46"/>
+      <c r="Q456" s="45"/>
+      <c r="R456" s="45"/>
       <c r="S456" s="21"/>
     </row>
     <row r="457" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29005,8 +28996,8 @@
       <c r="N457" s="11"/>
       <c r="O457" s="11"/>
       <c r="P457" s="21"/>
-      <c r="Q457" s="46"/>
-      <c r="R457" s="46"/>
+      <c r="Q457" s="45"/>
+      <c r="R457" s="45"/>
       <c r="S457" s="21"/>
     </row>
     <row r="458" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29052,8 +29043,8 @@
       <c r="N458" s="11"/>
       <c r="O458" s="11"/>
       <c r="P458" s="21"/>
-      <c r="Q458" s="46"/>
-      <c r="R458" s="46"/>
+      <c r="Q458" s="45"/>
+      <c r="R458" s="45"/>
       <c r="S458" s="21"/>
     </row>
     <row r="459" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29099,8 +29090,8 @@
       <c r="N459" s="11"/>
       <c r="O459" s="11"/>
       <c r="P459" s="21"/>
-      <c r="Q459" s="46"/>
-      <c r="R459" s="46"/>
+      <c r="Q459" s="45"/>
+      <c r="R459" s="45"/>
       <c r="S459" s="21"/>
     </row>
     <row r="460" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29146,8 +29137,8 @@
       <c r="N460" s="11"/>
       <c r="O460" s="11"/>
       <c r="P460" s="21"/>
-      <c r="Q460" s="46"/>
-      <c r="R460" s="46"/>
+      <c r="Q460" s="45"/>
+      <c r="R460" s="45"/>
       <c r="S460" s="21"/>
     </row>
     <row r="461" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29193,8 +29184,8 @@
       <c r="N461" s="11"/>
       <c r="O461" s="11"/>
       <c r="P461" s="21"/>
-      <c r="Q461" s="46"/>
-      <c r="R461" s="46"/>
+      <c r="Q461" s="45"/>
+      <c r="R461" s="45"/>
       <c r="S461" s="21"/>
     </row>
     <row r="462" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29240,8 +29231,8 @@
       <c r="N462" s="11"/>
       <c r="O462" s="11"/>
       <c r="P462" s="21"/>
-      <c r="Q462" s="46"/>
-      <c r="R462" s="46"/>
+      <c r="Q462" s="45"/>
+      <c r="R462" s="45"/>
       <c r="S462" s="21"/>
     </row>
     <row r="463" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29287,8 +29278,8 @@
       <c r="N463" s="11"/>
       <c r="O463" s="11"/>
       <c r="P463" s="21"/>
-      <c r="Q463" s="46"/>
-      <c r="R463" s="46"/>
+      <c r="Q463" s="45"/>
+      <c r="R463" s="45"/>
       <c r="S463" s="21"/>
     </row>
     <row r="464" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29334,8 +29325,8 @@
       <c r="N464" s="11"/>
       <c r="O464" s="11"/>
       <c r="P464" s="21"/>
-      <c r="Q464" s="46"/>
-      <c r="R464" s="46"/>
+      <c r="Q464" s="45"/>
+      <c r="R464" s="45"/>
       <c r="S464" s="21"/>
     </row>
     <row r="465" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29381,8 +29372,8 @@
       <c r="N465" s="11"/>
       <c r="O465" s="11"/>
       <c r="P465" s="21"/>
-      <c r="Q465" s="46"/>
-      <c r="R465" s="46"/>
+      <c r="Q465" s="45"/>
+      <c r="R465" s="45"/>
       <c r="S465" s="21"/>
     </row>
     <row r="466" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29428,8 +29419,8 @@
       <c r="N466" s="11"/>
       <c r="O466" s="11"/>
       <c r="P466" s="21"/>
-      <c r="Q466" s="46"/>
-      <c r="R466" s="46"/>
+      <c r="Q466" s="45"/>
+      <c r="R466" s="45"/>
       <c r="S466" s="21"/>
     </row>
     <row r="467" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29475,8 +29466,8 @@
       <c r="N467" s="11"/>
       <c r="O467" s="11"/>
       <c r="P467" s="21"/>
-      <c r="Q467" s="46"/>
-      <c r="R467" s="46"/>
+      <c r="Q467" s="45"/>
+      <c r="R467" s="45"/>
       <c r="S467" s="21"/>
     </row>
     <row r="468" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29522,8 +29513,8 @@
       <c r="N468" s="11"/>
       <c r="O468" s="11"/>
       <c r="P468" s="21"/>
-      <c r="Q468" s="46"/>
-      <c r="R468" s="46"/>
+      <c r="Q468" s="45"/>
+      <c r="R468" s="45"/>
       <c r="S468" s="21"/>
     </row>
     <row r="469" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29569,8 +29560,8 @@
       <c r="N469" s="11"/>
       <c r="O469" s="11"/>
       <c r="P469" s="21"/>
-      <c r="Q469" s="46"/>
-      <c r="R469" s="46"/>
+      <c r="Q469" s="45"/>
+      <c r="R469" s="45"/>
       <c r="S469" s="21"/>
     </row>
     <row r="470" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29616,8 +29607,8 @@
       <c r="N470" s="11"/>
       <c r="O470" s="11"/>
       <c r="P470" s="21"/>
-      <c r="Q470" s="46"/>
-      <c r="R470" s="46"/>
+      <c r="Q470" s="45"/>
+      <c r="R470" s="45"/>
       <c r="S470" s="21"/>
     </row>
     <row r="471" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29663,8 +29654,8 @@
       <c r="N471" s="11"/>
       <c r="O471" s="11"/>
       <c r="P471" s="21"/>
-      <c r="Q471" s="46"/>
-      <c r="R471" s="46"/>
+      <c r="Q471" s="45"/>
+      <c r="R471" s="45"/>
       <c r="S471" s="21"/>
     </row>
     <row r="472" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29710,8 +29701,8 @@
       <c r="N472" s="11"/>
       <c r="O472" s="11"/>
       <c r="P472" s="21"/>
-      <c r="Q472" s="46"/>
-      <c r="R472" s="46"/>
+      <c r="Q472" s="45"/>
+      <c r="R472" s="45"/>
       <c r="S472" s="21"/>
     </row>
     <row r="473" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29757,8 +29748,8 @@
       <c r="N473" s="11"/>
       <c r="O473" s="11"/>
       <c r="P473" s="21"/>
-      <c r="Q473" s="46"/>
-      <c r="R473" s="46"/>
+      <c r="Q473" s="45"/>
+      <c r="R473" s="45"/>
       <c r="S473" s="21"/>
     </row>
     <row r="474" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29804,8 +29795,8 @@
       <c r="N474" s="11"/>
       <c r="O474" s="11"/>
       <c r="P474" s="21"/>
-      <c r="Q474" s="46"/>
-      <c r="R474" s="46"/>
+      <c r="Q474" s="45"/>
+      <c r="R474" s="45"/>
       <c r="S474" s="21"/>
     </row>
     <row r="475" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29851,8 +29842,8 @@
       <c r="N475" s="11"/>
       <c r="O475" s="11"/>
       <c r="P475" s="21"/>
-      <c r="Q475" s="46"/>
-      <c r="R475" s="46"/>
+      <c r="Q475" s="45"/>
+      <c r="R475" s="45"/>
       <c r="S475" s="21"/>
     </row>
     <row r="476" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29898,8 +29889,8 @@
       <c r="N476" s="11"/>
       <c r="O476" s="11"/>
       <c r="P476" s="21"/>
-      <c r="Q476" s="46"/>
-      <c r="R476" s="46"/>
+      <c r="Q476" s="45"/>
+      <c r="R476" s="45"/>
       <c r="S476" s="21"/>
     </row>
     <row r="477" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29945,8 +29936,8 @@
       <c r="N477" s="11"/>
       <c r="O477" s="11"/>
       <c r="P477" s="21"/>
-      <c r="Q477" s="46"/>
-      <c r="R477" s="46"/>
+      <c r="Q477" s="45"/>
+      <c r="R477" s="45"/>
       <c r="S477" s="21"/>
     </row>
     <row r="478" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -29992,8 +29983,8 @@
       <c r="N478" s="11"/>
       <c r="O478" s="11"/>
       <c r="P478" s="21"/>
-      <c r="Q478" s="46"/>
-      <c r="R478" s="46"/>
+      <c r="Q478" s="45"/>
+      <c r="R478" s="45"/>
       <c r="S478" s="21"/>
     </row>
     <row r="479" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30039,8 +30030,8 @@
       <c r="N479" s="11"/>
       <c r="O479" s="11"/>
       <c r="P479" s="21"/>
-      <c r="Q479" s="46"/>
-      <c r="R479" s="46"/>
+      <c r="Q479" s="45"/>
+      <c r="R479" s="45"/>
       <c r="S479" s="21"/>
     </row>
     <row r="480" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30086,8 +30077,8 @@
       <c r="N480" s="11"/>
       <c r="O480" s="11"/>
       <c r="P480" s="21"/>
-      <c r="Q480" s="46"/>
-      <c r="R480" s="46"/>
+      <c r="Q480" s="45"/>
+      <c r="R480" s="45"/>
       <c r="S480" s="21"/>
     </row>
     <row r="481" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30133,8 +30124,8 @@
       <c r="N481" s="11"/>
       <c r="O481" s="11"/>
       <c r="P481" s="21"/>
-      <c r="Q481" s="46"/>
-      <c r="R481" s="46"/>
+      <c r="Q481" s="45"/>
+      <c r="R481" s="45"/>
       <c r="S481" s="21"/>
     </row>
     <row r="482" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30180,8 +30171,8 @@
       <c r="N482" s="11"/>
       <c r="O482" s="11"/>
       <c r="P482" s="21"/>
-      <c r="Q482" s="46"/>
-      <c r="R482" s="46"/>
+      <c r="Q482" s="45"/>
+      <c r="R482" s="45"/>
       <c r="S482" s="21"/>
     </row>
     <row r="483" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30227,8 +30218,8 @@
       <c r="N483" s="11"/>
       <c r="O483" s="11"/>
       <c r="P483" s="21"/>
-      <c r="Q483" s="46"/>
-      <c r="R483" s="46"/>
+      <c r="Q483" s="45"/>
+      <c r="R483" s="45"/>
       <c r="S483" s="21"/>
     </row>
     <row r="484" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30274,8 +30265,8 @@
       <c r="N484" s="11"/>
       <c r="O484" s="11"/>
       <c r="P484" s="21"/>
-      <c r="Q484" s="46"/>
-      <c r="R484" s="46"/>
+      <c r="Q484" s="45"/>
+      <c r="R484" s="45"/>
       <c r="S484" s="21"/>
     </row>
     <row r="485" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30321,8 +30312,8 @@
       <c r="N485" s="11"/>
       <c r="O485" s="11"/>
       <c r="P485" s="21"/>
-      <c r="Q485" s="46"/>
-      <c r="R485" s="46"/>
+      <c r="Q485" s="45"/>
+      <c r="R485" s="45"/>
       <c r="S485" s="21"/>
     </row>
     <row r="486" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30368,8 +30359,8 @@
       <c r="N486" s="11"/>
       <c r="O486" s="11"/>
       <c r="P486" s="21"/>
-      <c r="Q486" s="46"/>
-      <c r="R486" s="46"/>
+      <c r="Q486" s="45"/>
+      <c r="R486" s="45"/>
       <c r="S486" s="21"/>
     </row>
     <row r="487" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30415,8 +30406,8 @@
       <c r="N487" s="11"/>
       <c r="O487" s="11"/>
       <c r="P487" s="21"/>
-      <c r="Q487" s="46"/>
-      <c r="R487" s="46"/>
+      <c r="Q487" s="45"/>
+      <c r="R487" s="45"/>
       <c r="S487" s="21"/>
     </row>
     <row r="488" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30462,8 +30453,8 @@
       <c r="N488" s="11"/>
       <c r="O488" s="11"/>
       <c r="P488" s="21"/>
-      <c r="Q488" s="46"/>
-      <c r="R488" s="46"/>
+      <c r="Q488" s="45"/>
+      <c r="R488" s="45"/>
       <c r="S488" s="21"/>
     </row>
     <row r="489" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30509,8 +30500,8 @@
       <c r="N489" s="11"/>
       <c r="O489" s="11"/>
       <c r="P489" s="21"/>
-      <c r="Q489" s="46"/>
-      <c r="R489" s="46"/>
+      <c r="Q489" s="45"/>
+      <c r="R489" s="45"/>
       <c r="S489" s="21"/>
     </row>
     <row r="490" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30556,8 +30547,8 @@
       <c r="N490" s="11"/>
       <c r="O490" s="11"/>
       <c r="P490" s="21"/>
-      <c r="Q490" s="46"/>
-      <c r="R490" s="46"/>
+      <c r="Q490" s="45"/>
+      <c r="R490" s="45"/>
       <c r="S490" s="21"/>
     </row>
     <row r="491" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30603,8 +30594,8 @@
       <c r="N491" s="11"/>
       <c r="O491" s="11"/>
       <c r="P491" s="21"/>
-      <c r="Q491" s="46"/>
-      <c r="R491" s="46"/>
+      <c r="Q491" s="45"/>
+      <c r="R491" s="45"/>
       <c r="S491" s="21"/>
     </row>
     <row r="492" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30650,8 +30641,8 @@
       <c r="N492" s="11"/>
       <c r="O492" s="11"/>
       <c r="P492" s="21"/>
-      <c r="Q492" s="46"/>
-      <c r="R492" s="46"/>
+      <c r="Q492" s="45"/>
+      <c r="R492" s="45"/>
       <c r="S492" s="21"/>
     </row>
     <row r="493" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30697,8 +30688,8 @@
       <c r="N493" s="11"/>
       <c r="O493" s="11"/>
       <c r="P493" s="21"/>
-      <c r="Q493" s="46"/>
-      <c r="R493" s="46"/>
+      <c r="Q493" s="45"/>
+      <c r="R493" s="45"/>
       <c r="S493" s="21"/>
     </row>
     <row r="494" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30744,8 +30735,8 @@
       <c r="N494" s="11"/>
       <c r="O494" s="11"/>
       <c r="P494" s="21"/>
-      <c r="Q494" s="46"/>
-      <c r="R494" s="46"/>
+      <c r="Q494" s="45"/>
+      <c r="R494" s="45"/>
       <c r="S494" s="21"/>
     </row>
     <row r="495" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30791,8 +30782,8 @@
       <c r="N495" s="11"/>
       <c r="O495" s="11"/>
       <c r="P495" s="21"/>
-      <c r="Q495" s="46"/>
-      <c r="R495" s="46"/>
+      <c r="Q495" s="45"/>
+      <c r="R495" s="45"/>
       <c r="S495" s="21"/>
     </row>
     <row r="496" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30838,8 +30829,8 @@
       <c r="N496" s="11"/>
       <c r="O496" s="11"/>
       <c r="P496" s="21"/>
-      <c r="Q496" s="46"/>
-      <c r="R496" s="46"/>
+      <c r="Q496" s="45"/>
+      <c r="R496" s="45"/>
       <c r="S496" s="21"/>
     </row>
     <row r="497" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30885,8 +30876,8 @@
       <c r="N497" s="11"/>
       <c r="O497" s="11"/>
       <c r="P497" s="21"/>
-      <c r="Q497" s="46"/>
-      <c r="R497" s="46"/>
+      <c r="Q497" s="45"/>
+      <c r="R497" s="45"/>
       <c r="S497" s="21"/>
     </row>
     <row r="498" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30932,8 +30923,8 @@
       <c r="N498" s="11"/>
       <c r="O498" s="11"/>
       <c r="P498" s="21"/>
-      <c r="Q498" s="46"/>
-      <c r="R498" s="46"/>
+      <c r="Q498" s="45"/>
+      <c r="R498" s="45"/>
       <c r="S498" s="21"/>
     </row>
     <row r="499" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -30979,8 +30970,8 @@
       <c r="N499" s="11"/>
       <c r="O499" s="11"/>
       <c r="P499" s="21"/>
-      <c r="Q499" s="46"/>
-      <c r="R499" s="46"/>
+      <c r="Q499" s="45"/>
+      <c r="R499" s="45"/>
       <c r="S499" s="21"/>
     </row>
     <row r="500" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31026,8 +31017,8 @@
       <c r="N500" s="11"/>
       <c r="O500" s="11"/>
       <c r="P500" s="21"/>
-      <c r="Q500" s="46"/>
-      <c r="R500" s="46"/>
+      <c r="Q500" s="45"/>
+      <c r="R500" s="45"/>
       <c r="S500" s="21"/>
     </row>
     <row r="501" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31073,8 +31064,8 @@
       <c r="N501" s="11"/>
       <c r="O501" s="11"/>
       <c r="P501" s="21"/>
-      <c r="Q501" s="46"/>
-      <c r="R501" s="46"/>
+      <c r="Q501" s="45"/>
+      <c r="R501" s="45"/>
       <c r="S501" s="21"/>
     </row>
     <row r="502" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31120,8 +31111,8 @@
       <c r="N502" s="11"/>
       <c r="O502" s="11"/>
       <c r="P502" s="21"/>
-      <c r="Q502" s="46"/>
-      <c r="R502" s="46"/>
+      <c r="Q502" s="45"/>
+      <c r="R502" s="45"/>
       <c r="S502" s="21"/>
     </row>
     <row r="503" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31167,8 +31158,8 @@
       <c r="N503" s="11"/>
       <c r="O503" s="11"/>
       <c r="P503" s="21"/>
-      <c r="Q503" s="46"/>
-      <c r="R503" s="46"/>
+      <c r="Q503" s="45"/>
+      <c r="R503" s="45"/>
       <c r="S503" s="21"/>
     </row>
     <row r="504" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31214,8 +31205,8 @@
       <c r="N504" s="11"/>
       <c r="O504" s="11"/>
       <c r="P504" s="21"/>
-      <c r="Q504" s="46"/>
-      <c r="R504" s="46"/>
+      <c r="Q504" s="45"/>
+      <c r="R504" s="45"/>
       <c r="S504" s="21"/>
     </row>
     <row r="505" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31261,8 +31252,8 @@
       <c r="N505" s="11"/>
       <c r="O505" s="11"/>
       <c r="P505" s="21"/>
-      <c r="Q505" s="46"/>
-      <c r="R505" s="46"/>
+      <c r="Q505" s="45"/>
+      <c r="R505" s="45"/>
       <c r="S505" s="21"/>
     </row>
     <row r="506" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31308,8 +31299,8 @@
       <c r="N506" s="11"/>
       <c r="O506" s="11"/>
       <c r="P506" s="21"/>
-      <c r="Q506" s="46"/>
-      <c r="R506" s="46"/>
+      <c r="Q506" s="45"/>
+      <c r="R506" s="45"/>
       <c r="S506" s="21"/>
     </row>
     <row r="507" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31355,8 +31346,8 @@
       <c r="N507" s="11"/>
       <c r="O507" s="11"/>
       <c r="P507" s="21"/>
-      <c r="Q507" s="46"/>
-      <c r="R507" s="46"/>
+      <c r="Q507" s="45"/>
+      <c r="R507" s="45"/>
       <c r="S507" s="21"/>
     </row>
     <row r="508" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31388,8 +31379,8 @@
       <c r="N508" s="11"/>
       <c r="O508" s="11"/>
       <c r="P508" s="21"/>
-      <c r="Q508" s="46"/>
-      <c r="R508" s="46"/>
+      <c r="Q508" s="45"/>
+      <c r="R508" s="45"/>
       <c r="S508" s="21"/>
     </row>
     <row r="509" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31421,8 +31412,8 @@
       <c r="N509" s="11"/>
       <c r="O509" s="11"/>
       <c r="P509" s="21"/>
-      <c r="Q509" s="46"/>
-      <c r="R509" s="46"/>
+      <c r="Q509" s="45"/>
+      <c r="R509" s="45"/>
       <c r="S509" s="21"/>
     </row>
     <row r="510" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31454,8 +31445,8 @@
       <c r="N510" s="11"/>
       <c r="O510" s="11"/>
       <c r="P510" s="21"/>
-      <c r="Q510" s="46"/>
-      <c r="R510" s="46"/>
+      <c r="Q510" s="45"/>
+      <c r="R510" s="45"/>
       <c r="S510" s="21"/>
     </row>
     <row r="511" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31487,8 +31478,8 @@
       <c r="N511" s="11"/>
       <c r="O511" s="11"/>
       <c r="P511" s="21"/>
-      <c r="Q511" s="46"/>
-      <c r="R511" s="46"/>
+      <c r="Q511" s="45"/>
+      <c r="R511" s="45"/>
       <c r="S511" s="21"/>
     </row>
     <row r="512" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31534,8 +31525,8 @@
       <c r="N512" s="11"/>
       <c r="O512" s="11"/>
       <c r="P512" s="21"/>
-      <c r="Q512" s="46"/>
-      <c r="R512" s="46"/>
+      <c r="Q512" s="45"/>
+      <c r="R512" s="45"/>
       <c r="S512" s="21"/>
     </row>
     <row r="513" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -31587,10 +31578,10 @@
       <c r="P513" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q513" s="46">
+      <c r="Q513" s="45">
         <v>44166</v>
       </c>
-      <c r="R513" s="46"/>
+      <c r="R513" s="45"/>
       <c r="S513" s="21" t="s">
         <v>1234</v>
       </c>
@@ -31644,10 +31635,10 @@
       <c r="P514" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q514" s="46">
+      <c r="Q514" s="45">
         <v>44166</v>
       </c>
-      <c r="R514" s="46"/>
+      <c r="R514" s="45"/>
       <c r="S514" s="21" t="s">
         <v>1234</v>
       </c>
@@ -31701,10 +31692,10 @@
       <c r="P515" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q515" s="46">
+      <c r="Q515" s="45">
         <v>44166</v>
       </c>
-      <c r="R515" s="46"/>
+      <c r="R515" s="45"/>
       <c r="S515" s="21" t="s">
         <v>1234</v>
       </c>
@@ -31758,10 +31749,10 @@
       <c r="P516" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q516" s="46">
+      <c r="Q516" s="45">
         <v>44166</v>
       </c>
-      <c r="R516" s="46"/>
+      <c r="R516" s="45"/>
       <c r="S516" s="21" t="s">
         <v>1234</v>
       </c>
@@ -31815,10 +31806,10 @@
       <c r="P517" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q517" s="46">
+      <c r="Q517" s="45">
         <v>44166</v>
       </c>
-      <c r="R517" s="46"/>
+      <c r="R517" s="45"/>
       <c r="S517" s="21" t="s">
         <v>1234</v>
       </c>
@@ -31872,10 +31863,10 @@
       <c r="P518" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q518" s="46">
+      <c r="Q518" s="45">
         <v>44166</v>
       </c>
-      <c r="R518" s="46"/>
+      <c r="R518" s="45"/>
       <c r="S518" s="21" t="s">
         <v>1234</v>
       </c>
@@ -31929,10 +31920,10 @@
       <c r="P519" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q519" s="46">
+      <c r="Q519" s="45">
         <v>44166</v>
       </c>
-      <c r="R519" s="46"/>
+      <c r="R519" s="45"/>
       <c r="S519" s="21" t="s">
         <v>1234</v>
       </c>
@@ -31986,10 +31977,10 @@
       <c r="P520" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q520" s="46">
+      <c r="Q520" s="45">
         <v>44166</v>
       </c>
-      <c r="R520" s="46"/>
+      <c r="R520" s="45"/>
       <c r="S520" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32041,8 +32032,8 @@
         <v>1066</v>
       </c>
       <c r="P521" s="21"/>
-      <c r="Q521" s="46"/>
-      <c r="R521" s="46"/>
+      <c r="Q521" s="45"/>
+      <c r="R521" s="45"/>
       <c r="S521" s="21"/>
     </row>
     <row r="522" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32092,8 +32083,8 @@
         <v>1066</v>
       </c>
       <c r="P522" s="21"/>
-      <c r="Q522" s="46"/>
-      <c r="R522" s="46"/>
+      <c r="Q522" s="45"/>
+      <c r="R522" s="45"/>
       <c r="S522" s="21"/>
     </row>
     <row r="523" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32145,10 +32136,10 @@
       <c r="P523" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q523" s="46">
+      <c r="Q523" s="45">
         <v>44166</v>
       </c>
-      <c r="R523" s="46"/>
+      <c r="R523" s="45"/>
       <c r="S523" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32202,10 +32193,10 @@
       <c r="P524" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q524" s="46">
+      <c r="Q524" s="45">
         <v>44166</v>
       </c>
-      <c r="R524" s="46"/>
+      <c r="R524" s="45"/>
       <c r="S524" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32259,10 +32250,10 @@
       <c r="P525" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q525" s="46">
+      <c r="Q525" s="45">
         <v>44166</v>
       </c>
-      <c r="R525" s="46"/>
+      <c r="R525" s="45"/>
       <c r="S525" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32316,10 +32307,10 @@
       <c r="P526" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q526" s="46">
+      <c r="Q526" s="45">
         <v>44166</v>
       </c>
-      <c r="R526" s="46"/>
+      <c r="R526" s="45"/>
       <c r="S526" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32373,10 +32364,10 @@
       <c r="P527" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q527" s="46">
+      <c r="Q527" s="45">
         <v>44166</v>
       </c>
-      <c r="R527" s="46"/>
+      <c r="R527" s="45"/>
       <c r="S527" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32430,10 +32421,10 @@
       <c r="P528" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q528" s="46">
+      <c r="Q528" s="45">
         <v>44166</v>
       </c>
-      <c r="R528" s="46"/>
+      <c r="R528" s="45"/>
       <c r="S528" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32487,10 +32478,10 @@
       <c r="P529" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q529" s="46">
+      <c r="Q529" s="45">
         <v>44166</v>
       </c>
-      <c r="R529" s="46"/>
+      <c r="R529" s="45"/>
       <c r="S529" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32544,10 +32535,10 @@
       <c r="P530" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q530" s="46">
+      <c r="Q530" s="45">
         <v>44166</v>
       </c>
-      <c r="R530" s="46"/>
+      <c r="R530" s="45"/>
       <c r="S530" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32595,8 +32586,8 @@
       <c r="N531" s="11"/>
       <c r="O531" s="11"/>
       <c r="P531" s="21"/>
-      <c r="Q531" s="46"/>
-      <c r="R531" s="46"/>
+      <c r="Q531" s="45"/>
+      <c r="R531" s="45"/>
       <c r="S531" s="21"/>
     </row>
     <row r="532" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -32648,10 +32639,10 @@
       <c r="P532" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q532" s="46">
+      <c r="Q532" s="45">
         <v>44166</v>
       </c>
-      <c r="R532" s="46"/>
+      <c r="R532" s="45"/>
       <c r="S532" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32705,10 +32696,10 @@
       <c r="P533" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q533" s="46">
+      <c r="Q533" s="45">
         <v>44166</v>
       </c>
-      <c r="R533" s="46"/>
+      <c r="R533" s="45"/>
       <c r="S533" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32762,10 +32753,10 @@
       <c r="P534" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q534" s="46">
+      <c r="Q534" s="45">
         <v>44166</v>
       </c>
-      <c r="R534" s="46"/>
+      <c r="R534" s="45"/>
       <c r="S534" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32819,10 +32810,10 @@
       <c r="P535" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q535" s="46">
+      <c r="Q535" s="45">
         <v>44166</v>
       </c>
-      <c r="R535" s="46"/>
+      <c r="R535" s="45"/>
       <c r="S535" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32876,10 +32867,10 @@
       <c r="P536" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q536" s="46">
+      <c r="Q536" s="45">
         <v>44166</v>
       </c>
-      <c r="R536" s="46"/>
+      <c r="R536" s="45"/>
       <c r="S536" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32933,10 +32924,10 @@
       <c r="P537" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="Q537" s="46">
+      <c r="Q537" s="45">
         <v>44166</v>
       </c>
-      <c r="R537" s="46"/>
+      <c r="R537" s="45"/>
       <c r="S537" s="21" t="s">
         <v>1234</v>
       </c>
@@ -32984,8 +32975,8 @@
       <c r="N538" s="25"/>
       <c r="O538" s="25"/>
       <c r="P538" s="21"/>
-      <c r="Q538" s="46"/>
-      <c r="R538" s="46"/>
+      <c r="Q538" s="45"/>
+      <c r="R538" s="45"/>
       <c r="S538" s="21"/>
     </row>
     <row r="539" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33031,8 +33022,8 @@
       <c r="N539" s="25"/>
       <c r="O539" s="25"/>
       <c r="P539" s="21"/>
-      <c r="Q539" s="46"/>
-      <c r="R539" s="46"/>
+      <c r="Q539" s="45"/>
+      <c r="R539" s="45"/>
       <c r="S539" s="21"/>
     </row>
     <row r="540" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33078,8 +33069,8 @@
       <c r="N540" s="25"/>
       <c r="O540" s="25"/>
       <c r="P540" s="21"/>
-      <c r="Q540" s="46"/>
-      <c r="R540" s="46"/>
+      <c r="Q540" s="45"/>
+      <c r="R540" s="45"/>
       <c r="S540" s="21"/>
     </row>
     <row r="541" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33125,8 +33116,8 @@
       <c r="N541" s="25"/>
       <c r="O541" s="25"/>
       <c r="P541" s="21"/>
-      <c r="Q541" s="46"/>
-      <c r="R541" s="46"/>
+      <c r="Q541" s="45"/>
+      <c r="R541" s="45"/>
       <c r="S541" s="21"/>
     </row>
     <row r="542" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33172,8 +33163,8 @@
       <c r="N542" s="25"/>
       <c r="O542" s="25"/>
       <c r="P542" s="21"/>
-      <c r="Q542" s="46"/>
-      <c r="R542" s="46"/>
+      <c r="Q542" s="45"/>
+      <c r="R542" s="45"/>
       <c r="S542" s="21"/>
     </row>
     <row r="543" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33219,8 +33210,8 @@
       <c r="N543" s="25"/>
       <c r="O543" s="25"/>
       <c r="P543" s="21"/>
-      <c r="Q543" s="46"/>
-      <c r="R543" s="46"/>
+      <c r="Q543" s="45"/>
+      <c r="R543" s="45"/>
       <c r="S543" s="21"/>
     </row>
     <row r="544" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33266,8 +33257,8 @@
       <c r="N544" s="25"/>
       <c r="O544" s="25"/>
       <c r="P544" s="21"/>
-      <c r="Q544" s="46"/>
-      <c r="R544" s="46"/>
+      <c r="Q544" s="45"/>
+      <c r="R544" s="45"/>
       <c r="S544" s="21"/>
     </row>
     <row r="545" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33313,8 +33304,8 @@
       <c r="N545" s="25"/>
       <c r="O545" s="25"/>
       <c r="P545" s="21"/>
-      <c r="Q545" s="46"/>
-      <c r="R545" s="46"/>
+      <c r="Q545" s="45"/>
+      <c r="R545" s="45"/>
       <c r="S545" s="21"/>
     </row>
     <row r="546" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33360,8 +33351,8 @@
       <c r="N546" s="25"/>
       <c r="O546" s="25"/>
       <c r="P546" s="21"/>
-      <c r="Q546" s="46"/>
-      <c r="R546" s="46"/>
+      <c r="Q546" s="45"/>
+      <c r="R546" s="45"/>
       <c r="S546" s="21"/>
     </row>
     <row r="547" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33407,8 +33398,8 @@
       <c r="N547" s="25"/>
       <c r="O547" s="25"/>
       <c r="P547" s="21"/>
-      <c r="Q547" s="46"/>
-      <c r="R547" s="46"/>
+      <c r="Q547" s="45"/>
+      <c r="R547" s="45"/>
       <c r="S547" s="21"/>
     </row>
     <row r="548" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33454,8 +33445,8 @@
       <c r="N548" s="25"/>
       <c r="O548" s="25"/>
       <c r="P548" s="21"/>
-      <c r="Q548" s="46"/>
-      <c r="R548" s="46"/>
+      <c r="Q548" s="45"/>
+      <c r="R548" s="45"/>
       <c r="S548" s="21"/>
     </row>
     <row r="549" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33501,8 +33492,8 @@
       <c r="N549" s="25"/>
       <c r="O549" s="25"/>
       <c r="P549" s="21"/>
-      <c r="Q549" s="46"/>
-      <c r="R549" s="46"/>
+      <c r="Q549" s="45"/>
+      <c r="R549" s="45"/>
       <c r="S549" s="21"/>
     </row>
     <row r="550" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33548,8 +33539,8 @@
       <c r="N550" s="25"/>
       <c r="O550" s="25"/>
       <c r="P550" s="21"/>
-      <c r="Q550" s="46"/>
-      <c r="R550" s="46"/>
+      <c r="Q550" s="45"/>
+      <c r="R550" s="45"/>
       <c r="S550" s="21"/>
     </row>
     <row r="551" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33595,8 +33586,8 @@
       <c r="N551" s="25"/>
       <c r="O551" s="25"/>
       <c r="P551" s="21"/>
-      <c r="Q551" s="46"/>
-      <c r="R551" s="46"/>
+      <c r="Q551" s="45"/>
+      <c r="R551" s="45"/>
       <c r="S551" s="21"/>
     </row>
     <row r="552" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33642,8 +33633,8 @@
       <c r="N552" s="25"/>
       <c r="O552" s="25"/>
       <c r="P552" s="21"/>
-      <c r="Q552" s="46"/>
-      <c r="R552" s="46"/>
+      <c r="Q552" s="45"/>
+      <c r="R552" s="45"/>
       <c r="S552" s="21"/>
     </row>
     <row r="553" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33689,8 +33680,8 @@
       <c r="N553" s="25"/>
       <c r="O553" s="25"/>
       <c r="P553" s="21"/>
-      <c r="Q553" s="46"/>
-      <c r="R553" s="46"/>
+      <c r="Q553" s="45"/>
+      <c r="R553" s="45"/>
       <c r="S553" s="21"/>
     </row>
     <row r="554" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33736,8 +33727,8 @@
       <c r="N554" s="25"/>
       <c r="O554" s="25"/>
       <c r="P554" s="21"/>
-      <c r="Q554" s="46"/>
-      <c r="R554" s="46"/>
+      <c r="Q554" s="45"/>
+      <c r="R554" s="45"/>
       <c r="S554" s="21"/>
     </row>
     <row r="555" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33783,8 +33774,8 @@
       <c r="N555" s="25"/>
       <c r="O555" s="25"/>
       <c r="P555" s="21"/>
-      <c r="Q555" s="46"/>
-      <c r="R555" s="46"/>
+      <c r="Q555" s="45"/>
+      <c r="R555" s="45"/>
       <c r="S555" s="21"/>
     </row>
     <row r="556" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33830,8 +33821,8 @@
       <c r="N556" s="25"/>
       <c r="O556" s="25"/>
       <c r="P556" s="21"/>
-      <c r="Q556" s="46"/>
-      <c r="R556" s="46"/>
+      <c r="Q556" s="45"/>
+      <c r="R556" s="45"/>
       <c r="S556" s="21"/>
     </row>
     <row r="557" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33877,8 +33868,8 @@
       <c r="N557" s="25"/>
       <c r="O557" s="25"/>
       <c r="P557" s="21"/>
-      <c r="Q557" s="46"/>
-      <c r="R557" s="46"/>
+      <c r="Q557" s="45"/>
+      <c r="R557" s="45"/>
       <c r="S557" s="21"/>
     </row>
     <row r="558" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33924,8 +33915,8 @@
       <c r="N558" s="25"/>
       <c r="O558" s="25"/>
       <c r="P558" s="21"/>
-      <c r="Q558" s="46"/>
-      <c r="R558" s="46"/>
+      <c r="Q558" s="45"/>
+      <c r="R558" s="45"/>
       <c r="S558" s="21"/>
     </row>
     <row r="559" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33971,8 +33962,8 @@
       <c r="N559" s="25"/>
       <c r="O559" s="25"/>
       <c r="P559" s="21"/>
-      <c r="Q559" s="46"/>
-      <c r="R559" s="46"/>
+      <c r="Q559" s="45"/>
+      <c r="R559" s="45"/>
       <c r="S559" s="21"/>
     </row>
     <row r="560" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34018,8 +34009,8 @@
       <c r="N560" s="25"/>
       <c r="O560" s="25"/>
       <c r="P560" s="21"/>
-      <c r="Q560" s="46"/>
-      <c r="R560" s="46"/>
+      <c r="Q560" s="45"/>
+      <c r="R560" s="45"/>
       <c r="S560" s="21"/>
     </row>
     <row r="561" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34065,8 +34056,8 @@
       <c r="N561" s="25"/>
       <c r="O561" s="25"/>
       <c r="P561" s="21"/>
-      <c r="Q561" s="46"/>
-      <c r="R561" s="46"/>
+      <c r="Q561" s="45"/>
+      <c r="R561" s="45"/>
       <c r="S561" s="21"/>
     </row>
     <row r="562" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34112,8 +34103,8 @@
       <c r="N562" s="25"/>
       <c r="O562" s="25"/>
       <c r="P562" s="21"/>
-      <c r="Q562" s="46"/>
-      <c r="R562" s="46"/>
+      <c r="Q562" s="45"/>
+      <c r="R562" s="45"/>
       <c r="S562" s="21"/>
     </row>
     <row r="563" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34159,8 +34150,8 @@
       <c r="N563" s="25"/>
       <c r="O563" s="25"/>
       <c r="P563" s="21"/>
-      <c r="Q563" s="46"/>
-      <c r="R563" s="46"/>
+      <c r="Q563" s="45"/>
+      <c r="R563" s="45"/>
       <c r="S563" s="21"/>
     </row>
     <row r="564" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34206,8 +34197,8 @@
       <c r="N564" s="25"/>
       <c r="O564" s="25"/>
       <c r="P564" s="21"/>
-      <c r="Q564" s="46"/>
-      <c r="R564" s="46"/>
+      <c r="Q564" s="45"/>
+      <c r="R564" s="45"/>
       <c r="S564" s="21"/>
     </row>
     <row r="565" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34253,8 +34244,8 @@
       <c r="N565" s="25"/>
       <c r="O565" s="25"/>
       <c r="P565" s="21"/>
-      <c r="Q565" s="46"/>
-      <c r="R565" s="46"/>
+      <c r="Q565" s="45"/>
+      <c r="R565" s="45"/>
       <c r="S565" s="21"/>
     </row>
     <row r="566" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34300,8 +34291,8 @@
       <c r="N566" s="25"/>
       <c r="O566" s="25"/>
       <c r="P566" s="21"/>
-      <c r="Q566" s="46"/>
-      <c r="R566" s="46"/>
+      <c r="Q566" s="45"/>
+      <c r="R566" s="45"/>
       <c r="S566" s="21"/>
     </row>
     <row r="567" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34347,8 +34338,8 @@
       <c r="N567" s="25"/>
       <c r="O567" s="25"/>
       <c r="P567" s="21"/>
-      <c r="Q567" s="46"/>
-      <c r="R567" s="46"/>
+      <c r="Q567" s="45"/>
+      <c r="R567" s="45"/>
       <c r="S567" s="21"/>
     </row>
     <row r="568" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34394,8 +34385,8 @@
       <c r="N568" s="25"/>
       <c r="O568" s="25"/>
       <c r="P568" s="21"/>
-      <c r="Q568" s="46"/>
-      <c r="R568" s="46"/>
+      <c r="Q568" s="45"/>
+      <c r="R568" s="45"/>
       <c r="S568" s="21"/>
     </row>
     <row r="569" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34441,8 +34432,8 @@
       <c r="N569" s="25"/>
       <c r="O569" s="25"/>
       <c r="P569" s="21"/>
-      <c r="Q569" s="46"/>
-      <c r="R569" s="46"/>
+      <c r="Q569" s="45"/>
+      <c r="R569" s="45"/>
       <c r="S569" s="21"/>
     </row>
     <row r="570" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34488,8 +34479,8 @@
       <c r="N570" s="25"/>
       <c r="O570" s="25"/>
       <c r="P570" s="21"/>
-      <c r="Q570" s="46"/>
-      <c r="R570" s="46"/>
+      <c r="Q570" s="45"/>
+      <c r="R570" s="45"/>
       <c r="S570" s="21"/>
     </row>
     <row r="571" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34535,8 +34526,8 @@
       <c r="N571" s="25"/>
       <c r="O571" s="25"/>
       <c r="P571" s="21"/>
-      <c r="Q571" s="46"/>
-      <c r="R571" s="46"/>
+      <c r="Q571" s="45"/>
+      <c r="R571" s="45"/>
       <c r="S571" s="21"/>
     </row>
     <row r="572" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34582,8 +34573,8 @@
       <c r="N572" s="25"/>
       <c r="O572" s="25"/>
       <c r="P572" s="21"/>
-      <c r="Q572" s="46"/>
-      <c r="R572" s="46"/>
+      <c r="Q572" s="45"/>
+      <c r="R572" s="45"/>
       <c r="S572" s="21"/>
     </row>
     <row r="573" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34629,8 +34620,8 @@
       <c r="N573" s="25"/>
       <c r="O573" s="25"/>
       <c r="P573" s="21"/>
-      <c r="Q573" s="46"/>
-      <c r="R573" s="46"/>
+      <c r="Q573" s="45"/>
+      <c r="R573" s="45"/>
       <c r="S573" s="21"/>
     </row>
     <row r="574" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34676,8 +34667,8 @@
       <c r="N574" s="25"/>
       <c r="O574" s="25"/>
       <c r="P574" s="21"/>
-      <c r="Q574" s="46"/>
-      <c r="R574" s="46"/>
+      <c r="Q574" s="45"/>
+      <c r="R574" s="45"/>
       <c r="S574" s="21"/>
     </row>
     <row r="575" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34723,8 +34714,8 @@
       <c r="N575" s="25"/>
       <c r="O575" s="25"/>
       <c r="P575" s="21"/>
-      <c r="Q575" s="46"/>
-      <c r="R575" s="46"/>
+      <c r="Q575" s="45"/>
+      <c r="R575" s="45"/>
       <c r="S575" s="21"/>
     </row>
     <row r="576" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34770,8 +34761,8 @@
       <c r="N576" s="25"/>
       <c r="O576" s="25"/>
       <c r="P576" s="21"/>
-      <c r="Q576" s="46"/>
-      <c r="R576" s="46"/>
+      <c r="Q576" s="45"/>
+      <c r="R576" s="45"/>
       <c r="S576" s="21"/>
     </row>
     <row r="577" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34817,8 +34808,8 @@
       <c r="N577" s="25"/>
       <c r="O577" s="25"/>
       <c r="P577" s="21"/>
-      <c r="Q577" s="46"/>
-      <c r="R577" s="46"/>
+      <c r="Q577" s="45"/>
+      <c r="R577" s="45"/>
       <c r="S577" s="21"/>
     </row>
     <row r="578" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34864,8 +34855,8 @@
       <c r="N578" s="25"/>
       <c r="O578" s="25"/>
       <c r="P578" s="21"/>
-      <c r="Q578" s="46"/>
-      <c r="R578" s="46"/>
+      <c r="Q578" s="45"/>
+      <c r="R578" s="45"/>
       <c r="S578" s="21"/>
     </row>
     <row r="579" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34911,8 +34902,8 @@
       <c r="N579" s="25"/>
       <c r="O579" s="25"/>
       <c r="P579" s="21"/>
-      <c r="Q579" s="46"/>
-      <c r="R579" s="46"/>
+      <c r="Q579" s="45"/>
+      <c r="R579" s="45"/>
       <c r="S579" s="21"/>
     </row>
     <row r="580" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34958,8 +34949,8 @@
       <c r="N580" s="25"/>
       <c r="O580" s="25"/>
       <c r="P580" s="21"/>
-      <c r="Q580" s="46"/>
-      <c r="R580" s="46"/>
+      <c r="Q580" s="45"/>
+      <c r="R580" s="45"/>
       <c r="S580" s="21"/>
     </row>
     <row r="581" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -35005,8 +34996,8 @@
       <c r="N581" s="25"/>
       <c r="O581" s="25"/>
       <c r="P581" s="21"/>
-      <c r="Q581" s="46"/>
-      <c r="R581" s="46"/>
+      <c r="Q581" s="45"/>
+      <c r="R581" s="45"/>
       <c r="S581" s="21"/>
     </row>
     <row r="582" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -35052,8 +35043,8 @@
       <c r="N582" s="25"/>
       <c r="O582" s="25"/>
       <c r="P582" s="21"/>
-      <c r="Q582" s="46"/>
-      <c r="R582" s="46"/>
+      <c r="Q582" s="45"/>
+      <c r="R582" s="45"/>
       <c r="S582" s="21"/>
     </row>
     <row r="583" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -35099,8 +35090,8 @@
       <c r="N583" s="25"/>
       <c r="O583" s="25"/>
       <c r="P583" s="21"/>
-      <c r="Q583" s="46"/>
-      <c r="R583" s="46"/>
+      <c r="Q583" s="45"/>
+      <c r="R583" s="45"/>
       <c r="S583" s="21"/>
     </row>
     <row r="584" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -35146,8 +35137,8 @@
       <c r="N584" s="25"/>
       <c r="O584" s="25"/>
       <c r="P584" s="21"/>
-      <c r="Q584" s="46"/>
-      <c r="R584" s="46"/>
+      <c r="Q584" s="45"/>
+      <c r="R584" s="45"/>
       <c r="S584" s="21"/>
     </row>
     <row r="585" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -35193,8 +35184,8 @@
       <c r="N585" s="25"/>
       <c r="O585" s="25"/>
       <c r="P585" s="21"/>
-      <c r="Q585" s="46"/>
-      <c r="R585" s="46"/>
+      <c r="Q585" s="45"/>
+      <c r="R585" s="45"/>
       <c r="S585" s="21"/>
     </row>
   </sheetData>
@@ -35269,10 +35260,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="6" t="s">
         <v>60</v>
       </c>

--- a/1.0.3/Validatiematrix 1 (version 1).xlsx
+++ b/1.0.3/Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF362F1-6950-42A1-830D-FB89D7EC55F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB1455A-7E11-4009-ABFF-5125C57B3A16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5052,7 +5052,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B276" sqref="B276"/>
+      <selection pane="bottomLeft" activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20159,7 +20159,7 @@
       <c r="A277" s="29">
         <v>8</v>
       </c>
-      <c r="B277" s="21" t="s">
+      <c r="B277" s="48" t="s">
         <v>373</v>
       </c>
       <c r="C277" s="21" t="s">

--- a/1.0.3/Validatiematrix 1 (version 1).xlsx
+++ b/1.0.3/Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB1455A-7E11-4009-ABFF-5125C57B3A16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784DA91D-77A6-47DC-B2E7-6E30FF89A9A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Legenda!$A:$B,Legenda!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4522,14 +4523,14 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5051,8 +5052,8 @@
   <dimension ref="A1:S585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B277" sqref="B277"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5986,7 +5987,7 @@
       <c r="A20" s="26">
         <v>4</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>682</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -6041,7 +6042,7 @@
       <c r="A21" s="26">
         <v>4</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>683</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -6096,7 +6097,7 @@
       <c r="A22" s="26">
         <v>4</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>684</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -6151,7 +6152,7 @@
       <c r="A23" s="26">
         <v>4</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="47" t="s">
         <v>685</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -6206,7 +6207,7 @@
       <c r="A24" s="26">
         <v>4</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>686</v>
       </c>
       <c r="C24" s="21" t="s">
@@ -6261,7 +6262,7 @@
       <c r="A25" s="26">
         <v>4</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="47" t="s">
         <v>687</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -6316,7 +6317,7 @@
       <c r="A26" s="27">
         <v>4</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="47" t="s">
         <v>688</v>
       </c>
       <c r="C26" s="21" t="s">
@@ -6371,7 +6372,7 @@
       <c r="A27" s="27">
         <v>4</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>689</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -6426,7 +6427,7 @@
       <c r="A28" s="27">
         <v>4</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="47" t="s">
         <v>690</v>
       </c>
       <c r="C28" s="21" t="s">
@@ -6481,7 +6482,7 @@
       <c r="A29" s="27">
         <v>4</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="47" t="s">
         <v>691</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -6536,7 +6537,7 @@
       <c r="A30" s="27">
         <v>4</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="47" t="s">
         <v>692</v>
       </c>
       <c r="C30" s="21" t="s">
@@ -6591,7 +6592,7 @@
       <c r="A31" s="27">
         <v>4</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="47" t="s">
         <v>693</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -6956,7 +6957,7 @@
       <c r="A38" s="27">
         <v>1</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -7013,7 +7014,7 @@
       <c r="A39" s="27">
         <v>1</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="21" t="s">
@@ -7072,7 +7073,7 @@
       <c r="A40" s="27">
         <v>1</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="48" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="21" t="s">
@@ -7131,7 +7132,7 @@
       <c r="A41" s="27">
         <v>1</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="48" t="s">
         <v>32</v>
       </c>
       <c r="C41" s="21" t="s">
@@ -7190,7 +7191,7 @@
       <c r="A42" s="27">
         <v>1</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="48" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="21" t="s">
@@ -7249,7 +7250,7 @@
       <c r="A43" s="27">
         <v>1</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -7308,7 +7309,7 @@
       <c r="A44" s="27">
         <v>1</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="48" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="21" t="s">
@@ -7367,7 +7368,7 @@
       <c r="A45" s="27">
         <v>1</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -7426,7 +7427,7 @@
       <c r="A46" s="27">
         <v>1</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="48" t="s">
         <v>37</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -7485,7 +7486,7 @@
       <c r="A47" s="27">
         <v>1</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="48" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -7542,7 +7543,7 @@
       <c r="A48" s="27">
         <v>1</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="48" t="s">
         <v>39</v>
       </c>
       <c r="C48" s="21" t="s">
@@ -7658,7 +7659,7 @@
       <c r="A50" s="27">
         <v>1</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="21" t="s">
@@ -7717,7 +7718,7 @@
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="48" t="s">
         <v>70</v>
       </c>
       <c r="C51" s="21" t="s">
@@ -7774,7 +7775,7 @@
       <c r="A52" s="27">
         <v>1</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="48" t="s">
         <v>72</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -7831,7 +7832,7 @@
       <c r="A53" s="27">
         <v>1</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="48" t="s">
         <v>74</v>
       </c>
       <c r="C53" s="21" t="s">
@@ -7890,7 +7891,7 @@
       <c r="A54" s="27">
         <v>1</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="48" t="s">
         <v>76</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -7947,7 +7948,7 @@
       <c r="A55" s="27">
         <v>1</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="48" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="21" t="s">
@@ -8006,7 +8007,7 @@
       <c r="A56" s="27">
         <v>1</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="48" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="21" t="s">
@@ -8065,7 +8066,7 @@
       <c r="A57" s="26">
         <v>1</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="21" t="s">
@@ -8124,7 +8125,7 @@
       <c r="A58" s="26">
         <v>1</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="47" t="s">
         <v>1067</v>
       </c>
       <c r="C58" s="21" t="s">
@@ -8181,7 +8182,7 @@
       <c r="A59" s="26">
         <v>1</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="47" t="s">
         <v>1069</v>
       </c>
       <c r="C59" s="21" t="s">
@@ -8409,7 +8410,7 @@
       <c r="A63" s="28">
         <v>2</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="48" t="s">
         <v>152</v>
       </c>
       <c r="C63" s="21" t="s">
@@ -8519,7 +8520,7 @@
       <c r="A65" s="29">
         <v>2</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="47" t="s">
         <v>1071</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -8578,7 +8579,7 @@
       <c r="A66" s="29">
         <v>2</v>
       </c>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="47" t="s">
         <v>1073</v>
       </c>
       <c r="C66" s="21" t="s">
@@ -8638,7 +8639,7 @@
       <c r="A67" s="29">
         <v>2</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="48" t="s">
         <v>154</v>
       </c>
       <c r="C67" s="21" t="s">
@@ -8853,7 +8854,7 @@
       <c r="A71" s="29">
         <v>2</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="48" t="s">
         <v>723</v>
       </c>
       <c r="C71" s="21" t="s">
@@ -8913,7 +8914,7 @@
       <c r="A72" s="29">
         <v>2</v>
       </c>
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="48" t="s">
         <v>725</v>
       </c>
       <c r="C72" s="21" t="s">
@@ -9075,7 +9076,7 @@
       <c r="A75" s="29">
         <v>2</v>
       </c>
-      <c r="B75" s="48" t="s">
+      <c r="B75" s="47" t="s">
         <v>1077</v>
       </c>
       <c r="C75" s="21" t="s">
@@ -9649,7 +9650,7 @@
       <c r="A86" s="28">
         <v>2</v>
       </c>
-      <c r="B86" s="49" t="s">
+      <c r="B86" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C86" s="21" t="s">
@@ -9760,7 +9761,7 @@
       <c r="A88" s="26">
         <v>2</v>
       </c>
-      <c r="B88" s="49" t="s">
+      <c r="B88" s="48" t="s">
         <v>1078</v>
       </c>
       <c r="C88" s="26" t="s">
@@ -9820,7 +9821,7 @@
       <c r="A89" s="26">
         <v>2</v>
       </c>
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="48" t="s">
         <v>1080</v>
       </c>
       <c r="C89" s="26" t="s">
@@ -9880,7 +9881,7 @@
       <c r="A90" s="26">
         <v>2</v>
       </c>
-      <c r="B90" s="49" t="s">
+      <c r="B90" s="48" t="s">
         <v>1082</v>
       </c>
       <c r="C90" s="26" t="s">
@@ -9940,7 +9941,7 @@
       <c r="A91" s="26">
         <v>2</v>
       </c>
-      <c r="B91" s="49" t="s">
+      <c r="B91" s="48" t="s">
         <v>1084</v>
       </c>
       <c r="C91" s="26" t="s">
@@ -10000,7 +10001,7 @@
       <c r="A92" s="26">
         <v>2</v>
       </c>
-      <c r="B92" s="49" t="s">
+      <c r="B92" s="48" t="s">
         <v>1086</v>
       </c>
       <c r="C92" s="26" t="s">
@@ -10060,7 +10061,7 @@
       <c r="A93" s="26">
         <v>2</v>
       </c>
-      <c r="B93" s="49" t="s">
+      <c r="B93" s="48" t="s">
         <v>1088</v>
       </c>
       <c r="C93" s="26" t="s">
@@ -10120,7 +10121,7 @@
       <c r="A94" s="26">
         <v>2</v>
       </c>
-      <c r="B94" s="49" t="s">
+      <c r="B94" s="48" t="s">
         <v>1090</v>
       </c>
       <c r="C94" s="26" t="s">
@@ -10180,7 +10181,7 @@
       <c r="A95" s="26">
         <v>2</v>
       </c>
-      <c r="B95" s="49" t="s">
+      <c r="B95" s="48" t="s">
         <v>1092</v>
       </c>
       <c r="C95" s="26" t="s">
@@ -10240,7 +10241,7 @@
       <c r="A96" s="26">
         <v>2</v>
       </c>
-      <c r="B96" s="49" t="s">
+      <c r="B96" s="48" t="s">
         <v>1093</v>
       </c>
       <c r="C96" s="26" t="s">
@@ -10300,7 +10301,7 @@
       <c r="A97" s="26">
         <v>2</v>
       </c>
-      <c r="B97" s="49" t="s">
+      <c r="B97" s="48" t="s">
         <v>1095</v>
       </c>
       <c r="C97" s="26" t="s">
@@ -10360,7 +10361,7 @@
       <c r="A98" s="26">
         <v>2</v>
       </c>
-      <c r="B98" s="49" t="s">
+      <c r="B98" s="48" t="s">
         <v>1096</v>
       </c>
       <c r="C98" s="26" t="s">
@@ -10420,7 +10421,7 @@
       <c r="A99" s="26">
         <v>2</v>
       </c>
-      <c r="B99" s="49" t="s">
+      <c r="B99" s="48" t="s">
         <v>1098</v>
       </c>
       <c r="C99" s="26" t="s">
@@ -10480,7 +10481,7 @@
       <c r="A100" s="28">
         <v>2</v>
       </c>
-      <c r="B100" s="48" t="s">
+      <c r="B100" s="47" t="s">
         <v>730</v>
       </c>
       <c r="C100" s="21" t="s">
@@ -10540,7 +10541,7 @@
       <c r="A101" s="28">
         <v>2</v>
       </c>
-      <c r="B101" s="48" t="s">
+      <c r="B101" s="47" t="s">
         <v>732</v>
       </c>
       <c r="C101" s="21" t="s">
@@ -10600,7 +10601,7 @@
       <c r="A102" s="28">
         <v>2</v>
       </c>
-      <c r="B102" s="48" t="s">
+      <c r="B102" s="47" t="s">
         <v>734</v>
       </c>
       <c r="C102" s="21" t="s">
@@ -10660,7 +10661,7 @@
       <c r="A103" s="29">
         <v>2</v>
       </c>
-      <c r="B103" s="49" t="s">
+      <c r="B103" s="48" t="s">
         <v>525</v>
       </c>
       <c r="C103" s="21" t="s">
@@ -11062,7 +11063,7 @@
       <c r="A111" s="30">
         <v>2</v>
       </c>
-      <c r="B111" s="48" t="s">
+      <c r="B111" s="47" t="s">
         <v>45</v>
       </c>
       <c r="C111" s="21" t="s">
@@ -11169,7 +11170,7 @@
       <c r="A113" s="29">
         <v>2</v>
       </c>
-      <c r="B113" s="48" t="s">
+      <c r="B113" s="47" t="s">
         <v>66</v>
       </c>
       <c r="C113" s="21" t="s">
@@ -11229,7 +11230,7 @@
       <c r="A114" s="29">
         <v>2</v>
       </c>
-      <c r="B114" s="48" t="s">
+      <c r="B114" s="47" t="s">
         <v>89</v>
       </c>
       <c r="C114" s="21" t="s">
@@ -11289,7 +11290,7 @@
       <c r="A115" s="30">
         <v>2</v>
       </c>
-      <c r="B115" s="48" t="s">
+      <c r="B115" s="47" t="s">
         <v>1102</v>
       </c>
       <c r="C115" s="21" t="s">
@@ -11349,7 +11350,7 @@
       <c r="A116" s="30">
         <v>2</v>
       </c>
-      <c r="B116" s="48" t="s">
+      <c r="B116" s="47" t="s">
         <v>1103</v>
       </c>
       <c r="C116" s="21" t="s">
@@ -11503,7 +11504,7 @@
       <c r="A119" s="29">
         <v>2</v>
       </c>
-      <c r="B119" s="48" t="s">
+      <c r="B119" s="47" t="s">
         <v>94</v>
       </c>
       <c r="C119" s="21" t="s">
@@ -11563,7 +11564,7 @@
       <c r="A120" s="29">
         <v>2</v>
       </c>
-      <c r="B120" s="49" t="s">
+      <c r="B120" s="48" t="s">
         <v>95</v>
       </c>
       <c r="C120" s="21" t="s">
@@ -11623,7 +11624,7 @@
       <c r="A121" s="29">
         <v>2</v>
       </c>
-      <c r="B121" s="49" t="s">
+      <c r="B121" s="48" t="s">
         <v>96</v>
       </c>
       <c r="C121" s="21" t="s">
@@ -11683,7 +11684,7 @@
       <c r="A122" s="28">
         <v>2</v>
       </c>
-      <c r="B122" s="49" t="s">
+      <c r="B122" s="48" t="s">
         <v>98</v>
       </c>
       <c r="C122" s="21" t="s">
@@ -11743,7 +11744,7 @@
       <c r="A123" s="28">
         <v>2</v>
       </c>
-      <c r="B123" s="49" t="s">
+      <c r="B123" s="48" t="s">
         <v>100</v>
       </c>
       <c r="C123" s="21" t="s">
@@ -11850,7 +11851,7 @@
       <c r="A125" s="28">
         <v>2</v>
       </c>
-      <c r="B125" s="49" t="s">
+      <c r="B125" s="48" t="s">
         <v>539</v>
       </c>
       <c r="C125" s="21" t="s">
@@ -11910,7 +11911,7 @@
       <c r="A126" s="28">
         <v>2</v>
       </c>
-      <c r="B126" s="49" t="s">
+      <c r="B126" s="48" t="s">
         <v>541</v>
       </c>
       <c r="C126" s="21" t="s">
@@ -11970,7 +11971,7 @@
       <c r="A127" s="28">
         <v>2</v>
       </c>
-      <c r="B127" s="49" t="s">
+      <c r="B127" s="48" t="s">
         <v>543</v>
       </c>
       <c r="C127" s="21" t="s">
@@ -12030,7 +12031,7 @@
       <c r="A128" s="28">
         <v>2</v>
       </c>
-      <c r="B128" s="49" t="s">
+      <c r="B128" s="48" t="s">
         <v>545</v>
       </c>
       <c r="C128" s="21" t="s">
@@ -12090,7 +12091,7 @@
       <c r="A129" s="28">
         <v>2</v>
       </c>
-      <c r="B129" s="49" t="s">
+      <c r="B129" s="48" t="s">
         <v>762</v>
       </c>
       <c r="C129" s="21" t="s">
@@ -12150,7 +12151,7 @@
       <c r="A130" s="28">
         <v>2</v>
       </c>
-      <c r="B130" s="48" t="s">
+      <c r="B130" s="47" t="s">
         <v>1106</v>
       </c>
       <c r="C130" s="21" t="s">
@@ -12353,7 +12354,7 @@
       <c r="A134" s="28">
         <v>2</v>
       </c>
-      <c r="B134" s="48" t="s">
+      <c r="B134" s="47" t="s">
         <v>1110</v>
       </c>
       <c r="C134" s="21" t="s">
@@ -12413,7 +12414,7 @@
       <c r="A135" s="28">
         <v>2</v>
       </c>
-      <c r="B135" s="48" t="s">
+      <c r="B135" s="47" t="s">
         <v>1111</v>
       </c>
       <c r="C135" s="21" t="s">
@@ -12863,7 +12864,7 @@
       <c r="A144" s="28">
         <v>2</v>
       </c>
-      <c r="B144" s="49" t="s">
+      <c r="B144" s="48" t="s">
         <v>110</v>
       </c>
       <c r="C144" s="21" t="s">
@@ -12970,7 +12971,7 @@
       <c r="A146" s="28">
         <v>2</v>
       </c>
-      <c r="B146" s="49" t="s">
+      <c r="B146" s="48" t="s">
         <v>114</v>
       </c>
       <c r="C146" s="21" t="s">
@@ -13030,7 +13031,7 @@
       <c r="A147" s="28">
         <v>2</v>
       </c>
-      <c r="B147" s="49" t="s">
+      <c r="B147" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C147" s="21" t="s">
@@ -13090,7 +13091,7 @@
       <c r="A148" s="28">
         <v>2</v>
       </c>
-      <c r="B148" s="49" t="s">
+      <c r="B148" s="48" t="s">
         <v>118</v>
       </c>
       <c r="C148" s="21" t="s">
@@ -13150,7 +13151,7 @@
       <c r="A149" s="28">
         <v>2</v>
       </c>
-      <c r="B149" s="49" t="s">
+      <c r="B149" s="48" t="s">
         <v>119</v>
       </c>
       <c r="C149" s="21" t="s">
@@ -13210,7 +13211,7 @@
       <c r="A150" s="28">
         <v>2</v>
       </c>
-      <c r="B150" s="49" t="s">
+      <c r="B150" s="48" t="s">
         <v>120</v>
       </c>
       <c r="C150" s="21" t="s">
@@ -13317,7 +13318,7 @@
       <c r="A152" s="28">
         <v>2</v>
       </c>
-      <c r="B152" s="49" t="s">
+      <c r="B152" s="48" t="s">
         <v>124</v>
       </c>
       <c r="C152" s="21" t="s">
@@ -13471,7 +13472,7 @@
       <c r="A155" s="28">
         <v>2</v>
       </c>
-      <c r="B155" s="49" t="s">
+      <c r="B155" s="48" t="s">
         <v>766</v>
       </c>
       <c r="C155" s="26" t="s">
@@ -13697,7 +13698,7 @@
       <c r="A159" s="32">
         <v>2</v>
       </c>
-      <c r="B159" s="49" t="s">
+      <c r="B159" s="48" t="s">
         <v>1113</v>
       </c>
       <c r="C159" s="26" t="s">
@@ -13851,7 +13852,7 @@
       <c r="A162" s="32">
         <v>2</v>
       </c>
-      <c r="B162" s="49" t="s">
+      <c r="B162" s="48" t="s">
         <v>1116</v>
       </c>
       <c r="C162" s="26" t="s">
@@ -14052,7 +14053,7 @@
       <c r="A166" s="27">
         <v>5</v>
       </c>
-      <c r="B166" s="49" t="s">
+      <c r="B166" s="48" t="s">
         <v>130</v>
       </c>
       <c r="C166" s="21" t="s">
@@ -14112,7 +14113,7 @@
       <c r="A167" s="27">
         <v>5</v>
       </c>
-      <c r="B167" s="49" t="s">
+      <c r="B167" s="48" t="s">
         <v>132</v>
       </c>
       <c r="C167" s="21" t="s">
@@ -14169,7 +14170,7 @@
       <c r="A168" s="27">
         <v>5</v>
       </c>
-      <c r="B168" s="49" t="s">
+      <c r="B168" s="48" t="s">
         <v>134</v>
       </c>
       <c r="C168" s="21" t="s">
@@ -14840,7 +14841,7 @@
       <c r="A181" s="27">
         <v>5</v>
       </c>
-      <c r="B181" s="49" t="s">
+      <c r="B181" s="48" t="s">
         <v>560</v>
       </c>
       <c r="C181" s="21" t="s">
@@ -16384,7 +16385,7 @@
       <c r="A210" s="27">
         <v>5</v>
       </c>
-      <c r="B210" s="48" t="s">
+      <c r="B210" s="47" t="s">
         <v>1157</v>
       </c>
       <c r="C210" s="21" t="s">
@@ -16444,7 +16445,7 @@
       <c r="A211" s="27">
         <v>5</v>
       </c>
-      <c r="B211" s="48" t="s">
+      <c r="B211" s="47" t="s">
         <v>1159</v>
       </c>
       <c r="C211" s="21" t="s">
@@ -16504,7 +16505,7 @@
       <c r="A212" s="27">
         <v>5</v>
       </c>
-      <c r="B212" s="48" t="s">
+      <c r="B212" s="47" t="s">
         <v>1161</v>
       </c>
       <c r="C212" s="21" t="s">
@@ -17045,7 +17046,7 @@
       <c r="A222" s="29">
         <v>8</v>
       </c>
-      <c r="B222" s="48" t="s">
+      <c r="B222" s="47" t="s">
         <v>275</v>
       </c>
       <c r="C222" s="21" t="s">
@@ -17105,7 +17106,7 @@
       <c r="A223" s="29">
         <v>8</v>
       </c>
-      <c r="B223" s="48" t="s">
+      <c r="B223" s="47" t="s">
         <v>277</v>
       </c>
       <c r="C223" s="21" t="s">
@@ -17162,7 +17163,7 @@
       <c r="A224" s="29">
         <v>8</v>
       </c>
-      <c r="B224" s="48" t="s">
+      <c r="B224" s="47" t="s">
         <v>279</v>
       </c>
       <c r="C224" s="21" t="s">
@@ -17219,7 +17220,7 @@
       <c r="A225" s="29">
         <v>8</v>
       </c>
-      <c r="B225" s="48" t="s">
+      <c r="B225" s="47" t="s">
         <v>281</v>
       </c>
       <c r="C225" s="21" t="s">
@@ -17276,7 +17277,7 @@
       <c r="A226" s="29">
         <v>8</v>
       </c>
-      <c r="B226" s="48" t="s">
+      <c r="B226" s="47" t="s">
         <v>283</v>
       </c>
       <c r="C226" s="21" t="s">
@@ -17333,7 +17334,7 @@
       <c r="A227" s="29">
         <v>8</v>
       </c>
-      <c r="B227" s="48" t="s">
+      <c r="B227" s="47" t="s">
         <v>284</v>
       </c>
       <c r="C227" s="21" t="s">
@@ -17390,7 +17391,7 @@
       <c r="A228" s="29">
         <v>8</v>
       </c>
-      <c r="B228" s="48" t="s">
+      <c r="B228" s="47" t="s">
         <v>285</v>
       </c>
       <c r="C228" s="21" t="s">
@@ -17447,7 +17448,7 @@
       <c r="A229" s="29">
         <v>8</v>
       </c>
-      <c r="B229" s="48" t="s">
+      <c r="B229" s="47" t="s">
         <v>287</v>
       </c>
       <c r="C229" s="21" t="s">
@@ -17504,7 +17505,7 @@
       <c r="A230" s="29">
         <v>8</v>
       </c>
-      <c r="B230" s="48" t="s">
+      <c r="B230" s="47" t="s">
         <v>289</v>
       </c>
       <c r="C230" s="21" t="s">
@@ -17561,7 +17562,7 @@
       <c r="A231" s="29">
         <v>8</v>
       </c>
-      <c r="B231" s="48" t="s">
+      <c r="B231" s="47" t="s">
         <v>291</v>
       </c>
       <c r="C231" s="21" t="s">
@@ -17618,7 +17619,7 @@
       <c r="A232" s="29">
         <v>8</v>
       </c>
-      <c r="B232" s="48" t="s">
+      <c r="B232" s="47" t="s">
         <v>293</v>
       </c>
       <c r="C232" s="21" t="s">
@@ -17675,7 +17676,7 @@
       <c r="A233" s="29">
         <v>8</v>
       </c>
-      <c r="B233" s="48" t="s">
+      <c r="B233" s="47" t="s">
         <v>295</v>
       </c>
       <c r="C233" s="21" t="s">
@@ -17732,7 +17733,7 @@
       <c r="A234" s="29">
         <v>8</v>
       </c>
-      <c r="B234" s="48" t="s">
+      <c r="B234" s="47" t="s">
         <v>297</v>
       </c>
       <c r="C234" s="21" t="s">
@@ -17789,7 +17790,7 @@
       <c r="A235" s="29">
         <v>8</v>
       </c>
-      <c r="B235" s="48" t="s">
+      <c r="B235" s="47" t="s">
         <v>299</v>
       </c>
       <c r="C235" s="21" t="s">
@@ -17846,7 +17847,7 @@
       <c r="A236" s="29">
         <v>8</v>
       </c>
-      <c r="B236" s="48" t="s">
+      <c r="B236" s="47" t="s">
         <v>301</v>
       </c>
       <c r="C236" s="21" t="s">
@@ -17903,7 +17904,7 @@
       <c r="A237" s="29">
         <v>8</v>
       </c>
-      <c r="B237" s="48" t="s">
+      <c r="B237" s="47" t="s">
         <v>303</v>
       </c>
       <c r="C237" s="21" t="s">
@@ -17960,7 +17961,7 @@
       <c r="A238" s="29">
         <v>8</v>
       </c>
-      <c r="B238" s="48" t="s">
+      <c r="B238" s="47" t="s">
         <v>305</v>
       </c>
       <c r="C238" s="21" t="s">
@@ -18017,7 +18018,7 @@
       <c r="A239" s="29">
         <v>8</v>
       </c>
-      <c r="B239" s="48" t="s">
+      <c r="B239" s="47" t="s">
         <v>307</v>
       </c>
       <c r="C239" s="21" t="s">
@@ -18074,7 +18075,7 @@
       <c r="A240" s="29">
         <v>8</v>
       </c>
-      <c r="B240" s="48" t="s">
+      <c r="B240" s="47" t="s">
         <v>309</v>
       </c>
       <c r="C240" s="21" t="s">
@@ -18131,7 +18132,7 @@
       <c r="A241" s="29">
         <v>8</v>
       </c>
-      <c r="B241" s="48" t="s">
+      <c r="B241" s="47" t="s">
         <v>310</v>
       </c>
       <c r="C241" s="21" t="s">
@@ -18188,7 +18189,7 @@
       <c r="A242" s="29">
         <v>8</v>
       </c>
-      <c r="B242" s="48" t="s">
+      <c r="B242" s="47" t="s">
         <v>311</v>
       </c>
       <c r="C242" s="21" t="s">
@@ -18245,7 +18246,7 @@
       <c r="A243" s="29">
         <v>8</v>
       </c>
-      <c r="B243" s="48" t="s">
+      <c r="B243" s="47" t="s">
         <v>312</v>
       </c>
       <c r="C243" s="21" t="s">
@@ -18302,7 +18303,7 @@
       <c r="A244" s="29">
         <v>8</v>
       </c>
-      <c r="B244" s="48" t="s">
+      <c r="B244" s="47" t="s">
         <v>314</v>
       </c>
       <c r="C244" s="21" t="s">
@@ -18359,7 +18360,7 @@
       <c r="A245" s="29">
         <v>8</v>
       </c>
-      <c r="B245" s="48" t="s">
+      <c r="B245" s="47" t="s">
         <v>316</v>
       </c>
       <c r="C245" s="21" t="s">
@@ -18416,7 +18417,7 @@
       <c r="A246" s="29">
         <v>8</v>
       </c>
-      <c r="B246" s="48" t="s">
+      <c r="B246" s="47" t="s">
         <v>317</v>
       </c>
       <c r="C246" s="21" t="s">
@@ -18473,7 +18474,7 @@
       <c r="A247" s="29">
         <v>8</v>
       </c>
-      <c r="B247" s="48" t="s">
+      <c r="B247" s="47" t="s">
         <v>319</v>
       </c>
       <c r="C247" s="21" t="s">
@@ -18530,7 +18531,7 @@
       <c r="A248" s="29">
         <v>8</v>
       </c>
-      <c r="B248" s="48" t="s">
+      <c r="B248" s="47" t="s">
         <v>321</v>
       </c>
       <c r="C248" s="21" t="s">
@@ -18587,7 +18588,7 @@
       <c r="A249" s="29">
         <v>8</v>
       </c>
-      <c r="B249" s="48" t="s">
+      <c r="B249" s="47" t="s">
         <v>323</v>
       </c>
       <c r="C249" s="21" t="s">
@@ -18644,7 +18645,7 @@
       <c r="A250" s="29">
         <v>8</v>
       </c>
-      <c r="B250" s="48" t="s">
+      <c r="B250" s="47" t="s">
         <v>325</v>
       </c>
       <c r="C250" s="21" t="s">
@@ -18701,7 +18702,7 @@
       <c r="A251" s="29">
         <v>8</v>
       </c>
-      <c r="B251" s="48" t="s">
+      <c r="B251" s="47" t="s">
         <v>327</v>
       </c>
       <c r="C251" s="21" t="s">
@@ -18758,7 +18759,7 @@
       <c r="A252" s="29">
         <v>8</v>
       </c>
-      <c r="B252" s="48" t="s">
+      <c r="B252" s="47" t="s">
         <v>329</v>
       </c>
       <c r="C252" s="21" t="s">
@@ -18815,7 +18816,7 @@
       <c r="A253" s="29">
         <v>8</v>
       </c>
-      <c r="B253" s="48" t="s">
+      <c r="B253" s="47" t="s">
         <v>331</v>
       </c>
       <c r="C253" s="21" t="s">
@@ -18872,7 +18873,7 @@
       <c r="A254" s="28">
         <v>8</v>
       </c>
-      <c r="B254" s="48" t="s">
+      <c r="B254" s="47" t="s">
         <v>333</v>
       </c>
       <c r="C254" s="21" t="s">
@@ -18929,7 +18930,7 @@
       <c r="A255" s="29">
         <v>8</v>
       </c>
-      <c r="B255" s="48" t="s">
+      <c r="B255" s="47" t="s">
         <v>335</v>
       </c>
       <c r="C255" s="21" t="s">
@@ -18986,7 +18987,7 @@
       <c r="A256" s="29">
         <v>8</v>
       </c>
-      <c r="B256" s="48" t="s">
+      <c r="B256" s="47" t="s">
         <v>337</v>
       </c>
       <c r="C256" s="21" t="s">
@@ -19043,7 +19044,7 @@
       <c r="A257" s="29">
         <v>8</v>
       </c>
-      <c r="B257" s="48" t="s">
+      <c r="B257" s="47" t="s">
         <v>339</v>
       </c>
       <c r="C257" s="21" t="s">
@@ -19100,7 +19101,7 @@
       <c r="A258" s="29">
         <v>8</v>
       </c>
-      <c r="B258" s="48" t="s">
+      <c r="B258" s="47" t="s">
         <v>341</v>
       </c>
       <c r="C258" s="21" t="s">
@@ -19157,7 +19158,7 @@
       <c r="A259" s="29">
         <v>8</v>
       </c>
-      <c r="B259" s="48" t="s">
+      <c r="B259" s="47" t="s">
         <v>343</v>
       </c>
       <c r="C259" s="21" t="s">
@@ -19214,7 +19215,7 @@
       <c r="A260" s="29">
         <v>8</v>
       </c>
-      <c r="B260" s="48" t="s">
+      <c r="B260" s="47" t="s">
         <v>345</v>
       </c>
       <c r="C260" s="21" t="s">
@@ -19271,7 +19272,7 @@
       <c r="A261" s="29">
         <v>8</v>
       </c>
-      <c r="B261" s="48" t="s">
+      <c r="B261" s="47" t="s">
         <v>347</v>
       </c>
       <c r="C261" s="21" t="s">
@@ -19328,7 +19329,7 @@
       <c r="A262" s="29">
         <v>8</v>
       </c>
-      <c r="B262" s="48" t="s">
+      <c r="B262" s="47" t="s">
         <v>348</v>
       </c>
       <c r="C262" s="21" t="s">
@@ -19385,7 +19386,7 @@
       <c r="A263" s="29">
         <v>8</v>
       </c>
-      <c r="B263" s="48" t="s">
+      <c r="B263" s="47" t="s">
         <v>350</v>
       </c>
       <c r="C263" s="21" t="s">
@@ -19442,7 +19443,7 @@
       <c r="A264" s="28">
         <v>8</v>
       </c>
-      <c r="B264" s="48" t="s">
+      <c r="B264" s="47" t="s">
         <v>352</v>
       </c>
       <c r="C264" s="21" t="s">
@@ -19499,7 +19500,7 @@
       <c r="A265" s="29">
         <v>8</v>
       </c>
-      <c r="B265" s="48" t="s">
+      <c r="B265" s="47" t="s">
         <v>354</v>
       </c>
       <c r="C265" s="21" t="s">
@@ -19556,7 +19557,7 @@
       <c r="A266" s="29">
         <v>8</v>
       </c>
-      <c r="B266" s="48" t="s">
+      <c r="B266" s="47" t="s">
         <v>356</v>
       </c>
       <c r="C266" s="21" t="s">
@@ -19613,7 +19614,7 @@
       <c r="A267" s="29">
         <v>8</v>
       </c>
-      <c r="B267" s="48" t="s">
+      <c r="B267" s="47" t="s">
         <v>357</v>
       </c>
       <c r="C267" s="21" t="s">
@@ -19894,7 +19895,7 @@
       <c r="A272" s="29">
         <v>8</v>
       </c>
-      <c r="B272" s="48" t="s">
+      <c r="B272" s="47" t="s">
         <v>364</v>
       </c>
       <c r="C272" s="21" t="s">
@@ -19951,7 +19952,7 @@
       <c r="A273" s="29">
         <v>8</v>
       </c>
-      <c r="B273" s="48" t="s">
+      <c r="B273" s="47" t="s">
         <v>366</v>
       </c>
       <c r="C273" s="21" t="s">
@@ -20102,7 +20103,7 @@
       <c r="A276" s="29">
         <v>8</v>
       </c>
-      <c r="B276" s="48" t="s">
+      <c r="B276" s="47" t="s">
         <v>371</v>
       </c>
       <c r="C276" s="21" t="s">
@@ -20159,7 +20160,7 @@
       <c r="A277" s="29">
         <v>8</v>
       </c>
-      <c r="B277" s="48" t="s">
+      <c r="B277" s="47" t="s">
         <v>373</v>
       </c>
       <c r="C277" s="21" t="s">
@@ -35260,10 +35261,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
@@ -35783,18 +35784,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35817,14 +35818,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -35839,4 +35832,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>